--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R574"/>
+  <dimension ref="A1:R576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E562" t="n">
         <v>4</v>
@@ -40821,32 +40821,32 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="K562" t="n">
-        <v>11000</v>
+        <v>8800</v>
       </c>
       <c r="L562" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M562" t="n">
-        <v>11250</v>
+        <v>8900</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>625</v>
+        <v>890</v>
       </c>
       <c r="Q562" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E563" t="n">
         <v>4</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K563" t="n">
-        <v>4500</v>
+        <v>7800</v>
       </c>
       <c r="L563" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M563" t="n">
-        <v>4750</v>
+        <v>7900</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>475</v>
+        <v>790</v>
       </c>
       <c r="Q563" t="n">
         <v>10</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K564" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L564" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="M564" t="n">
-        <v>9250</v>
+        <v>11250</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K565" t="n">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="L565" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M565" t="n">
-        <v>3400</v>
+        <v>4750</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="Q565" t="n">
         <v>10</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E566" t="n">
         <v>4</v>
@@ -41100,25 +41100,25 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K566" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L566" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M566" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E567" t="n">
         <v>4</v>
@@ -41172,25 +41172,25 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K567" t="n">
-        <v>5800</v>
+        <v>3300</v>
       </c>
       <c r="L567" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M567" t="n">
-        <v>5900</v>
+        <v>3400</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="Q567" t="n">
         <v>10</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K568" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L568" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M568" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
@@ -41316,7 +41316,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -41328,13 +41328,13 @@
         <v>800</v>
       </c>
       <c r="K569" t="n">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="L569" t="n">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="M569" t="n">
-        <v>5650</v>
+        <v>5900</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="Q569" t="n">
         <v>10</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -41397,32 +41397,32 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="K570" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="L570" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M570" t="n">
-        <v>4400</v>
+        <v>5750</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>440</v>
+        <v>319</v>
       </c>
       <c r="Q570" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41469,20 +41469,20 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K571" t="n">
-        <v>11500</v>
+        <v>5600</v>
       </c>
       <c r="L571" t="n">
-        <v>12000</v>
+        <v>5700</v>
       </c>
       <c r="M571" t="n">
-        <v>11750</v>
+        <v>5650</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
@@ -41491,10 +41491,10 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>653</v>
+        <v>565</v>
       </c>
       <c r="Q571" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R571" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>900</v>
+        <v>540</v>
       </c>
       <c r="K572" t="n">
-        <v>5600</v>
+        <v>4300</v>
       </c>
       <c r="L572" t="n">
-        <v>5700</v>
+        <v>4500</v>
       </c>
       <c r="M572" t="n">
-        <v>5650</v>
+        <v>4400</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>565</v>
+        <v>440</v>
       </c>
       <c r="Q572" t="n">
         <v>10</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K573" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L573" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M573" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>520</v>
+        <v>900</v>
       </c>
       <c r="K574" t="n">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="L574" t="n">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="M574" t="n">
-        <v>4400</v>
+        <v>5650</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,12 +41707,156 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="Q574" t="n">
         <v>10</v>
       </c>
       <c r="R574" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>8</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D575" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E575" t="n">
+        <v>4</v>
+      </c>
+      <c r="F575" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J575" t="n">
+        <v>400</v>
+      </c>
+      <c r="K575" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L575" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M575" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N575" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P575" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>18</v>
+      </c>
+      <c r="R575" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>8</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D576" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E576" t="n">
+        <v>4</v>
+      </c>
+      <c r="F576" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J576" t="n">
+        <v>520</v>
+      </c>
+      <c r="K576" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L576" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M576" t="n">
+        <v>4400</v>
+      </c>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P576" t="n">
+        <v>440</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>10</v>
+      </c>
+      <c r="R576" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R599"/>
+  <dimension ref="A1:R603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K395" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L395" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="M395" t="n">
-        <v>9250</v>
+        <v>11250</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K396" t="n">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="L396" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M396" t="n">
-        <v>4900</v>
+        <v>5400</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="Q396" t="n">
         <v>10</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K397" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L397" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M397" t="n">
-        <v>7250</v>
+        <v>9250</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>403</v>
+        <v>514</v>
       </c>
       <c r="Q397" t="n">
         <v>18</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K398" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L398" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="M398" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="Q398" t="n">
         <v>10</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K399" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L399" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M399" t="n">
-        <v>11750</v>
+        <v>9250</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>653</v>
+        <v>514</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -29153,36 +29153,36 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K400" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="L400" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M400" t="n">
-        <v>9250</v>
+        <v>4900</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="Q400" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -29225,24 +29225,24 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K401" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="L401" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M401" t="n">
-        <v>4400</v>
+        <v>7250</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="Q401" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K402" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L402" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M402" t="n">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="Q402" t="n">
         <v>10</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K403" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L403" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M403" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K404" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L404" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M404" t="n">
-        <v>8500</v>
+        <v>9250</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K405" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L405" t="n">
         <v>4500</v>
       </c>
-      <c r="L405" t="n">
-        <v>5000</v>
-      </c>
       <c r="M405" t="n">
-        <v>4750</v>
+        <v>4400</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="Q405" t="n">
         <v>10</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -29589,32 +29589,32 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K406" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L406" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M406" t="n">
-        <v>8750</v>
+        <v>3250</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>486</v>
+        <v>325</v>
       </c>
       <c r="Q406" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29657,36 +29657,36 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="K407" t="n">
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="L407" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="M407" t="n">
-        <v>3250</v>
+        <v>10750</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>325</v>
+        <v>597</v>
       </c>
       <c r="Q407" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K408" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="L408" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M408" t="n">
-        <v>13750</v>
+        <v>8500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>764</v>
+        <v>472</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K409" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L409" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M409" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q409" t="n">
         <v>10</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K410" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L410" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M410" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>653</v>
+        <v>486</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="K411" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L411" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M411" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>575</v>
+        <v>325</v>
       </c>
       <c r="Q411" t="n">
         <v>10</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K412" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="L412" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M412" t="n">
-        <v>10250</v>
+        <v>13750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30039,11 +30039,11 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>569</v>
+        <v>764</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -30089,36 +30089,36 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K413" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L413" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M413" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>431</v>
+        <v>675</v>
       </c>
       <c r="Q413" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -30156,25 +30156,25 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K414" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L414" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M414" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,7 +30237,7 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K415" t="n">
         <v>5500</v>
@@ -30250,19 +30250,19 @@
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>319</v>
+        <v>575</v>
       </c>
       <c r="Q415" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -30309,7 +30309,7 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K416" t="n">
         <v>10000</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K417" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L417" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M417" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -30453,7 +30453,7 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K418" t="n">
         <v>7500</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="K419" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L419" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M419" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K420" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L420" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M420" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E421" t="n">
         <v>4</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K421" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L421" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M421" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E422" t="n">
         <v>4</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K422" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L422" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M422" t="n">
-        <v>15500</v>
+        <v>7750</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>861</v>
+        <v>431</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E423" t="n">
         <v>4</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="K423" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L423" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="M423" t="n">
-        <v>12250</v>
+        <v>5250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>681</v>
+        <v>292</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E424" t="n">
         <v>4</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K424" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L424" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M424" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E425" t="n">
         <v>4</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K425" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L425" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M425" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -31029,32 +31029,32 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>860</v>
+        <v>600</v>
       </c>
       <c r="K426" t="n">
-        <v>8800</v>
+        <v>15000</v>
       </c>
       <c r="L426" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M426" t="n">
-        <v>8900</v>
+        <v>15500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>890</v>
+        <v>861</v>
       </c>
       <c r="Q426" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E427" t="n">
         <v>4</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="K427" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="L427" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="M427" t="n">
-        <v>16750</v>
+        <v>12250</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31119,11 +31119,11 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>931</v>
+        <v>681</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E428" t="n">
         <v>4</v>
@@ -31164,41 +31164,41 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K428" t="n">
-        <v>7800</v>
+        <v>7000</v>
       </c>
       <c r="L428" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M428" t="n">
-        <v>7900</v>
+        <v>7250</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>790</v>
+        <v>403</v>
       </c>
       <c r="Q428" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E429" t="n">
         <v>4</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K429" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L429" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M429" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
@@ -31308,41 +31308,41 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>400</v>
+        <v>860</v>
       </c>
       <c r="K430" t="n">
-        <v>5000</v>
+        <v>8800</v>
       </c>
       <c r="L430" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M430" t="n">
-        <v>5250</v>
+        <v>8900</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>292</v>
+        <v>890</v>
       </c>
       <c r="Q430" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E431" t="n">
         <v>4</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>840</v>
+        <v>440</v>
       </c>
       <c r="K431" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="L431" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M431" t="n">
-        <v>9750</v>
+        <v>16750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>542</v>
+        <v>931</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E432" t="n">
         <v>4</v>
@@ -31464,29 +31464,29 @@
         <v>600</v>
       </c>
       <c r="K432" t="n">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="L432" t="n">
         <v>8000</v>
       </c>
       <c r="M432" t="n">
-        <v>7750</v>
+        <v>7900</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>431</v>
+        <v>790</v>
       </c>
       <c r="Q432" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E433" t="n">
         <v>4</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K433" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L433" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M433" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E434" t="n">
         <v>4</v>
@@ -31605,7 +31605,7 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K434" t="n">
         <v>5000</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E435" t="n">
         <v>4</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="K435" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L435" t="n">
         <v>10000</v>
       </c>
-      <c r="L435" t="n">
-        <v>10500</v>
-      </c>
       <c r="M435" t="n">
-        <v>10250</v>
+        <v>9750</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E436" t="n">
         <v>4</v>
@@ -31749,7 +31749,7 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K436" t="n">
         <v>7500</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E437" t="n">
         <v>4</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K437" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L437" t="n">
         <v>7500</v>
       </c>
-      <c r="L437" t="n">
-        <v>8000</v>
-      </c>
       <c r="M437" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E438" t="n">
         <v>4</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K438" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L438" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M438" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31911,11 +31911,11 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31956,25 +31956,25 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K439" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L439" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="M439" t="n">
-        <v>5250</v>
+        <v>10250</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>292</v>
+        <v>569</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K440" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L440" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M440" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E441" t="n">
         <v>4</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K441" t="n">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="L441" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M441" t="n">
-        <v>7400</v>
+        <v>7750</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E442" t="n">
         <v>4</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,32 +32181,32 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K442" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="L442" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M442" t="n">
-        <v>5400</v>
+        <v>7250</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>540</v>
+        <v>403</v>
       </c>
       <c r="Q442" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E443" t="n">
         <v>4</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32256,13 +32256,13 @@
         <v>400</v>
       </c>
       <c r="K443" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="L443" t="n">
         <v>5500</v>
       </c>
       <c r="M443" t="n">
-        <v>5400</v>
+        <v>5250</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E444" t="n">
         <v>4</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K444" t="n">
-        <v>6300</v>
+        <v>4500</v>
       </c>
       <c r="L444" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M444" t="n">
-        <v>6400</v>
+        <v>4750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32388,25 +32388,25 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K445" t="n">
-        <v>4300</v>
+        <v>7300</v>
       </c>
       <c r="L445" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M445" t="n">
-        <v>4400</v>
+        <v>7400</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>244</v>
+        <v>411</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
@@ -32469,32 +32469,32 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K446" t="n">
-        <v>10000</v>
+        <v>5300</v>
       </c>
       <c r="L446" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M446" t="n">
-        <v>10500</v>
+        <v>5400</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="Q446" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E447" t="n">
         <v>4</v>
@@ -32537,36 +32537,36 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K447" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="L447" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M447" t="n">
-        <v>6250</v>
+        <v>5400</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>625</v>
+        <v>300</v>
       </c>
       <c r="Q447" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E448" t="n">
         <v>4</v>
@@ -32604,25 +32604,25 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K448" t="n">
-        <v>7500</v>
+        <v>6300</v>
       </c>
       <c r="L448" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M448" t="n">
-        <v>7750</v>
+        <v>6400</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E449" t="n">
         <v>4</v>
@@ -32676,41 +32676,41 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K449" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L449" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M449" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>675</v>
+        <v>244</v>
       </c>
       <c r="Q449" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E450" t="n">
         <v>4</v>
@@ -32753,36 +32753,36 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K450" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L450" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M450" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="Q450" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E451" t="n">
         <v>4</v>
@@ -32825,36 +32825,36 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K451" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L451" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M451" t="n">
-        <v>10500</v>
+        <v>6250</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="Q451" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E452" t="n">
         <v>4</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="K452" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L452" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M452" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32973,32 +32973,32 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K453" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L453" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M453" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>472</v>
+        <v>675</v>
       </c>
       <c r="Q453" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E454" t="n">
         <v>4</v>
@@ -33041,24 +33041,24 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
         <v>400</v>
       </c>
       <c r="K454" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L454" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M454" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -33067,10 +33067,10 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="Q454" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33113,36 +33113,36 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K455" t="n">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="L455" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M455" t="n">
-        <v>5900</v>
+        <v>10500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="Q455" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33185,24 +33185,24 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K456" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L456" t="n">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="M456" t="n">
-        <v>4650</v>
+        <v>11500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>465</v>
+        <v>639</v>
       </c>
       <c r="Q456" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E457" t="n">
         <v>4</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K457" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L457" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M457" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>375</v>
+        <v>472</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E458" t="n">
         <v>4</v>
@@ -33324,25 +33324,25 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K458" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L458" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M458" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33351,11 +33351,11 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>264</v>
+        <v>528</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E459" t="n">
         <v>4</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,32 +33405,32 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K459" t="n">
-        <v>7500</v>
+        <v>5800</v>
       </c>
       <c r="L459" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M459" t="n">
-        <v>7750</v>
+        <v>5900</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>431</v>
+        <v>590</v>
       </c>
       <c r="Q459" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E460" t="n">
         <v>4</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,32 +33477,32 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K460" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L460" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M460" t="n">
-        <v>5250</v>
+        <v>4650</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>292</v>
+        <v>465</v>
       </c>
       <c r="Q460" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E461" t="n">
         <v>4</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K461" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L461" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M461" t="n">
-        <v>14500</v>
+        <v>6750</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>806</v>
+        <v>375</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E462" t="n">
         <v>4</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K462" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L462" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="M462" t="n">
-        <v>12250</v>
+        <v>4750</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>681</v>
+        <v>264</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E463" t="n">
         <v>4</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E464" t="n">
         <v>4</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K464" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L464" t="n">
         <v>5500</v>
       </c>
-      <c r="L464" t="n">
-        <v>6000</v>
-      </c>
       <c r="M464" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E465" t="n">
         <v>4</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="K465" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L465" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M465" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>542</v>
+        <v>806</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E466" t="n">
         <v>4</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K466" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L466" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="M466" t="n">
-        <v>7750</v>
+        <v>12250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>431</v>
+        <v>681</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33981,7 +33981,7 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K467" t="n">
         <v>7500</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K468" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L468" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M468" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K469" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L469" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M469" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E470" t="n">
         <v>4</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K470" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L470" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M470" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E471" t="n">
         <v>4</v>
@@ -34269,7 +34269,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K471" t="n">
         <v>7500</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34341,7 +34341,7 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K472" t="n">
         <v>5000</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K473" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L473" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M473" t="n">
-        <v>11750</v>
+        <v>7250</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>653</v>
+        <v>403</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K474" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L474" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M474" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K475" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L475" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M475" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34620,41 +34620,41 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K476" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L476" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M476" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>475</v>
+        <v>292</v>
       </c>
       <c r="Q476" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K477" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L477" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M477" t="n">
-        <v>9250</v>
+        <v>11750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>514</v>
+        <v>653</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E478" t="n">
         <v>4</v>
@@ -34776,29 +34776,29 @@
         <v>400</v>
       </c>
       <c r="K478" t="n">
-        <v>3300</v>
+        <v>9000</v>
       </c>
       <c r="L478" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="M478" t="n">
-        <v>3400</v>
+        <v>9250</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>340</v>
+        <v>514</v>
       </c>
       <c r="Q478" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E479" t="n">
         <v>4</v>
@@ -34845,32 +34845,32 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K479" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L479" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="M479" t="n">
-        <v>6250</v>
+        <v>11250</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P479" t="n">
         <v>625</v>
       </c>
       <c r="Q479" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E480" t="n">
         <v>4</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K480" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L480" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M480" t="n">
-        <v>4400</v>
+        <v>4750</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="Q480" t="n">
         <v>10</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34985,11 +34985,11 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K481" t="n">
         <v>9000</v>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P481" t="n">
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K482" t="n">
-        <v>4300</v>
+        <v>3300</v>
       </c>
       <c r="L482" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M482" t="n">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q482" t="n">
         <v>10</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E483" t="n">
         <v>4</v>
@@ -35129,24 +35129,24 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K483" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L483" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M483" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>403</v>
+        <v>625</v>
       </c>
       <c r="Q483" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K484" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="L484" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M484" t="n">
-        <v>3250</v>
+        <v>4400</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>325</v>
+        <v>440</v>
       </c>
       <c r="Q484" t="n">
         <v>10</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K485" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L485" t="n">
         <v>9500</v>
       </c>
-      <c r="L485" t="n">
-        <v>10000</v>
-      </c>
       <c r="M485" t="n">
-        <v>9750</v>
+        <v>9250</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35295,11 +35295,11 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35345,36 +35345,36 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K486" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L486" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M486" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="Q486" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
         <v>400</v>
       </c>
       <c r="K487" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L487" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M487" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35439,11 +35439,11 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P487" t="n">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E488" t="n">
         <v>4</v>
@@ -35484,41 +35484,41 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
         <v>600</v>
       </c>
       <c r="K488" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L488" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M488" t="n">
-        <v>7500</v>
+        <v>3250</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="Q488" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35556,25 +35556,25 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K489" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L489" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M489" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -35633,36 +35633,36 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K490" t="n">
-        <v>5400</v>
+        <v>6500</v>
       </c>
       <c r="L490" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M490" t="n">
-        <v>5450</v>
+        <v>6750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>545</v>
+        <v>375</v>
       </c>
       <c r="Q490" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
@@ -35705,36 +35705,36 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K491" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L491" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="M491" t="n">
-        <v>4100</v>
+        <v>4750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>410</v>
+        <v>264</v>
       </c>
       <c r="Q491" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,17 +35781,17 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K492" t="n">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="L492" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M492" t="n">
         <v>7500</v>
       </c>
-      <c r="M492" t="n">
-        <v>7400</v>
-      </c>
       <c r="N492" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K493" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="L493" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M493" t="n">
-        <v>5400</v>
+        <v>5750</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35928,29 +35928,29 @@
         <v>800</v>
       </c>
       <c r="K494" t="n">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="L494" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M494" t="n">
-        <v>6400</v>
+        <v>5450</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>356</v>
+        <v>545</v>
       </c>
       <c r="Q494" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E495" t="n">
         <v>4</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,32 +35997,32 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K495" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L495" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M495" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="Q495" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E496" t="n">
         <v>4</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K496" t="n">
-        <v>9500</v>
+        <v>7300</v>
       </c>
       <c r="L496" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M496" t="n">
-        <v>9750</v>
+        <v>7400</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>542</v>
+        <v>411</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E497" t="n">
         <v>4</v>
@@ -36132,25 +36132,25 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K497" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="L497" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M497" t="n">
-        <v>7250</v>
+        <v>5400</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E498" t="n">
         <v>4</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K498" t="n">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="L498" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M498" t="n">
-        <v>5250</v>
+        <v>6400</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E499" t="n">
         <v>4</v>
@@ -36276,25 +36276,25 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K499" t="n">
-        <v>11700</v>
+        <v>4300</v>
       </c>
       <c r="L499" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M499" t="n">
-        <v>11850</v>
+        <v>4400</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36303,11 +36303,11 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>658</v>
+        <v>244</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36357,32 +36357,32 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K500" t="n">
-        <v>5600</v>
+        <v>9500</v>
       </c>
       <c r="L500" t="n">
-        <v>5700</v>
+        <v>10000</v>
       </c>
       <c r="M500" t="n">
-        <v>5650</v>
+        <v>9750</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="Q500" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E501" t="n">
         <v>4</v>
@@ -36420,25 +36420,25 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="K501" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L501" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M501" t="n">
-        <v>9750</v>
+        <v>7250</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36447,11 +36447,11 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>542</v>
+        <v>403</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,32 +36501,32 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K502" t="n">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="L502" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M502" t="n">
-        <v>4400</v>
+        <v>5250</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>440</v>
+        <v>292</v>
       </c>
       <c r="Q502" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36573,20 +36573,20 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K503" t="n">
-        <v>5800</v>
+        <v>11700</v>
       </c>
       <c r="L503" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M503" t="n">
-        <v>5900</v>
+        <v>11850</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -36595,10 +36595,10 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="Q503" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K504" t="n">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="L504" t="n">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="M504" t="n">
-        <v>4400</v>
+        <v>5650</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="Q504" t="n">
         <v>10</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K505" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L505" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M505" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36735,11 +36735,11 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E506" t="n">
         <v>4</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36789,32 +36789,32 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K506" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L506" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M506" t="n">
-        <v>5250</v>
+        <v>4400</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="Q506" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E507" t="n">
         <v>4</v>
@@ -36864,29 +36864,29 @@
         <v>800</v>
       </c>
       <c r="K507" t="n">
-        <v>12000</v>
+        <v>5800</v>
       </c>
       <c r="L507" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M507" t="n">
-        <v>12500</v>
+        <v>5900</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>694</v>
+        <v>590</v>
       </c>
       <c r="Q507" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
@@ -36933,32 +36933,32 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K508" t="n">
-        <v>9500</v>
+        <v>4300</v>
       </c>
       <c r="L508" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M508" t="n">
-        <v>9750</v>
+        <v>4400</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>542</v>
+        <v>440</v>
       </c>
       <c r="Q508" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E509" t="n">
         <v>4</v>
@@ -37008,13 +37008,13 @@
         <v>800</v>
       </c>
       <c r="K509" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L509" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M509" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E510" t="n">
         <v>4</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K510" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L510" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M510" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37152,13 +37152,13 @@
         <v>800</v>
       </c>
       <c r="K511" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L511" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M511" t="n">
-        <v>7250</v>
+        <v>12500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>403</v>
+        <v>694</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E512" t="n">
         <v>4</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K512" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L512" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M512" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E513" t="n">
         <v>4</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J513" t="n">
         <v>800</v>
       </c>
       <c r="K513" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L513" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M513" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>806</v>
+        <v>486</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E514" t="n">
         <v>4</v>
@@ -37356,25 +37356,25 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K514" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L514" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M514" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>694</v>
+        <v>375</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37450,19 +37450,19 @@
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>725</v>
+        <v>403</v>
       </c>
       <c r="Q515" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E516" t="n">
         <v>4</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,32 +37509,32 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K516" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L516" t="n">
         <v>5500</v>
       </c>
-      <c r="L516" t="n">
-        <v>6000</v>
-      </c>
       <c r="M516" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="Q516" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E517" t="n">
         <v>4</v>
@@ -37577,24 +37577,24 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J517" t="n">
         <v>800</v>
       </c>
       <c r="K517" t="n">
-        <v>5400</v>
+        <v>14000</v>
       </c>
       <c r="L517" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M517" t="n">
-        <v>5450</v>
+        <v>14500</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -37603,10 +37603,10 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>545</v>
+        <v>806</v>
       </c>
       <c r="Q517" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R517" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
@@ -37649,24 +37649,24 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K518" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L518" t="n">
-        <v>4200</v>
+        <v>13000</v>
       </c>
       <c r="M518" t="n">
-        <v>4100</v>
+        <v>12500</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -37675,10 +37675,10 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>410</v>
+        <v>694</v>
       </c>
       <c r="Q518" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E519" t="n">
         <v>4</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K519" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L519" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M519" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q519" t="n">
         <v>10</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E520" t="n">
         <v>4</v>
@@ -37788,41 +37788,41 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K520" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L520" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M520" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="Q520" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R520" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E521" t="n">
         <v>4</v>
@@ -37860,41 +37860,41 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K521" t="n">
+        <v>5400</v>
+      </c>
+      <c r="L521" t="n">
         <v>5500</v>
       </c>
-      <c r="L521" t="n">
-        <v>6000</v>
-      </c>
       <c r="M521" t="n">
-        <v>5750</v>
+        <v>5450</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>319</v>
+        <v>545</v>
       </c>
       <c r="Q521" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E522" t="n">
         <v>4</v>
@@ -37937,36 +37937,36 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K522" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L522" t="n">
-        <v>13500</v>
+        <v>4200</v>
       </c>
       <c r="M522" t="n">
-        <v>13250</v>
+        <v>4100</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>736</v>
+        <v>410</v>
       </c>
       <c r="Q522" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E523" t="n">
         <v>4</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K523" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L523" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M523" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q523" t="n">
         <v>10</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E524" t="n">
         <v>4</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K524" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L524" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M524" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E525" t="n">
         <v>4</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K525" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L525" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M525" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K526" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L526" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="M526" t="n">
-        <v>7250</v>
+        <v>13250</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>403</v>
+        <v>736</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E527" t="n">
         <v>4</v>
@@ -38301,32 +38301,32 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K527" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L527" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M527" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>597</v>
+        <v>675</v>
       </c>
       <c r="Q527" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E528" t="n">
         <v>4</v>
@@ -38364,41 +38364,41 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K528" t="n">
-        <v>5800</v>
+        <v>11500</v>
       </c>
       <c r="L528" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M528" t="n">
-        <v>5900</v>
+        <v>11750</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="Q528" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E529" t="n">
         <v>4</v>
@@ -38436,25 +38436,25 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K529" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L529" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M529" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E530" t="n">
         <v>4</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,32 +38517,32 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K530" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L530" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M530" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="Q530" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K531" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L531" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M531" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E532" t="n">
         <v>4</v>
@@ -38661,32 +38661,32 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K532" t="n">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="L532" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M532" t="n">
-        <v>11750</v>
+        <v>5900</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="Q532" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E533" t="n">
         <v>4</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K533" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L533" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M533" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E534" t="n">
         <v>4</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>860</v>
+        <v>400</v>
       </c>
       <c r="K534" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L534" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="M534" t="n">
-        <v>5550</v>
+        <v>4250</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>555</v>
+        <v>425</v>
       </c>
       <c r="Q534" t="n">
         <v>10</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E535" t="n">
         <v>4</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K535" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L535" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M535" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K536" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L536" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M536" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E537" t="n">
         <v>4</v>
@@ -39012,7 +39012,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K537" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L537" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M537" t="n">
-        <v>8250</v>
+        <v>10750</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>458</v>
+        <v>597</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E538" t="n">
         <v>4</v>
@@ -39084,41 +39084,41 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>560</v>
+        <v>860</v>
       </c>
       <c r="K538" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L538" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="M538" t="n">
-        <v>6250</v>
+        <v>5550</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>347</v>
+        <v>555</v>
       </c>
       <c r="Q538" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E539" t="n">
         <v>4</v>
@@ -39161,36 +39161,36 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K539" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L539" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M539" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="Q539" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E540" t="n">
         <v>4</v>
@@ -39237,20 +39237,20 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K540" t="n">
-        <v>4300</v>
+        <v>8500</v>
       </c>
       <c r="L540" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M540" t="n">
-        <v>4400</v>
+        <v>8750</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -39259,10 +39259,10 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="Q540" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E541" t="n">
         <v>4</v>
@@ -39312,13 +39312,13 @@
         <v>800</v>
       </c>
       <c r="K541" t="n">
-        <v>6800</v>
+        <v>8000</v>
       </c>
       <c r="L541" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M541" t="n">
-        <v>6900</v>
+        <v>8250</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E542" t="n">
         <v>4</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K542" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L542" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M542" t="n">
-        <v>4900</v>
+        <v>6250</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E543" t="n">
         <v>4</v>
@@ -39444,7 +39444,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -39453,32 +39453,32 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K543" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L543" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M543" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>528</v>
+        <v>625</v>
       </c>
       <c r="Q543" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E544" t="n">
         <v>4</v>
@@ -39516,7 +39516,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -39525,32 +39525,32 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="K544" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L544" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M544" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="Q544" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E545" t="n">
         <v>4</v>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K545" t="n">
-        <v>11000</v>
+        <v>6800</v>
       </c>
       <c r="L545" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M545" t="n">
-        <v>11250</v>
+        <v>6900</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E546" t="n">
         <v>4</v>
@@ -39660,41 +39660,41 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K546" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="L546" t="n">
         <v>5000</v>
       </c>
       <c r="M546" t="n">
-        <v>4750</v>
+        <v>4900</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="Q546" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E547" t="n">
         <v>4</v>
@@ -39732,25 +39732,25 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J547" t="n">
         <v>600</v>
       </c>
       <c r="K547" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L547" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M547" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E548" t="n">
         <v>4</v>
@@ -39804,41 +39804,41 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K548" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="L548" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M548" t="n">
-        <v>5900</v>
+        <v>6750</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>590</v>
+        <v>375</v>
       </c>
       <c r="Q548" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E549" t="n">
         <v>4</v>
@@ -39881,36 +39881,36 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="K549" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L549" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="M549" t="n">
-        <v>4250</v>
+        <v>11250</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q549" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R549" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E550" t="n">
         <v>4</v>
@@ -39957,32 +39957,32 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K550" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L550" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M550" t="n">
-        <v>13500</v>
+        <v>4750</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q550" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E551" t="n">
         <v>4</v>
@@ -40029,16 +40029,16 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K551" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L551" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M551" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>639</v>
+        <v>486</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E552" t="n">
         <v>4</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,32 +40101,32 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K552" t="n">
-        <v>11000</v>
+        <v>5800</v>
       </c>
       <c r="L552" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M552" t="n">
-        <v>11500</v>
+        <v>5900</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="Q552" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E553" t="n">
         <v>4</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40173,32 +40173,32 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K553" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L553" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M553" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>528</v>
+        <v>425</v>
       </c>
       <c r="Q553" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E554" t="n">
         <v>4</v>
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K554" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L554" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M554" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>653</v>
+        <v>750</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E555" t="n">
         <v>4</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
         <v>400</v>
       </c>
       <c r="K555" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L555" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M555" t="n">
-        <v>10750</v>
+        <v>11500</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40335,11 +40335,11 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E556" t="n">
         <v>4</v>
@@ -40380,25 +40380,25 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K556" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L556" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M556" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>542</v>
+        <v>639</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E557" t="n">
         <v>4</v>
@@ -40452,7 +40452,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K557" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L557" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M557" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E558" t="n">
         <v>4</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K558" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L558" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M558" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E559" t="n">
         <v>4</v>
@@ -40605,20 +40605,20 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K559" t="n">
-        <v>5300</v>
+        <v>10500</v>
       </c>
       <c r="L559" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="M559" t="n">
-        <v>5400</v>
+        <v>10750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
@@ -40627,10 +40627,10 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="Q559" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E560" t="n">
         <v>4</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K560" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L560" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M560" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E561" t="n">
         <v>4</v>
@@ -40749,20 +40749,20 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K561" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L561" t="n">
-        <v>4200</v>
+        <v>9000</v>
       </c>
       <c r="M561" t="n">
-        <v>4100</v>
+        <v>8750</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -40771,10 +40771,10 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="Q561" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K562" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L562" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M562" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>347</v>
+        <v>542</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E563" t="n">
         <v>4</v>
@@ -40893,20 +40893,20 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="K563" t="n">
-        <v>9500</v>
+        <v>5300</v>
       </c>
       <c r="L563" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M563" t="n">
-        <v>9750</v>
+        <v>5400</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
@@ -40915,10 +40915,10 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q563" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E564" t="n">
         <v>4</v>
@@ -40961,24 +40961,24 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="K564" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L564" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="M564" t="n">
-        <v>5100</v>
+        <v>7750</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -40987,10 +40987,10 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>510</v>
+        <v>431</v>
       </c>
       <c r="Q564" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E565" t="n">
         <v>4</v>
@@ -41037,20 +41037,20 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K565" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L565" t="n">
-        <v>8000</v>
+        <v>4200</v>
       </c>
       <c r="M565" t="n">
-        <v>7750</v>
+        <v>4100</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -41059,10 +41059,10 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q565" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R565" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E566" t="n">
         <v>4</v>
@@ -41105,24 +41105,24 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J566" t="n">
         <v>400</v>
       </c>
       <c r="K566" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L566" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M566" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -41131,10 +41131,10 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="Q566" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E567" t="n">
         <v>4</v>
@@ -41172,7 +41172,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>800</v>
+        <v>660</v>
       </c>
       <c r="K567" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L567" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M567" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E568" t="n">
         <v>4</v>
@@ -41244,41 +41244,41 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>440</v>
+        <v>840</v>
       </c>
       <c r="K568" t="n">
         <v>5000</v>
       </c>
       <c r="L568" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="M568" t="n">
-        <v>5250</v>
+        <v>5100</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="Q568" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>900</v>
+        <v>440</v>
       </c>
       <c r="K569" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L569" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M569" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41397,32 +41397,32 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K570" t="n">
-        <v>9000</v>
+        <v>3800</v>
       </c>
       <c r="L570" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M570" t="n">
-        <v>9500</v>
+        <v>3900</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>528</v>
+        <v>390</v>
       </c>
       <c r="Q570" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41460,25 +41460,25 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K571" t="n">
         <v>7000</v>
       </c>
       <c r="L571" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M571" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="K572" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L572" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M572" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K573" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L573" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M573" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41676,7 +41676,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -41688,13 +41688,13 @@
         <v>600</v>
       </c>
       <c r="K574" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L574" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M574" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E575" t="n">
         <v>4</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K575" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L575" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M575" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E576" t="n">
         <v>4</v>
@@ -41820,25 +41820,25 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K576" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L576" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M576" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E577" t="n">
         <v>4</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41904,13 +41904,13 @@
         <v>800</v>
       </c>
       <c r="K577" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L577" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M577" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>597</v>
+        <v>472</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E578" t="n">
         <v>4</v>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -41976,13 +41976,13 @@
         <v>600</v>
       </c>
       <c r="K578" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L578" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M578" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>458</v>
+        <v>292</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E579" t="n">
         <v>4</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K579" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L579" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="M579" t="n">
-        <v>6250</v>
+        <v>11250</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>347</v>
+        <v>625</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E580" t="n">
         <v>4</v>
@@ -42108,25 +42108,25 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K580" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L580" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M580" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42180,25 +42180,25 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K581" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L581" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M581" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E582" t="n">
         <v>4</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J582" t="n">
         <v>600</v>
       </c>
       <c r="K582" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L582" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M582" t="n">
-        <v>9750</v>
+        <v>8250</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E583" t="n">
         <v>4</v>
@@ -42329,36 +42329,36 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K583" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="L583" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M583" t="n">
-        <v>5400</v>
+        <v>6250</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="Q583" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R583" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E584" t="n">
         <v>4</v>
@@ -42396,41 +42396,41 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K584" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L584" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="M584" t="n">
-        <v>4100</v>
+        <v>7750</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="Q584" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E585" t="n">
         <v>4</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K585" t="n">
-        <v>8800</v>
+        <v>5500</v>
       </c>
       <c r="L585" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M585" t="n">
-        <v>8900</v>
+        <v>5750</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E586" t="n">
         <v>4</v>
@@ -42540,25 +42540,25 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K586" t="n">
-        <v>6800</v>
+        <v>9500</v>
       </c>
       <c r="L586" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M586" t="n">
-        <v>6900</v>
+        <v>9750</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>383</v>
+        <v>542</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E587" t="n">
         <v>4</v>
@@ -42624,13 +42624,13 @@
         <v>800</v>
       </c>
       <c r="K587" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="L587" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M587" t="n">
-        <v>6250</v>
+        <v>5400</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>625</v>
+        <v>540</v>
       </c>
       <c r="Q587" t="n">
         <v>10</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E588" t="n">
         <v>4</v>
@@ -42696,13 +42696,13 @@
         <v>400</v>
       </c>
       <c r="K588" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L588" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M588" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="Q588" t="n">
         <v>10</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E589" t="n">
         <v>4</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
         <v>800</v>
       </c>
       <c r="K589" t="n">
-        <v>11000</v>
+        <v>8800</v>
       </c>
       <c r="L589" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M589" t="n">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>639</v>
+        <v>494</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E590" t="n">
         <v>4</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K590" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="L590" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M590" t="n">
-        <v>9500</v>
+        <v>6900</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>528</v>
+        <v>383</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E591" t="n">
         <v>4</v>
@@ -42900,41 +42900,41 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K591" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L591" t="n">
         <v>6500</v>
       </c>
-      <c r="L591" t="n">
-        <v>7000</v>
-      </c>
       <c r="M591" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q591" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E592" t="n">
         <v>4</v>
@@ -42977,24 +42977,24 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K592" t="n">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="L592" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M592" t="n">
-        <v>9250</v>
+        <v>4400</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -43003,10 +43003,10 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="Q592" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R592" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E593" t="n">
         <v>4</v>
@@ -43044,41 +43044,41 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J593" t="n">
         <v>800</v>
       </c>
       <c r="K593" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L593" t="n">
-        <v>4600</v>
+        <v>12000</v>
       </c>
       <c r="M593" t="n">
-        <v>4550</v>
+        <v>11500</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>455</v>
+        <v>639</v>
       </c>
       <c r="Q593" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E594" t="n">
         <v>4</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K594" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L594" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M594" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>403</v>
+        <v>528</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -43197,32 +43197,32 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K595" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L595" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M595" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="Q595" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -43272,13 +43272,13 @@
         <v>700</v>
       </c>
       <c r="K596" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L596" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M596" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E597" t="n">
         <v>4</v>
@@ -43337,36 +43337,36 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K597" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L597" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M597" t="n">
-        <v>5750</v>
+        <v>4550</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>319</v>
+        <v>455</v>
       </c>
       <c r="Q597" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43404,25 +43404,25 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K598" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L598" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M598" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,58 +43461,346 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E599" t="n">
+        <v>4</v>
+      </c>
+      <c r="F599" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J599" t="n">
+        <v>440</v>
+      </c>
+      <c r="K599" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L599" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M599" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P599" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q599" t="n">
+        <v>10</v>
+      </c>
+      <c r="R599" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>8</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D600" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E599" t="n">
-        <v>4</v>
-      </c>
-      <c r="F599" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H599" t="inlineStr">
+      <c r="E600" t="n">
+        <v>4</v>
+      </c>
+      <c r="F600" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J600" t="n">
+        <v>700</v>
+      </c>
+      <c r="K600" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L600" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M600" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P600" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>18</v>
+      </c>
+      <c r="R600" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>8</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D601" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E601" t="n">
+        <v>4</v>
+      </c>
+      <c r="F601" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J601" t="n">
+        <v>400</v>
+      </c>
+      <c r="K601" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L601" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M601" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P601" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>18</v>
+      </c>
+      <c r="R601" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>8</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D602" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E602" t="n">
+        <v>4</v>
+      </c>
+      <c r="F602" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
         <is>
           <t>Semiduro</t>
         </is>
       </c>
-      <c r="I599" t="inlineStr">
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J602" t="n">
+        <v>800</v>
+      </c>
+      <c r="K602" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L602" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M602" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P602" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q602" t="n">
+        <v>18</v>
+      </c>
+      <c r="R602" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>8</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D603" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E603" t="n">
+        <v>4</v>
+      </c>
+      <c r="F603" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J599" t="n">
+      <c r="J603" t="n">
         <v>560</v>
       </c>
-      <c r="K599" t="n">
+      <c r="K603" t="n">
         <v>4500</v>
       </c>
-      <c r="L599" t="n">
+      <c r="L603" t="n">
         <v>5000</v>
       </c>
-      <c r="M599" t="n">
+      <c r="M603" t="n">
         <v>4750</v>
       </c>
-      <c r="N599" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O599" t="inlineStr">
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O603" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P599" t="n">
+      <c r="P603" t="n">
         <v>264</v>
       </c>
-      <c r="Q599" t="n">
-        <v>18</v>
-      </c>
-      <c r="R599" t="inlineStr">
+      <c r="Q603" t="n">
+        <v>18</v>
+      </c>
+      <c r="R603" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R607"/>
+  <dimension ref="A1:R611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34128,13 +34128,13 @@
         <v>720</v>
       </c>
       <c r="K469" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L469" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M469" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>806</v>
+        <v>653</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E470" t="n">
         <v>4</v>
@@ -34193,36 +34193,36 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>540</v>
+        <v>880</v>
       </c>
       <c r="K470" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L470" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="M470" t="n">
-        <v>12250</v>
+        <v>5750</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>681</v>
+        <v>575</v>
       </c>
       <c r="Q470" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E471" t="n">
         <v>4</v>
@@ -34260,25 +34260,25 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K471" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L471" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M471" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,32 +34341,32 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K472" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L472" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M472" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="Q472" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="K473" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L473" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M473" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>542</v>
+        <v>806</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K474" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L474" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="M474" t="n">
-        <v>7750</v>
+        <v>12250</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>431</v>
+        <v>681</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34557,7 +34557,7 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K475" t="n">
         <v>7500</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K476" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L476" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M476" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K477" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L477" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M477" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E478" t="n">
         <v>4</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K478" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L478" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M478" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E479" t="n">
         <v>4</v>
@@ -34845,7 +34845,7 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K479" t="n">
         <v>7500</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E480" t="n">
         <v>4</v>
@@ -34917,7 +34917,7 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K480" t="n">
         <v>5000</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K481" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L481" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M481" t="n">
-        <v>11750</v>
+        <v>7250</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>653</v>
+        <v>403</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K482" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L482" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M482" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E483" t="n">
         <v>4</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K483" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L483" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M483" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35196,41 +35196,41 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K484" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L484" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M484" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>475</v>
+        <v>292</v>
       </c>
       <c r="Q484" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K485" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L485" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M485" t="n">
-        <v>9250</v>
+        <v>11750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>514</v>
+        <v>653</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35352,29 +35352,29 @@
         <v>400</v>
       </c>
       <c r="K486" t="n">
-        <v>3300</v>
+        <v>9000</v>
       </c>
       <c r="L486" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="M486" t="n">
-        <v>3400</v>
+        <v>9250</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>340</v>
+        <v>514</v>
       </c>
       <c r="Q486" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35421,32 +35421,32 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K487" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L487" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="M487" t="n">
-        <v>6250</v>
+        <v>11250</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P487" t="n">
         <v>625</v>
       </c>
       <c r="Q487" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E488" t="n">
         <v>4</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K488" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L488" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M488" t="n">
-        <v>4400</v>
+        <v>4750</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="Q488" t="n">
         <v>10</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E489" t="n">
         <v>4</v>
@@ -35561,11 +35561,11 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K489" t="n">
         <v>9000</v>
@@ -35583,7 +35583,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P489" t="n">
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K490" t="n">
-        <v>4300</v>
+        <v>3300</v>
       </c>
       <c r="L490" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M490" t="n">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q490" t="n">
         <v>10</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
@@ -35705,24 +35705,24 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K491" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L491" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M491" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -35731,10 +35731,10 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>403</v>
+        <v>625</v>
       </c>
       <c r="Q491" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K492" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="L492" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M492" t="n">
-        <v>3250</v>
+        <v>4400</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>325</v>
+        <v>440</v>
       </c>
       <c r="Q492" t="n">
         <v>10</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K493" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L493" t="n">
         <v>9500</v>
       </c>
-      <c r="L493" t="n">
-        <v>10000</v>
-      </c>
       <c r="M493" t="n">
-        <v>9750</v>
+        <v>9250</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35921,36 +35921,36 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K494" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L494" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M494" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="Q494" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E495" t="n">
         <v>4</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
         <v>400</v>
       </c>
       <c r="K495" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L495" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M495" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E496" t="n">
         <v>4</v>
@@ -36060,41 +36060,41 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
         <v>600</v>
       </c>
       <c r="K496" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L496" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M496" t="n">
-        <v>7500</v>
+        <v>3250</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="Q496" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36132,25 +36132,25 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K497" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L497" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M497" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E498" t="n">
         <v>4</v>
@@ -36209,36 +36209,36 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K498" t="n">
-        <v>5400</v>
+        <v>6500</v>
       </c>
       <c r="L498" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M498" t="n">
-        <v>5450</v>
+        <v>6750</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>545</v>
+        <v>375</v>
       </c>
       <c r="Q498" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E499" t="n">
         <v>4</v>
@@ -36281,36 +36281,36 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K499" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L499" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="M499" t="n">
-        <v>4100</v>
+        <v>4750</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>410</v>
+        <v>264</v>
       </c>
       <c r="Q499" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,17 +36357,17 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K500" t="n">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="L500" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M500" t="n">
         <v>7500</v>
       </c>
-      <c r="M500" t="n">
-        <v>7400</v>
-      </c>
       <c r="N500" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E501" t="n">
         <v>4</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K501" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="L501" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M501" t="n">
-        <v>5400</v>
+        <v>5750</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36504,29 +36504,29 @@
         <v>800</v>
       </c>
       <c r="K502" t="n">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="L502" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M502" t="n">
-        <v>6400</v>
+        <v>5450</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>356</v>
+        <v>545</v>
       </c>
       <c r="Q502" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,32 +36573,32 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K503" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L503" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M503" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="Q503" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K504" t="n">
-        <v>9500</v>
+        <v>7300</v>
       </c>
       <c r="L504" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M504" t="n">
-        <v>9750</v>
+        <v>7400</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>542</v>
+        <v>411</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K505" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="L505" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M505" t="n">
-        <v>7250</v>
+        <v>5400</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E506" t="n">
         <v>4</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K506" t="n">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="L506" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M506" t="n">
-        <v>5250</v>
+        <v>6400</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E507" t="n">
         <v>4</v>
@@ -36852,25 +36852,25 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K507" t="n">
-        <v>11700</v>
+        <v>4300</v>
       </c>
       <c r="L507" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M507" t="n">
-        <v>11850</v>
+        <v>4400</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>658</v>
+        <v>244</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
@@ -36933,32 +36933,32 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K508" t="n">
-        <v>5600</v>
+        <v>9500</v>
       </c>
       <c r="L508" t="n">
-        <v>5700</v>
+        <v>10000</v>
       </c>
       <c r="M508" t="n">
-        <v>5650</v>
+        <v>9750</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="Q508" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E509" t="n">
         <v>4</v>
@@ -36996,25 +36996,25 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="K509" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L509" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M509" t="n">
-        <v>9750</v>
+        <v>7250</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37023,11 +37023,11 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>542</v>
+        <v>403</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E510" t="n">
         <v>4</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,32 +37077,32 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K510" t="n">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="L510" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M510" t="n">
-        <v>4400</v>
+        <v>5250</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>440</v>
+        <v>292</v>
       </c>
       <c r="Q510" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37149,20 +37149,20 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K511" t="n">
-        <v>5800</v>
+        <v>11700</v>
       </c>
       <c r="L511" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M511" t="n">
-        <v>5900</v>
+        <v>11850</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -37171,10 +37171,10 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="Q511" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E512" t="n">
         <v>4</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K512" t="n">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="L512" t="n">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="M512" t="n">
-        <v>4400</v>
+        <v>5650</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="Q512" t="n">
         <v>10</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E513" t="n">
         <v>4</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K513" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L513" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M513" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E514" t="n">
         <v>4</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,32 +37365,32 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K514" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L514" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M514" t="n">
-        <v>5250</v>
+        <v>4400</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="Q514" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R514" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37440,29 +37440,29 @@
         <v>800</v>
       </c>
       <c r="K515" t="n">
-        <v>12000</v>
+        <v>5800</v>
       </c>
       <c r="L515" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M515" t="n">
-        <v>12500</v>
+        <v>5900</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>694</v>
+        <v>590</v>
       </c>
       <c r="Q515" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E516" t="n">
         <v>4</v>
@@ -37509,32 +37509,32 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K516" t="n">
-        <v>9500</v>
+        <v>4300</v>
       </c>
       <c r="L516" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M516" t="n">
-        <v>9750</v>
+        <v>4400</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>542</v>
+        <v>440</v>
       </c>
       <c r="Q516" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E517" t="n">
         <v>4</v>
@@ -37584,13 +37584,13 @@
         <v>800</v>
       </c>
       <c r="K517" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L517" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M517" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K518" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L518" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M518" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E519" t="n">
         <v>4</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37728,13 +37728,13 @@
         <v>800</v>
       </c>
       <c r="K519" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L519" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M519" t="n">
-        <v>7250</v>
+        <v>12500</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>403</v>
+        <v>694</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E520" t="n">
         <v>4</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K520" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L520" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M520" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E521" t="n">
         <v>4</v>
@@ -37860,25 +37860,25 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
         <v>800</v>
       </c>
       <c r="K521" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L521" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M521" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37887,11 +37887,11 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>806</v>
+        <v>486</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E522" t="n">
         <v>4</v>
@@ -37932,25 +37932,25 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K522" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L522" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M522" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>694</v>
+        <v>375</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E523" t="n">
         <v>4</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38026,19 +38026,19 @@
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>725</v>
+        <v>403</v>
       </c>
       <c r="Q523" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R523" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E524" t="n">
         <v>4</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,32 +38085,32 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K524" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L524" t="n">
         <v>5500</v>
       </c>
-      <c r="L524" t="n">
-        <v>6000</v>
-      </c>
       <c r="M524" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="Q524" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E525" t="n">
         <v>4</v>
@@ -38153,24 +38153,24 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J525" t="n">
         <v>800</v>
       </c>
       <c r="K525" t="n">
-        <v>5400</v>
+        <v>14000</v>
       </c>
       <c r="L525" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M525" t="n">
-        <v>5450</v>
+        <v>14500</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -38179,10 +38179,10 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>545</v>
+        <v>806</v>
       </c>
       <c r="Q525" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R525" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E526" t="n">
         <v>4</v>
@@ -38225,24 +38225,24 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K526" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L526" t="n">
-        <v>4200</v>
+        <v>13000</v>
       </c>
       <c r="M526" t="n">
-        <v>4100</v>
+        <v>12500</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -38251,10 +38251,10 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>410</v>
+        <v>694</v>
       </c>
       <c r="Q526" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R526" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E527" t="n">
         <v>4</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K527" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L527" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M527" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q527" t="n">
         <v>10</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E528" t="n">
         <v>4</v>
@@ -38364,41 +38364,41 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K528" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L528" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M528" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="Q528" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E529" t="n">
         <v>4</v>
@@ -38436,41 +38436,41 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K529" t="n">
+        <v>5400</v>
+      </c>
+      <c r="L529" t="n">
         <v>5500</v>
       </c>
-      <c r="L529" t="n">
-        <v>6000</v>
-      </c>
       <c r="M529" t="n">
-        <v>5750</v>
+        <v>5450</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>319</v>
+        <v>545</v>
       </c>
       <c r="Q529" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E530" t="n">
         <v>4</v>
@@ -38513,36 +38513,36 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K530" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L530" t="n">
-        <v>13500</v>
+        <v>4200</v>
       </c>
       <c r="M530" t="n">
-        <v>13250</v>
+        <v>4100</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>736</v>
+        <v>410</v>
       </c>
       <c r="Q530" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E531" t="n">
         <v>4</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K531" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L531" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M531" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q531" t="n">
         <v>10</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E532" t="n">
         <v>4</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K532" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L532" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M532" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E533" t="n">
         <v>4</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K533" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L533" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M533" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38796,25 +38796,25 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K534" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L534" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="M534" t="n">
-        <v>7250</v>
+        <v>13250</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>403</v>
+        <v>736</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E535" t="n">
         <v>4</v>
@@ -38877,32 +38877,32 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K535" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L535" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M535" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>597</v>
+        <v>675</v>
       </c>
       <c r="Q535" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E536" t="n">
         <v>4</v>
@@ -38940,41 +38940,41 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K536" t="n">
-        <v>5800</v>
+        <v>11500</v>
       </c>
       <c r="L536" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M536" t="n">
-        <v>5900</v>
+        <v>11750</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="Q536" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E537" t="n">
         <v>4</v>
@@ -39012,25 +39012,25 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K537" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L537" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M537" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E538" t="n">
         <v>4</v>
@@ -39084,7 +39084,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -39093,32 +39093,32 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K538" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L538" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M538" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="Q538" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K539" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L539" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M539" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E540" t="n">
         <v>4</v>
@@ -39237,32 +39237,32 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K540" t="n">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="L540" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M540" t="n">
-        <v>11750</v>
+        <v>5900</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="Q540" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E541" t="n">
         <v>4</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K541" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L541" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M541" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39327,11 +39327,11 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E542" t="n">
         <v>4</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>860</v>
+        <v>400</v>
       </c>
       <c r="K542" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L542" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="M542" t="n">
-        <v>5550</v>
+        <v>4250</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>555</v>
+        <v>425</v>
       </c>
       <c r="Q542" t="n">
         <v>10</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E543" t="n">
         <v>4</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K543" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L543" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M543" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K544" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L544" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M544" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E545" t="n">
         <v>4</v>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K545" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L545" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M545" t="n">
-        <v>8250</v>
+        <v>10750</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>458</v>
+        <v>597</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E546" t="n">
         <v>4</v>
@@ -39660,41 +39660,41 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>560</v>
+        <v>860</v>
       </c>
       <c r="K546" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L546" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="M546" t="n">
-        <v>6250</v>
+        <v>5550</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>347</v>
+        <v>555</v>
       </c>
       <c r="Q546" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E547" t="n">
         <v>4</v>
@@ -39737,36 +39737,36 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K547" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L547" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M547" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="Q547" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E548" t="n">
         <v>4</v>
@@ -39813,20 +39813,20 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K548" t="n">
-        <v>4300</v>
+        <v>8500</v>
       </c>
       <c r="L548" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M548" t="n">
-        <v>4400</v>
+        <v>8750</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -39835,10 +39835,10 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="Q548" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E549" t="n">
         <v>4</v>
@@ -39888,13 +39888,13 @@
         <v>800</v>
       </c>
       <c r="K549" t="n">
-        <v>6800</v>
+        <v>8000</v>
       </c>
       <c r="L549" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M549" t="n">
-        <v>6900</v>
+        <v>8250</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E550" t="n">
         <v>4</v>
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K550" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L550" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M550" t="n">
-        <v>4900</v>
+        <v>6250</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E551" t="n">
         <v>4</v>
@@ -40020,7 +40020,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -40029,32 +40029,32 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K551" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L551" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M551" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>528</v>
+        <v>625</v>
       </c>
       <c r="Q551" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E552" t="n">
         <v>4</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,32 +40101,32 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="K552" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L552" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M552" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="Q552" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E553" t="n">
         <v>4</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K553" t="n">
-        <v>11000</v>
+        <v>6800</v>
       </c>
       <c r="L553" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M553" t="n">
-        <v>11250</v>
+        <v>6900</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E554" t="n">
         <v>4</v>
@@ -40236,41 +40236,41 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K554" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="L554" t="n">
         <v>5000</v>
       </c>
       <c r="M554" t="n">
-        <v>4750</v>
+        <v>4900</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="Q554" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E555" t="n">
         <v>4</v>
@@ -40308,25 +40308,25 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
         <v>600</v>
       </c>
       <c r="K555" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L555" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M555" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E556" t="n">
         <v>4</v>
@@ -40380,41 +40380,41 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K556" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="L556" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M556" t="n">
-        <v>5900</v>
+        <v>6750</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>590</v>
+        <v>375</v>
       </c>
       <c r="Q556" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R556" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E557" t="n">
         <v>4</v>
@@ -40457,36 +40457,36 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="K557" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L557" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="M557" t="n">
-        <v>4250</v>
+        <v>11250</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q557" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R557" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E558" t="n">
         <v>4</v>
@@ -40533,32 +40533,32 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K558" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L558" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M558" t="n">
-        <v>13500</v>
+        <v>4750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q558" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E559" t="n">
         <v>4</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K559" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L559" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M559" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>639</v>
+        <v>486</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E560" t="n">
         <v>4</v>
@@ -40668,7 +40668,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -40677,32 +40677,32 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K560" t="n">
-        <v>11000</v>
+        <v>5800</v>
       </c>
       <c r="L560" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M560" t="n">
-        <v>11500</v>
+        <v>5900</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="Q560" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R560" t="inlineStr">
         <is>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E561" t="n">
         <v>4</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,32 +40749,32 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K561" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L561" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M561" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>528</v>
+        <v>425</v>
       </c>
       <c r="Q561" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E562" t="n">
         <v>4</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K562" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L562" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M562" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>653</v>
+        <v>750</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E563" t="n">
         <v>4</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J563" t="n">
         <v>400</v>
       </c>
       <c r="K563" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L563" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M563" t="n">
-        <v>10750</v>
+        <v>11500</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E564" t="n">
         <v>4</v>
@@ -40956,25 +40956,25 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K564" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L564" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M564" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>542</v>
+        <v>639</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E565" t="n">
         <v>4</v>
@@ -41028,7 +41028,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K565" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L565" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M565" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E566" t="n">
         <v>4</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K566" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L566" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M566" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E567" t="n">
         <v>4</v>
@@ -41181,20 +41181,20 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K567" t="n">
-        <v>5300</v>
+        <v>10500</v>
       </c>
       <c r="L567" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="M567" t="n">
-        <v>5400</v>
+        <v>10750</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -41203,10 +41203,10 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="Q567" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R567" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E568" t="n">
         <v>4</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K568" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L568" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M568" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
@@ -41325,20 +41325,20 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K569" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L569" t="n">
-        <v>4200</v>
+        <v>9000</v>
       </c>
       <c r="M569" t="n">
-        <v>4100</v>
+        <v>8750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -41347,10 +41347,10 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="Q569" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R569" t="inlineStr">
         <is>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K570" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L570" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M570" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>347</v>
+        <v>542</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41469,20 +41469,20 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="K571" t="n">
-        <v>9500</v>
+        <v>5300</v>
       </c>
       <c r="L571" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M571" t="n">
-        <v>9750</v>
+        <v>5400</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
@@ -41491,10 +41491,10 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q571" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R571" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41537,24 +41537,24 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="K572" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L572" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="M572" t="n">
-        <v>5100</v>
+        <v>7750</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -41563,10 +41563,10 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>510</v>
+        <v>431</v>
       </c>
       <c r="Q572" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E573" t="n">
         <v>4</v>
@@ -41613,20 +41613,20 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K573" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L573" t="n">
-        <v>8000</v>
+        <v>4200</v>
       </c>
       <c r="M573" t="n">
-        <v>7750</v>
+        <v>4100</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -41635,10 +41635,10 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q573" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R573" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E574" t="n">
         <v>4</v>
@@ -41681,24 +41681,24 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J574" t="n">
         <v>400</v>
       </c>
       <c r="K574" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L574" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M574" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
@@ -41707,10 +41707,10 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="Q574" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R574" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E575" t="n">
         <v>4</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>800</v>
+        <v>660</v>
       </c>
       <c r="K575" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L575" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M575" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E576" t="n">
         <v>4</v>
@@ -41820,41 +41820,41 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>440</v>
+        <v>840</v>
       </c>
       <c r="K576" t="n">
         <v>5000</v>
       </c>
       <c r="L576" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="M576" t="n">
-        <v>5250</v>
+        <v>5100</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="Q576" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E577" t="n">
         <v>4</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>900</v>
+        <v>440</v>
       </c>
       <c r="K577" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L577" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M577" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E578" t="n">
         <v>4</v>
@@ -41973,32 +41973,32 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K578" t="n">
-        <v>9000</v>
+        <v>3800</v>
       </c>
       <c r="L578" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M578" t="n">
-        <v>9500</v>
+        <v>3900</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>528</v>
+        <v>390</v>
       </c>
       <c r="Q578" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R578" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E579" t="n">
         <v>4</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K579" t="n">
         <v>7000</v>
       </c>
       <c r="L579" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M579" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E580" t="n">
         <v>4</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="K580" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L580" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M580" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42180,7 +42180,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K581" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L581" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M581" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42264,13 +42264,13 @@
         <v>600</v>
       </c>
       <c r="K582" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L582" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M582" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E583" t="n">
         <v>4</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K583" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L583" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M583" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E584" t="n">
         <v>4</v>
@@ -42396,25 +42396,25 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K584" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L584" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M584" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E585" t="n">
         <v>4</v>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42480,13 +42480,13 @@
         <v>800</v>
       </c>
       <c r="K585" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L585" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M585" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>597</v>
+        <v>472</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E586" t="n">
         <v>4</v>
@@ -42540,7 +42540,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -42552,13 +42552,13 @@
         <v>600</v>
       </c>
       <c r="K586" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L586" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M586" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>458</v>
+        <v>292</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E587" t="n">
         <v>4</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K587" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L587" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="M587" t="n">
-        <v>6250</v>
+        <v>11250</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>347</v>
+        <v>625</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E588" t="n">
         <v>4</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K588" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L588" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M588" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42756,25 +42756,25 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K589" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L589" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M589" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E590" t="n">
         <v>4</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
         <v>600</v>
       </c>
       <c r="K590" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L590" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M590" t="n">
-        <v>9750</v>
+        <v>8250</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E591" t="n">
         <v>4</v>
@@ -42905,36 +42905,36 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K591" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="L591" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M591" t="n">
-        <v>5400</v>
+        <v>6250</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="Q591" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E592" t="n">
         <v>4</v>
@@ -42972,41 +42972,41 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K592" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L592" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="M592" t="n">
-        <v>4100</v>
+        <v>7750</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="Q592" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R592" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E593" t="n">
         <v>4</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K593" t="n">
-        <v>8800</v>
+        <v>5500</v>
       </c>
       <c r="L593" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M593" t="n">
-        <v>8900</v>
+        <v>5750</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E594" t="n">
         <v>4</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K594" t="n">
-        <v>6800</v>
+        <v>9500</v>
       </c>
       <c r="L594" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M594" t="n">
-        <v>6900</v>
+        <v>9750</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>383</v>
+        <v>542</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43200,13 +43200,13 @@
         <v>800</v>
       </c>
       <c r="K595" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="L595" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M595" t="n">
-        <v>6250</v>
+        <v>5400</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>625</v>
+        <v>540</v>
       </c>
       <c r="Q595" t="n">
         <v>10</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -43272,13 +43272,13 @@
         <v>400</v>
       </c>
       <c r="K596" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L596" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M596" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="Q596" t="n">
         <v>10</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E597" t="n">
         <v>4</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
         <v>800</v>
       </c>
       <c r="K597" t="n">
-        <v>11000</v>
+        <v>8800</v>
       </c>
       <c r="L597" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M597" t="n">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>639</v>
+        <v>494</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K598" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="L598" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M598" t="n">
-        <v>9500</v>
+        <v>6900</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>528</v>
+        <v>383</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43476,41 +43476,41 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K599" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L599" t="n">
         <v>6500</v>
       </c>
-      <c r="L599" t="n">
-        <v>7000</v>
-      </c>
       <c r="M599" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q599" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43553,24 +43553,24 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K600" t="n">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="L600" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M600" t="n">
-        <v>9250</v>
+        <v>4400</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -43579,10 +43579,10 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="Q600" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43620,41 +43620,41 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J601" t="n">
         <v>800</v>
       </c>
       <c r="K601" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L601" t="n">
-        <v>4600</v>
+        <v>12000</v>
       </c>
       <c r="M601" t="n">
-        <v>4550</v>
+        <v>11500</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>455</v>
+        <v>639</v>
       </c>
       <c r="Q601" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E602" t="n">
         <v>4</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K602" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L602" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M602" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>403</v>
+        <v>528</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E603" t="n">
         <v>4</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,32 +43773,32 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K603" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L603" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M603" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="Q603" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43848,13 +43848,13 @@
         <v>700</v>
       </c>
       <c r="K604" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L604" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M604" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -43913,36 +43913,36 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K605" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L605" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M605" t="n">
-        <v>5750</v>
+        <v>4550</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>319</v>
+        <v>455</v>
       </c>
       <c r="Q605" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E606" t="n">
         <v>4</v>
@@ -43980,25 +43980,25 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K606" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L606" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M606" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,58 +44037,346 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E607" t="n">
+        <v>4</v>
+      </c>
+      <c r="F607" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J607" t="n">
+        <v>440</v>
+      </c>
+      <c r="K607" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L607" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M607" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P607" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q607" t="n">
+        <v>10</v>
+      </c>
+      <c r="R607" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>8</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D608" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E607" t="n">
-        <v>4</v>
-      </c>
-      <c r="F607" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H607" t="inlineStr">
+      <c r="E608" t="n">
+        <v>4</v>
+      </c>
+      <c r="F608" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J608" t="n">
+        <v>700</v>
+      </c>
+      <c r="K608" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L608" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M608" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P608" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>18</v>
+      </c>
+      <c r="R608" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>8</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D609" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E609" t="n">
+        <v>4</v>
+      </c>
+      <c r="F609" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J609" t="n">
+        <v>400</v>
+      </c>
+      <c r="K609" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L609" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M609" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P609" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>18</v>
+      </c>
+      <c r="R609" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>8</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D610" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E610" t="n">
+        <v>4</v>
+      </c>
+      <c r="F610" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
         <is>
           <t>Semiduro</t>
         </is>
       </c>
-      <c r="I607" t="inlineStr">
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J610" t="n">
+        <v>800</v>
+      </c>
+      <c r="K610" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L610" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M610" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N610" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P610" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q610" t="n">
+        <v>18</v>
+      </c>
+      <c r="R610" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>8</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D611" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E611" t="n">
+        <v>4</v>
+      </c>
+      <c r="F611" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J607" t="n">
+      <c r="J611" t="n">
         <v>560</v>
       </c>
-      <c r="K607" t="n">
+      <c r="K611" t="n">
         <v>4500</v>
       </c>
-      <c r="L607" t="n">
+      <c r="L611" t="n">
         <v>5000</v>
       </c>
-      <c r="M607" t="n">
+      <c r="M611" t="n">
         <v>4750</v>
       </c>
-      <c r="N607" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O607" t="inlineStr">
+      <c r="N611" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O611" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P607" t="n">
+      <c r="P611" t="n">
         <v>264</v>
       </c>
-      <c r="Q607" t="n">
-        <v>18</v>
-      </c>
-      <c r="R607" t="inlineStr">
+      <c r="Q611" t="n">
+        <v>18</v>
+      </c>
+      <c r="R611" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R611"/>
+  <dimension ref="A1:R613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -30309,20 +30309,20 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K416" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L416" t="n">
-        <v>14000</v>
+        <v>5600</v>
       </c>
       <c r="M416" t="n">
-        <v>13750</v>
+        <v>5550</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>764</v>
+        <v>555</v>
       </c>
       <c r="Q416" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K417" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L417" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M417" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>675</v>
+        <v>440</v>
       </c>
       <c r="Q417" t="n">
         <v>10</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K418" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="L418" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M418" t="n">
-        <v>11750</v>
+        <v>13750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>653</v>
+        <v>764</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K419" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L419" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M419" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q419" t="n">
         <v>10</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K420" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L420" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M420" t="n">
-        <v>10250</v>
+        <v>11750</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30615,11 +30615,11 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E421" t="n">
         <v>4</v>
@@ -30669,32 +30669,32 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K421" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L421" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M421" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="Q421" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K422" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L422" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M422" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="K423" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L423" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M423" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E424" t="n">
         <v>4</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30888,13 +30888,13 @@
         <v>800</v>
       </c>
       <c r="K424" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L424" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M424" t="n">
-        <v>10250</v>
+        <v>7750</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>569</v>
+        <v>431</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E425" t="n">
         <v>4</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K425" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L425" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M425" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K426" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L426" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M426" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K427" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L427" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M427" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E428" t="n">
         <v>4</v>
@@ -31173,7 +31173,7 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="K428" t="n">
         <v>7500</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E429" t="n">
         <v>4</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="K429" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L429" t="n">
         <v>5500</v>
       </c>
-      <c r="L429" t="n">
-        <v>6000</v>
-      </c>
       <c r="M429" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K430" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L430" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M430" t="n">
-        <v>15500</v>
+        <v>7750</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>861</v>
+        <v>431</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E431" t="n">
         <v>4</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K431" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L431" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="M431" t="n">
-        <v>12250</v>
+        <v>5750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>681</v>
+        <v>319</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E432" t="n">
         <v>4</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K432" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L432" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M432" t="n">
-        <v>7250</v>
+        <v>15500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>403</v>
+        <v>861</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E433" t="n">
         <v>4</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K433" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L433" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="M433" t="n">
-        <v>5250</v>
+        <v>12250</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>292</v>
+        <v>681</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E434" t="n">
         <v>4</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,32 +31605,32 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="K434" t="n">
-        <v>8800</v>
+        <v>7000</v>
       </c>
       <c r="L434" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M434" t="n">
-        <v>8900</v>
+        <v>7250</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>890</v>
+        <v>403</v>
       </c>
       <c r="Q434" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E435" t="n">
         <v>4</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K435" t="n">
-        <v>16500</v>
+        <v>5000</v>
       </c>
       <c r="L435" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="M435" t="n">
-        <v>16750</v>
+        <v>5250</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>931</v>
+        <v>292</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="K436" t="n">
-        <v>7800</v>
+        <v>8800</v>
       </c>
       <c r="L436" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M436" t="n">
-        <v>7900</v>
+        <v>8900</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>790</v>
+        <v>890</v>
       </c>
       <c r="Q436" t="n">
         <v>10</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E437" t="n">
         <v>4</v>
@@ -31812,25 +31812,25 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K437" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="L437" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M437" t="n">
-        <v>7750</v>
+        <v>16750</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>431</v>
+        <v>931</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E438" t="n">
         <v>4</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,32 +31893,32 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K438" t="n">
-        <v>5000</v>
+        <v>7800</v>
       </c>
       <c r="L438" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M438" t="n">
-        <v>5250</v>
+        <v>7900</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>292</v>
+        <v>790</v>
       </c>
       <c r="Q438" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="K439" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L439" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M439" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E440" t="n">
         <v>4</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K440" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L440" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M440" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="K441" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L441" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M441" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32184,13 +32184,13 @@
         <v>600</v>
       </c>
       <c r="K442" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L442" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M442" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E443" t="n">
         <v>4</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32256,13 +32256,13 @@
         <v>800</v>
       </c>
       <c r="K443" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L443" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="M443" t="n">
-        <v>10250</v>
+        <v>7250</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>569</v>
+        <v>403</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E444" t="n">
         <v>4</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K444" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L444" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M444" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K445" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L445" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M445" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32460,25 +32460,25 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K446" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L446" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M446" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K447" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L447" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M447" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K448" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L448" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M448" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E449" t="n">
         <v>4</v>
@@ -32676,25 +32676,25 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K449" t="n">
-        <v>7300</v>
+        <v>5000</v>
       </c>
       <c r="L449" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M449" t="n">
-        <v>7400</v>
+        <v>5250</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>411</v>
+        <v>292</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E450" t="n">
         <v>4</v>
@@ -32748,41 +32748,41 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K450" t="n">
-        <v>5300</v>
+        <v>4500</v>
       </c>
       <c r="L450" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M450" t="n">
-        <v>5400</v>
+        <v>4750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>540</v>
+        <v>264</v>
       </c>
       <c r="Q450" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K451" t="n">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="L451" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M451" t="n">
-        <v>5400</v>
+        <v>7400</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>300</v>
+        <v>411</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,32 +32901,32 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K452" t="n">
-        <v>6300</v>
+        <v>5300</v>
       </c>
       <c r="L452" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M452" t="n">
-        <v>6400</v>
+        <v>5400</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>356</v>
+        <v>540</v>
       </c>
       <c r="Q452" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K453" t="n">
-        <v>4300</v>
+        <v>5300</v>
       </c>
       <c r="L453" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M453" t="n">
-        <v>4400</v>
+        <v>5400</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E454" t="n">
         <v>4</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33048,13 +33048,13 @@
         <v>700</v>
       </c>
       <c r="K454" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="L454" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M454" t="n">
-        <v>10500</v>
+        <v>6400</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>583</v>
+        <v>356</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E455" t="n">
         <v>4</v>
@@ -33108,41 +33108,41 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K455" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="L455" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M455" t="n">
-        <v>6250</v>
+        <v>4400</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>625</v>
+        <v>244</v>
       </c>
       <c r="Q455" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K456" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L456" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M456" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>431</v>
+        <v>583</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E457" t="n">
         <v>4</v>
@@ -33264,13 +33264,13 @@
         <v>800</v>
       </c>
       <c r="K457" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L457" t="n">
         <v>6500</v>
       </c>
-      <c r="L457" t="n">
-        <v>7000</v>
-      </c>
       <c r="M457" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q457" t="n">
         <v>10</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E458" t="n">
         <v>4</v>
@@ -33333,32 +33333,32 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K458" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L458" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M458" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>575</v>
+        <v>431</v>
       </c>
       <c r="Q458" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E459" t="n">
         <v>4</v>
@@ -33401,36 +33401,36 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K459" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L459" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M459" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>583</v>
+        <v>675</v>
       </c>
       <c r="Q459" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E460" t="n">
         <v>4</v>
@@ -33473,24 +33473,24 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K460" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L460" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M460" t="n">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="Q460" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J461" t="n">
         <v>600</v>
       </c>
       <c r="K461" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L461" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M461" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>472</v>
+        <v>583</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K462" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L462" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M462" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33693,32 +33693,32 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K463" t="n">
-        <v>5800</v>
+        <v>8000</v>
       </c>
       <c r="L463" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M463" t="n">
-        <v>5900</v>
+        <v>8500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>590</v>
+        <v>472</v>
       </c>
       <c r="Q463" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33761,24 +33761,24 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
         <v>400</v>
       </c>
       <c r="K464" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L464" t="n">
-        <v>4800</v>
+        <v>10000</v>
       </c>
       <c r="M464" t="n">
-        <v>4650</v>
+        <v>9500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="Q464" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E465" t="n">
         <v>4</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,32 +33837,32 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K465" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L465" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M465" t="n">
-        <v>6750</v>
+        <v>5900</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>375</v>
+        <v>590</v>
       </c>
       <c r="Q465" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E466" t="n">
         <v>4</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,32 +33909,32 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K466" t="n">
         <v>4500</v>
       </c>
       <c r="L466" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M466" t="n">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>264</v>
+        <v>465</v>
       </c>
       <c r="Q466" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33984,13 +33984,13 @@
         <v>800</v>
       </c>
       <c r="K467" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L467" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M467" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K468" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L468" t="n">
         <v>5000</v>
       </c>
-      <c r="L468" t="n">
-        <v>5500</v>
-      </c>
       <c r="M468" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K469" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L469" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M469" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E470" t="n">
         <v>4</v>
@@ -34188,41 +34188,41 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>880</v>
+        <v>520</v>
       </c>
       <c r="K470" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L470" t="n">
         <v>5500</v>
       </c>
-      <c r="L470" t="n">
-        <v>6000</v>
-      </c>
       <c r="M470" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="Q470" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="K471" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L471" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M471" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>560</v>
+        <v>880</v>
       </c>
       <c r="K472" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L472" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M472" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="Q472" t="n">
         <v>10</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="K473" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L473" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M473" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>806</v>
+        <v>542</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34485,32 +34485,32 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="K474" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L474" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="M474" t="n">
-        <v>12250</v>
+        <v>4250</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>681</v>
+        <v>425</v>
       </c>
       <c r="Q474" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K475" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L475" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M475" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>431</v>
+        <v>806</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K476" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L476" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="M476" t="n">
-        <v>5750</v>
+        <v>12250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>319</v>
+        <v>681</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K477" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L477" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M477" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E478" t="n">
         <v>4</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K478" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L478" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M478" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K479" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L479" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M479" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34920,13 +34920,13 @@
         <v>600</v>
       </c>
       <c r="K480" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L480" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M480" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K481" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L481" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M481" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K482" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L482" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M482" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E483" t="n">
         <v>4</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K483" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L483" t="n">
         <v>7500</v>
       </c>
-      <c r="L483" t="n">
-        <v>8000</v>
-      </c>
       <c r="M483" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="K484" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L484" t="n">
         <v>5000</v>
       </c>
-      <c r="L484" t="n">
-        <v>5500</v>
-      </c>
       <c r="M484" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K485" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L485" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M485" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K486" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L486" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M486" t="n">
-        <v>9250</v>
+        <v>5250</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>514</v>
+        <v>292</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35424,13 +35424,13 @@
         <v>600</v>
       </c>
       <c r="K487" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L487" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M487" t="n">
-        <v>11250</v>
+        <v>11750</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E488" t="n">
         <v>4</v>
@@ -35489,36 +35489,36 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K488" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L488" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="M488" t="n">
-        <v>4750</v>
+        <v>9250</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="Q488" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K489" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L489" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="M489" t="n">
-        <v>9250</v>
+        <v>11250</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K490" t="n">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="L490" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M490" t="n">
-        <v>3400</v>
+        <v>4750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="Q490" t="n">
         <v>10</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
@@ -35705,36 +35705,36 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K491" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L491" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M491" t="n">
-        <v>6250</v>
+        <v>9250</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>625</v>
+        <v>514</v>
       </c>
       <c r="Q491" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
@@ -35784,13 +35784,13 @@
         <v>400</v>
       </c>
       <c r="K492" t="n">
-        <v>4300</v>
+        <v>3300</v>
       </c>
       <c r="L492" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M492" t="n">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q492" t="n">
         <v>10</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
@@ -35853,20 +35853,20 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K493" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L493" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M493" t="n">
-        <v>9250</v>
+        <v>6250</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -35875,10 +35875,10 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="Q493" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35921,11 +35921,11 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K494" t="n">
         <v>4300</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K495" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L495" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M495" t="n">
-        <v>7250</v>
+        <v>9250</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>403</v>
+        <v>514</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K496" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="L496" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M496" t="n">
-        <v>3250</v>
+        <v>4400</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>325</v>
+        <v>440</v>
       </c>
       <c r="Q496" t="n">
         <v>10</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E497" t="n">
         <v>4</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K497" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L497" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M497" t="n">
-        <v>9750</v>
+        <v>7250</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>542</v>
+        <v>403</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E498" t="n">
         <v>4</v>
@@ -36213,32 +36213,32 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K498" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L498" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M498" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="Q498" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K499" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L499" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M499" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36348,25 +36348,25 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K500" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L500" t="n">
         <v>7000</v>
       </c>
-      <c r="L500" t="n">
-        <v>8000</v>
-      </c>
       <c r="M500" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36420,25 +36420,25 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J501" t="n">
         <v>400</v>
       </c>
       <c r="K501" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L501" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M501" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,32 +36501,32 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K502" t="n">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="L502" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M502" t="n">
-        <v>5450</v>
+        <v>7500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>545</v>
+        <v>417</v>
       </c>
       <c r="Q502" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,32 +36573,32 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K503" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L503" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M503" t="n">
-        <v>4100</v>
+        <v>5750</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="Q503" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36648,29 +36648,29 @@
         <v>800</v>
       </c>
       <c r="K504" t="n">
-        <v>7300</v>
+        <v>5400</v>
       </c>
       <c r="L504" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M504" t="n">
-        <v>7400</v>
+        <v>5450</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>411</v>
+        <v>545</v>
       </c>
       <c r="Q504" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36717,32 +36717,32 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K505" t="n">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="L505" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="M505" t="n">
-        <v>5400</v>
+        <v>4100</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q505" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36792,13 +36792,13 @@
         <v>800</v>
       </c>
       <c r="K506" t="n">
-        <v>6300</v>
+        <v>7300</v>
       </c>
       <c r="L506" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M506" t="n">
-        <v>6400</v>
+        <v>7400</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K507" t="n">
-        <v>4300</v>
+        <v>5300</v>
       </c>
       <c r="L507" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M507" t="n">
-        <v>4400</v>
+        <v>5400</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K508" t="n">
-        <v>9500</v>
+        <v>6300</v>
       </c>
       <c r="L508" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M508" t="n">
-        <v>9750</v>
+        <v>6400</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E509" t="n">
         <v>4</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>960</v>
+        <v>560</v>
       </c>
       <c r="K509" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="L509" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M509" t="n">
-        <v>7250</v>
+        <v>4400</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>403</v>
+        <v>244</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K510" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L510" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M510" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="K511" t="n">
-        <v>11700</v>
+        <v>7000</v>
       </c>
       <c r="L511" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M511" t="n">
-        <v>11850</v>
+        <v>7250</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>658</v>
+        <v>403</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E512" t="n">
         <v>4</v>
@@ -37212,41 +37212,41 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K512" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="L512" t="n">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="M512" t="n">
-        <v>5650</v>
+        <v>5250</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>565</v>
+        <v>292</v>
       </c>
       <c r="Q512" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K513" t="n">
-        <v>9500</v>
+        <v>11700</v>
       </c>
       <c r="L513" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M513" t="n">
-        <v>9750</v>
+        <v>11850</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>542</v>
+        <v>658</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K514" t="n">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="L514" t="n">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="M514" t="n">
-        <v>4400</v>
+        <v>5650</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="Q514" t="n">
         <v>10</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37433,24 +37433,24 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K515" t="n">
-        <v>5800</v>
+        <v>9500</v>
       </c>
       <c r="L515" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M515" t="n">
-        <v>5900</v>
+        <v>9750</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -37459,10 +37459,10 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="Q515" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E516" t="n">
         <v>4</v>
@@ -37509,7 +37509,7 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K516" t="n">
         <v>4300</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E517" t="n">
         <v>4</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37584,29 +37584,29 @@
         <v>800</v>
       </c>
       <c r="K517" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="L517" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M517" t="n">
-        <v>7250</v>
+        <v>5900</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>403</v>
+        <v>590</v>
       </c>
       <c r="Q517" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R517" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,32 +37653,32 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K518" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L518" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M518" t="n">
-        <v>5250</v>
+        <v>4400</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="Q518" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E519" t="n">
         <v>4</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37728,13 +37728,13 @@
         <v>800</v>
       </c>
       <c r="K519" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L519" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M519" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>694</v>
+        <v>403</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E520" t="n">
         <v>4</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37800,13 +37800,13 @@
         <v>400</v>
       </c>
       <c r="K520" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L520" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M520" t="n">
-        <v>9750</v>
+        <v>5250</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>542</v>
+        <v>292</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37872,13 +37872,13 @@
         <v>800</v>
       </c>
       <c r="K521" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L521" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M521" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>486</v>
+        <v>694</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K522" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L522" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M522" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E523" t="n">
         <v>4</v>
@@ -38016,13 +38016,13 @@
         <v>800</v>
       </c>
       <c r="K523" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L523" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M523" t="n">
-        <v>7250</v>
+        <v>8750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E524" t="n">
         <v>4</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="K524" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L524" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M524" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E525" t="n">
         <v>4</v>
@@ -38148,25 +38148,25 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
         <v>800</v>
       </c>
       <c r="K525" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L525" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M525" t="n">
-        <v>14500</v>
+        <v>7250</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>806</v>
+        <v>403</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E526" t="n">
         <v>4</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K526" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L526" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M526" t="n">
-        <v>12500</v>
+        <v>5250</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>694</v>
+        <v>292</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38297,24 +38297,24 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J527" t="n">
         <v>800</v>
       </c>
       <c r="K527" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L527" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M527" t="n">
-        <v>7250</v>
+        <v>14500</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -38323,10 +38323,10 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>725</v>
+        <v>806</v>
       </c>
       <c r="Q527" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38369,24 +38369,24 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K528" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L528" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M528" t="n">
-        <v>5750</v>
+        <v>12500</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -38395,10 +38395,10 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>575</v>
+        <v>694</v>
       </c>
       <c r="Q528" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E529" t="n">
         <v>4</v>
@@ -38448,13 +38448,13 @@
         <v>800</v>
       </c>
       <c r="K529" t="n">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="L529" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M529" t="n">
-        <v>5450</v>
+        <v>7250</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>545</v>
+        <v>725</v>
       </c>
       <c r="Q529" t="n">
         <v>10</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E530" t="n">
         <v>4</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K530" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L530" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M530" t="n">
-        <v>4100</v>
+        <v>5750</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>410</v>
+        <v>575</v>
       </c>
       <c r="Q530" t="n">
         <v>10</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E531" t="n">
         <v>4</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K531" t="n">
+        <v>5400</v>
+      </c>
+      <c r="L531" t="n">
         <v>5500</v>
       </c>
-      <c r="L531" t="n">
-        <v>6000</v>
-      </c>
       <c r="M531" t="n">
-        <v>5750</v>
+        <v>5450</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="Q531" t="n">
         <v>10</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E532" t="n">
         <v>4</v>
@@ -38652,41 +38652,41 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K532" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L532" t="n">
-        <v>8000</v>
+        <v>4200</v>
       </c>
       <c r="M532" t="n">
-        <v>7750</v>
+        <v>4100</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q532" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38724,16 +38724,16 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K533" t="n">
         <v>5500</v>
@@ -38746,7 +38746,7 @@
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -38755,10 +38755,10 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>319</v>
+        <v>575</v>
       </c>
       <c r="Q533" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E534" t="n">
         <v>4</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K534" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L534" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="M534" t="n">
-        <v>13250</v>
+        <v>7750</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>736</v>
+        <v>431</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E535" t="n">
         <v>4</v>
@@ -38868,41 +38868,41 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K535" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L535" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M535" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>675</v>
+        <v>319</v>
       </c>
       <c r="Q535" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38940,25 +38940,25 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K536" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L536" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M536" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -39012,7 +39012,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -39024,29 +39024,29 @@
         <v>800</v>
       </c>
       <c r="K537" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L537" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M537" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>542</v>
+        <v>675</v>
       </c>
       <c r="Q537" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K538" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L538" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M538" t="n">
-        <v>7250</v>
+        <v>11750</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>403</v>
+        <v>653</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E539" t="n">
         <v>4</v>
@@ -39156,7 +39156,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K539" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L539" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M539" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E540" t="n">
         <v>4</v>
@@ -39228,41 +39228,41 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K540" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="L540" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M540" t="n">
-        <v>5900</v>
+        <v>7250</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>590</v>
+        <v>403</v>
       </c>
       <c r="Q540" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K541" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L541" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M541" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K542" t="n">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="L542" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M542" t="n">
-        <v>4250</v>
+        <v>5900</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>425</v>
+        <v>590</v>
       </c>
       <c r="Q542" t="n">
         <v>10</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K543" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L543" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M543" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E544" t="n">
         <v>4</v>
@@ -39521,36 +39521,36 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K544" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="L544" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M544" t="n">
-        <v>11750</v>
+        <v>4250</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>653</v>
+        <v>425</v>
       </c>
       <c r="Q544" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E545" t="n">
         <v>4</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K545" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="L545" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M545" t="n">
-        <v>10750</v>
+        <v>5750</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>597</v>
+        <v>319</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39669,32 +39669,32 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>860</v>
+        <v>600</v>
       </c>
       <c r="K546" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="L546" t="n">
-        <v>5600</v>
+        <v>12000</v>
       </c>
       <c r="M546" t="n">
-        <v>5550</v>
+        <v>11750</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>555</v>
+        <v>653</v>
       </c>
       <c r="Q546" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K547" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L547" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M547" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39809,24 +39809,24 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>400</v>
+        <v>860</v>
       </c>
       <c r="K548" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L548" t="n">
-        <v>9000</v>
+        <v>5600</v>
       </c>
       <c r="M548" t="n">
-        <v>8750</v>
+        <v>5550</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -39835,10 +39835,10 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="Q548" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E549" t="n">
         <v>4</v>
@@ -39876,25 +39876,25 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K549" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L549" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M549" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E550" t="n">
         <v>4</v>
@@ -39948,7 +39948,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K550" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L550" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M550" t="n">
-        <v>6250</v>
+        <v>8750</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>347</v>
+        <v>486</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E551" t="n">
         <v>4</v>
@@ -40020,7 +40020,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -40032,29 +40032,29 @@
         <v>800</v>
       </c>
       <c r="K551" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L551" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M551" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>625</v>
+        <v>458</v>
       </c>
       <c r="Q551" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E552" t="n">
         <v>4</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40104,29 +40104,29 @@
         <v>560</v>
       </c>
       <c r="K552" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="L552" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M552" t="n">
-        <v>4400</v>
+        <v>6250</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>440</v>
+        <v>347</v>
       </c>
       <c r="Q552" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E553" t="n">
         <v>4</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40176,29 +40176,29 @@
         <v>800</v>
       </c>
       <c r="K553" t="n">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="L553" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M553" t="n">
-        <v>6900</v>
+        <v>6250</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="Q553" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E554" t="n">
         <v>4</v>
@@ -40236,7 +40236,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40245,32 +40245,32 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K554" t="n">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="L554" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M554" t="n">
-        <v>4900</v>
+        <v>4400</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>272</v>
+        <v>440</v>
       </c>
       <c r="Q554" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E555" t="n">
         <v>4</v>
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K555" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="L555" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M555" t="n">
-        <v>9500</v>
+        <v>6900</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>528</v>
+        <v>383</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E556" t="n">
         <v>4</v>
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K556" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="L556" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M556" t="n">
-        <v>6750</v>
+        <v>4900</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E557" t="n">
         <v>4</v>
@@ -40452,7 +40452,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K557" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L557" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M557" t="n">
-        <v>11250</v>
+        <v>9500</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E558" t="n">
         <v>4</v>
@@ -40524,41 +40524,41 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K558" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L558" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M558" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q558" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K559" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L559" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M559" t="n">
-        <v>8750</v>
+        <v>11250</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>486</v>
+        <v>625</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E560" t="n">
         <v>4</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K560" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="L560" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M560" t="n">
-        <v>5900</v>
+        <v>4750</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>590</v>
+        <v>475</v>
       </c>
       <c r="Q560" t="n">
         <v>10</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E561" t="n">
         <v>4</v>
@@ -40749,32 +40749,32 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>460</v>
+        <v>600</v>
       </c>
       <c r="K561" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L561" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M561" t="n">
-        <v>4250</v>
+        <v>8750</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="Q561" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E562" t="n">
         <v>4</v>
@@ -40821,32 +40821,32 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K562" t="n">
-        <v>13000</v>
+        <v>5800</v>
       </c>
       <c r="L562" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M562" t="n">
-        <v>13500</v>
+        <v>5900</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>750</v>
+        <v>590</v>
       </c>
       <c r="Q562" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E563" t="n">
         <v>4</v>
@@ -40893,32 +40893,32 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K563" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L563" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M563" t="n">
-        <v>11500</v>
+        <v>4250</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>639</v>
+        <v>425</v>
       </c>
       <c r="Q563" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
@@ -40956,7 +40956,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K564" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L564" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M564" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>639</v>
+        <v>750</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41028,7 +41028,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -41040,13 +41040,13 @@
         <v>400</v>
       </c>
       <c r="K565" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L565" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M565" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E566" t="n">
         <v>4</v>
@@ -41100,7 +41100,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -41112,13 +41112,13 @@
         <v>600</v>
       </c>
       <c r="K566" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L566" t="n">
         <v>12000</v>
       </c>
       <c r="M566" t="n">
-        <v>11750</v>
+        <v>11500</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E567" t="n">
         <v>4</v>
@@ -41172,25 +41172,25 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J567" t="n">
         <v>400</v>
       </c>
       <c r="K567" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L567" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M567" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K568" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L568" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M568" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K569" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L569" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M569" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41393,11 +41393,11 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K570" t="n">
         <v>9500</v>
@@ -41415,7 +41415,7 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P570" t="n">
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41465,24 +41465,24 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K571" t="n">
-        <v>5300</v>
+        <v>8500</v>
       </c>
       <c r="L571" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M571" t="n">
-        <v>5400</v>
+        <v>8750</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
@@ -41491,10 +41491,10 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="Q571" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R571" t="inlineStr">
         <is>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K572" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L572" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M572" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="K573" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="L573" t="n">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="M573" t="n">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="Q573" t="n">
         <v>10</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K574" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L574" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M574" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E575" t="n">
         <v>4</v>
@@ -41753,24 +41753,24 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="K575" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="L575" t="n">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="M575" t="n">
-        <v>9750</v>
+        <v>4100</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
@@ -41779,10 +41779,10 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>542</v>
+        <v>410</v>
       </c>
       <c r="Q575" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R575" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E576" t="n">
         <v>4</v>
@@ -41825,24 +41825,24 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="K576" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L576" t="n">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="M576" t="n">
-        <v>5100</v>
+        <v>6250</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -41851,10 +41851,10 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>510</v>
+        <v>347</v>
       </c>
       <c r="Q576" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>440</v>
+        <v>660</v>
       </c>
       <c r="K577" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L577" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M577" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>400</v>
+        <v>840</v>
       </c>
       <c r="K578" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="L578" t="n">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="M578" t="n">
-        <v>3900</v>
+        <v>5100</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="Q578" t="n">
         <v>10</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E579" t="n">
         <v>4</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K579" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L579" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M579" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E580" t="n">
         <v>4</v>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,32 +42117,32 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K580" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L580" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M580" t="n">
-        <v>5250</v>
+        <v>3900</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>292</v>
+        <v>390</v>
       </c>
       <c r="Q580" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R580" t="inlineStr">
         <is>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E581" t="n">
         <v>4</v>
@@ -42180,7 +42180,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K581" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L581" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M581" t="n">
-        <v>11750</v>
+        <v>7250</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>653</v>
+        <v>403</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E582" t="n">
         <v>4</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42261,16 +42261,16 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K582" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L582" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M582" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>528</v>
+        <v>292</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>520</v>
+        <v>900</v>
       </c>
       <c r="K583" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L583" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M583" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42396,25 +42396,25 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K584" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L584" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M584" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42468,25 +42468,25 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K585" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L585" t="n">
         <v>8000</v>
       </c>
-      <c r="L585" t="n">
-        <v>9000</v>
-      </c>
       <c r="M585" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K586" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L586" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M586" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E587" t="n">
         <v>4</v>
@@ -42612,7 +42612,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -42621,16 +42621,16 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K587" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L587" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M587" t="n">
-        <v>11250</v>
+        <v>8500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>625</v>
+        <v>472</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E588" t="n">
         <v>4</v>
@@ -42684,7 +42684,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -42696,13 +42696,13 @@
         <v>600</v>
       </c>
       <c r="K588" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L588" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M588" t="n">
-        <v>8750</v>
+        <v>5250</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>486</v>
+        <v>292</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E589" t="n">
         <v>4</v>
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K589" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L589" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M589" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E590" t="n">
         <v>4</v>
@@ -42840,13 +42840,13 @@
         <v>600</v>
       </c>
       <c r="K590" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L590" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M590" t="n">
-        <v>8250</v>
+        <v>8750</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K591" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="L591" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M591" t="n">
-        <v>6250</v>
+        <v>10750</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>347</v>
+        <v>597</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K592" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L592" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M592" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43044,25 +43044,25 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K593" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L593" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M593" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E594" t="n">
         <v>4</v>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,16 +43125,16 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K594" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L594" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M594" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43188,41 +43188,41 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K595" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="L595" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M595" t="n">
-        <v>5400</v>
+        <v>5750</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>540</v>
+        <v>319</v>
       </c>
       <c r="Q595" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43265,24 +43265,24 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K596" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L596" t="n">
-        <v>4200</v>
+        <v>10000</v>
       </c>
       <c r="M596" t="n">
-        <v>4100</v>
+        <v>9750</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -43291,10 +43291,10 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>410</v>
+        <v>542</v>
       </c>
       <c r="Q596" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E597" t="n">
         <v>4</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43344,29 +43344,29 @@
         <v>800</v>
       </c>
       <c r="K597" t="n">
-        <v>8800</v>
+        <v>5300</v>
       </c>
       <c r="L597" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M597" t="n">
-        <v>8900</v>
+        <v>5400</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="Q597" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,32 +43413,32 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K598" t="n">
-        <v>6800</v>
+        <v>4000</v>
       </c>
       <c r="L598" t="n">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="M598" t="n">
-        <v>6900</v>
+        <v>4100</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="Q598" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43488,29 +43488,29 @@
         <v>800</v>
       </c>
       <c r="K599" t="n">
-        <v>6000</v>
+        <v>8800</v>
       </c>
       <c r="L599" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M599" t="n">
-        <v>6250</v>
+        <v>8900</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>625</v>
+        <v>494</v>
       </c>
       <c r="Q599" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43548,7 +43548,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
@@ -43557,32 +43557,32 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K600" t="n">
-        <v>4300</v>
+        <v>6800</v>
       </c>
       <c r="L600" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M600" t="n">
-        <v>4400</v>
+        <v>6900</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="Q600" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43620,41 +43620,41 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J601" t="n">
         <v>800</v>
       </c>
       <c r="K601" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L601" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M601" t="n">
-        <v>11500</v>
+        <v>6250</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="Q601" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E602" t="n">
         <v>4</v>
@@ -43692,41 +43692,41 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K602" t="n">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="L602" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M602" t="n">
-        <v>9500</v>
+        <v>4400</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>528</v>
+        <v>440</v>
       </c>
       <c r="Q602" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K603" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L603" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M603" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>375</v>
+        <v>639</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -43845,17 +43845,17 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K604" t="n">
         <v>9000</v>
       </c>
       <c r="L604" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M604" t="n">
         <v>9500</v>
       </c>
-      <c r="M604" t="n">
-        <v>9250</v>
-      </c>
       <c r="N604" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -43908,41 +43908,41 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K605" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L605" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="M605" t="n">
-        <v>4550</v>
+        <v>6750</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>455</v>
+        <v>375</v>
       </c>
       <c r="Q605" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K606" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L606" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M606" t="n">
-        <v>7250</v>
+        <v>9250</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>403</v>
+        <v>514</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K607" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L607" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="M607" t="n">
-        <v>3250</v>
+        <v>4550</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>325</v>
+        <v>455</v>
       </c>
       <c r="Q607" t="n">
         <v>10</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E608" t="n">
         <v>4</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K608" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L608" t="n">
         <v>7500</v>
       </c>
-      <c r="L608" t="n">
-        <v>8000</v>
-      </c>
       <c r="M608" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -44205,32 +44205,32 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K609" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L609" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M609" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q609" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K610" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L610" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M610" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K611" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L611" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M611" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,12 +44371,156 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
       </c>
       <c r="R611" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>8</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D612" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E612" t="n">
+        <v>4</v>
+      </c>
+      <c r="F612" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J612" t="n">
+        <v>800</v>
+      </c>
+      <c r="K612" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L612" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M612" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P612" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>18</v>
+      </c>
+      <c r="R612" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>8</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D613" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E613" t="n">
+        <v>4</v>
+      </c>
+      <c r="F613" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J613" t="n">
+        <v>560</v>
+      </c>
+      <c r="K613" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L613" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M613" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N613" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P613" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>18</v>
+      </c>
+      <c r="R613" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R615"/>
+  <dimension ref="A1:R619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32976,13 +32976,13 @@
         <v>800</v>
       </c>
       <c r="K453" t="n">
-        <v>7300</v>
+        <v>14000</v>
       </c>
       <c r="L453" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M453" t="n">
-        <v>7400</v>
+        <v>14500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>411</v>
+        <v>806</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E454" t="n">
         <v>4</v>
@@ -33048,13 +33048,13 @@
         <v>800</v>
       </c>
       <c r="K454" t="n">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="L454" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M454" t="n">
-        <v>5400</v>
+        <v>6750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="Q454" t="n">
         <v>10</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E455" t="n">
         <v>4</v>
@@ -33120,13 +33120,13 @@
         <v>400</v>
       </c>
       <c r="K455" t="n">
-        <v>5300</v>
+        <v>12000</v>
       </c>
       <c r="L455" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M455" t="n">
-        <v>5400</v>
+        <v>12500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>300</v>
+        <v>694</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E456" t="n">
         <v>4</v>
@@ -33180,41 +33180,41 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K456" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="L456" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>6400</v>
+        <v>5750</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>356</v>
+        <v>575</v>
       </c>
       <c r="Q456" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33252,25 +33252,25 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K457" t="n">
-        <v>4300</v>
+        <v>7300</v>
       </c>
       <c r="L457" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M457" t="n">
-        <v>4400</v>
+        <v>7400</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>244</v>
+        <v>411</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E458" t="n">
         <v>4</v>
@@ -33333,32 +33333,32 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K458" t="n">
-        <v>10000</v>
+        <v>5300</v>
       </c>
       <c r="L458" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M458" t="n">
-        <v>10500</v>
+        <v>5400</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="Q458" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E459" t="n">
         <v>4</v>
@@ -33401,36 +33401,36 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K459" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="L459" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M459" t="n">
-        <v>6250</v>
+        <v>5400</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>625</v>
+        <v>300</v>
       </c>
       <c r="Q459" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E460" t="n">
         <v>4</v>
@@ -33468,25 +33468,25 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K460" t="n">
-        <v>7500</v>
+        <v>6300</v>
       </c>
       <c r="L460" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M460" t="n">
-        <v>7750</v>
+        <v>6400</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E461" t="n">
         <v>4</v>
@@ -33540,41 +33540,41 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K461" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L461" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M461" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>675</v>
+        <v>244</v>
       </c>
       <c r="Q461" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E462" t="n">
         <v>4</v>
@@ -33617,36 +33617,36 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K462" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L462" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M462" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="Q462" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E463" t="n">
         <v>4</v>
@@ -33689,36 +33689,36 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K463" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L463" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M463" t="n">
-        <v>10500</v>
+        <v>6250</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="Q463" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E464" t="n">
         <v>4</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="K464" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L464" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M464" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E465" t="n">
         <v>4</v>
@@ -33837,32 +33837,32 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K465" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L465" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M465" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>472</v>
+        <v>675</v>
       </c>
       <c r="Q465" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E466" t="n">
         <v>4</v>
@@ -33905,24 +33905,24 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
         <v>400</v>
       </c>
       <c r="K466" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L466" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M466" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="Q466" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33977,36 +33977,36 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K467" t="n">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="L467" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M467" t="n">
-        <v>5900</v>
+        <v>10500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="Q467" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34049,24 +34049,24 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K468" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L468" t="n">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="M468" t="n">
-        <v>4650</v>
+        <v>11500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>465</v>
+        <v>639</v>
       </c>
       <c r="Q468" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K469" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L469" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M469" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>375</v>
+        <v>472</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E470" t="n">
         <v>4</v>
@@ -34188,25 +34188,25 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K470" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L470" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M470" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>264</v>
+        <v>528</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E471" t="n">
         <v>4</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,32 +34269,32 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K471" t="n">
-        <v>7500</v>
+        <v>5800</v>
       </c>
       <c r="L471" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M471" t="n">
-        <v>7750</v>
+        <v>5900</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>431</v>
+        <v>590</v>
       </c>
       <c r="Q471" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,32 +34341,32 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K472" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L472" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M472" t="n">
-        <v>5250</v>
+        <v>4650</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>292</v>
+        <v>465</v>
       </c>
       <c r="Q472" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K473" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L473" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M473" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34476,41 +34476,41 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>880</v>
+        <v>500</v>
       </c>
       <c r="K474" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L474" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M474" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>575</v>
+        <v>264</v>
       </c>
       <c r="Q474" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34548,25 +34548,25 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K475" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L475" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M475" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34575,11 +34575,11 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,32 +34629,32 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K476" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L476" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M476" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="Q476" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34704,13 +34704,13 @@
         <v>720</v>
       </c>
       <c r="K477" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L477" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M477" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>806</v>
+        <v>653</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E478" t="n">
         <v>4</v>
@@ -34769,36 +34769,36 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>540</v>
+        <v>880</v>
       </c>
       <c r="K478" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L478" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="M478" t="n">
-        <v>12250</v>
+        <v>5750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>681</v>
+        <v>575</v>
       </c>
       <c r="Q478" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E479" t="n">
         <v>4</v>
@@ -34836,25 +34836,25 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K479" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L479" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M479" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34863,11 +34863,11 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E480" t="n">
         <v>4</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,32 +34917,32 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K480" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L480" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M480" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="Q480" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="K481" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L481" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M481" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>542</v>
+        <v>806</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K482" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L482" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="M482" t="n">
-        <v>7750</v>
+        <v>12250</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>431</v>
+        <v>681</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E483" t="n">
         <v>4</v>
@@ -35133,7 +35133,7 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K483" t="n">
         <v>7500</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K484" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L484" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M484" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K485" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L485" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M485" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K486" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L486" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M486" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35421,7 +35421,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K487" t="n">
         <v>7500</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E488" t="n">
         <v>4</v>
@@ -35493,7 +35493,7 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K488" t="n">
         <v>5000</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E489" t="n">
         <v>4</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K489" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L489" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M489" t="n">
-        <v>11750</v>
+        <v>7250</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>653</v>
+        <v>403</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K490" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L490" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M490" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K491" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L491" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M491" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
@@ -35772,41 +35772,41 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K492" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L492" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M492" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>475</v>
+        <v>292</v>
       </c>
       <c r="Q492" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K493" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L493" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M493" t="n">
-        <v>9250</v>
+        <v>11750</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>514</v>
+        <v>653</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35928,29 +35928,29 @@
         <v>400</v>
       </c>
       <c r="K494" t="n">
-        <v>3300</v>
+        <v>9000</v>
       </c>
       <c r="L494" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="M494" t="n">
-        <v>3400</v>
+        <v>9250</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>340</v>
+        <v>514</v>
       </c>
       <c r="Q494" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E495" t="n">
         <v>4</v>
@@ -35997,32 +35997,32 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K495" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L495" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="M495" t="n">
-        <v>6250</v>
+        <v>11250</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P495" t="n">
         <v>625</v>
       </c>
       <c r="Q495" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E496" t="n">
         <v>4</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K496" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L496" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M496" t="n">
-        <v>4400</v>
+        <v>4750</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="Q496" t="n">
         <v>10</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E497" t="n">
         <v>4</v>
@@ -36137,11 +36137,11 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K497" t="n">
         <v>9000</v>
@@ -36159,7 +36159,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P497" t="n">
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E498" t="n">
         <v>4</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K498" t="n">
-        <v>4300</v>
+        <v>3300</v>
       </c>
       <c r="L498" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M498" t="n">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q498" t="n">
         <v>10</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E499" t="n">
         <v>4</v>
@@ -36281,24 +36281,24 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K499" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L499" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M499" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -36307,10 +36307,10 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>403</v>
+        <v>625</v>
       </c>
       <c r="Q499" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K500" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="L500" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M500" t="n">
-        <v>3250</v>
+        <v>4400</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>325</v>
+        <v>440</v>
       </c>
       <c r="Q500" t="n">
         <v>10</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E501" t="n">
         <v>4</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K501" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L501" t="n">
         <v>9500</v>
       </c>
-      <c r="L501" t="n">
-        <v>10000</v>
-      </c>
       <c r="M501" t="n">
-        <v>9750</v>
+        <v>9250</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36447,11 +36447,11 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36497,36 +36497,36 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K502" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L502" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M502" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="Q502" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J503" t="n">
         <v>400</v>
       </c>
       <c r="K503" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L503" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M503" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36636,41 +36636,41 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
         <v>600</v>
       </c>
       <c r="K504" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L504" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M504" t="n">
-        <v>7500</v>
+        <v>3250</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="Q504" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K505" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L505" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M505" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E506" t="n">
         <v>4</v>
@@ -36785,36 +36785,36 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K506" t="n">
-        <v>5400</v>
+        <v>6500</v>
       </c>
       <c r="L506" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M506" t="n">
-        <v>5450</v>
+        <v>6750</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>545</v>
+        <v>375</v>
       </c>
       <c r="Q506" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E507" t="n">
         <v>4</v>
@@ -36857,36 +36857,36 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K507" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L507" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="M507" t="n">
-        <v>4100</v>
+        <v>4750</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>410</v>
+        <v>264</v>
       </c>
       <c r="Q507" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,17 +36933,17 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K508" t="n">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="L508" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M508" t="n">
         <v>7500</v>
       </c>
-      <c r="M508" t="n">
-        <v>7400</v>
-      </c>
       <c r="N508" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E509" t="n">
         <v>4</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K509" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="L509" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M509" t="n">
-        <v>5400</v>
+        <v>5750</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E510" t="n">
         <v>4</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37080,29 +37080,29 @@
         <v>800</v>
       </c>
       <c r="K510" t="n">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="L510" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M510" t="n">
-        <v>6400</v>
+        <v>5450</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>356</v>
+        <v>545</v>
       </c>
       <c r="Q510" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,32 +37149,32 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K511" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L511" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M511" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="Q511" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E512" t="n">
         <v>4</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K512" t="n">
-        <v>9500</v>
+        <v>7300</v>
       </c>
       <c r="L512" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M512" t="n">
-        <v>9750</v>
+        <v>7400</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>542</v>
+        <v>411</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E513" t="n">
         <v>4</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K513" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="L513" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M513" t="n">
-        <v>7250</v>
+        <v>5400</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E514" t="n">
         <v>4</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K514" t="n">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="L514" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M514" t="n">
-        <v>5250</v>
+        <v>6400</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37428,25 +37428,25 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K515" t="n">
-        <v>11700</v>
+        <v>4300</v>
       </c>
       <c r="L515" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M515" t="n">
-        <v>11850</v>
+        <v>4400</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>658</v>
+        <v>244</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E516" t="n">
         <v>4</v>
@@ -37509,32 +37509,32 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K516" t="n">
-        <v>5600</v>
+        <v>9500</v>
       </c>
       <c r="L516" t="n">
-        <v>5700</v>
+        <v>10000</v>
       </c>
       <c r="M516" t="n">
-        <v>5650</v>
+        <v>9750</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="Q516" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E517" t="n">
         <v>4</v>
@@ -37572,25 +37572,25 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="K517" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L517" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M517" t="n">
-        <v>9750</v>
+        <v>7250</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37599,11 +37599,11 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>542</v>
+        <v>403</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,32 +37653,32 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K518" t="n">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="L518" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M518" t="n">
-        <v>4400</v>
+        <v>5250</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>440</v>
+        <v>292</v>
       </c>
       <c r="Q518" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E519" t="n">
         <v>4</v>
@@ -37725,20 +37725,20 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K519" t="n">
-        <v>5800</v>
+        <v>11700</v>
       </c>
       <c r="L519" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M519" t="n">
-        <v>5900</v>
+        <v>11850</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -37747,10 +37747,10 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="Q519" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E520" t="n">
         <v>4</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K520" t="n">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="L520" t="n">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="M520" t="n">
-        <v>4400</v>
+        <v>5650</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="Q520" t="n">
         <v>10</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E521" t="n">
         <v>4</v>
@@ -37860,25 +37860,25 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K521" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L521" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M521" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37887,11 +37887,11 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E522" t="n">
         <v>4</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,32 +37941,32 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K522" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L522" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M522" t="n">
-        <v>5250</v>
+        <v>4400</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="Q522" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E523" t="n">
         <v>4</v>
@@ -38016,29 +38016,29 @@
         <v>800</v>
       </c>
       <c r="K523" t="n">
-        <v>12000</v>
+        <v>5800</v>
       </c>
       <c r="L523" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M523" t="n">
-        <v>12500</v>
+        <v>5900</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>694</v>
+        <v>590</v>
       </c>
       <c r="Q523" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R523" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E524" t="n">
         <v>4</v>
@@ -38085,32 +38085,32 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K524" t="n">
-        <v>9500</v>
+        <v>4300</v>
       </c>
       <c r="L524" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M524" t="n">
-        <v>9750</v>
+        <v>4400</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>542</v>
+        <v>440</v>
       </c>
       <c r="Q524" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E525" t="n">
         <v>4</v>
@@ -38160,13 +38160,13 @@
         <v>800</v>
       </c>
       <c r="K525" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L525" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M525" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E526" t="n">
         <v>4</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K526" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L526" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M526" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E527" t="n">
         <v>4</v>
@@ -38292,7 +38292,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -38304,13 +38304,13 @@
         <v>800</v>
       </c>
       <c r="K527" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L527" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M527" t="n">
-        <v>7250</v>
+        <v>12500</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>403</v>
+        <v>694</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E528" t="n">
         <v>4</v>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K528" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L528" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M528" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E529" t="n">
         <v>4</v>
@@ -38436,25 +38436,25 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
         <v>800</v>
       </c>
       <c r="K529" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L529" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M529" t="n">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>806</v>
+        <v>486</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E530" t="n">
         <v>4</v>
@@ -38508,25 +38508,25 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K530" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L530" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M530" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>694</v>
+        <v>375</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E531" t="n">
         <v>4</v>
@@ -38580,7 +38580,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -38602,19 +38602,19 @@
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>725</v>
+        <v>403</v>
       </c>
       <c r="Q531" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E532" t="n">
         <v>4</v>
@@ -38652,7 +38652,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -38661,32 +38661,32 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K532" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L532" t="n">
         <v>5500</v>
       </c>
-      <c r="L532" t="n">
-        <v>6000</v>
-      </c>
       <c r="M532" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="Q532" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E533" t="n">
         <v>4</v>
@@ -38729,24 +38729,24 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J533" t="n">
         <v>800</v>
       </c>
       <c r="K533" t="n">
-        <v>5400</v>
+        <v>14000</v>
       </c>
       <c r="L533" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M533" t="n">
-        <v>5450</v>
+        <v>14500</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -38755,10 +38755,10 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>545</v>
+        <v>806</v>
       </c>
       <c r="Q533" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E534" t="n">
         <v>4</v>
@@ -38801,24 +38801,24 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K534" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L534" t="n">
-        <v>4200</v>
+        <v>13000</v>
       </c>
       <c r="M534" t="n">
-        <v>4100</v>
+        <v>12500</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -38827,10 +38827,10 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>410</v>
+        <v>694</v>
       </c>
       <c r="Q534" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E535" t="n">
         <v>4</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K535" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L535" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M535" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q535" t="n">
         <v>10</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E536" t="n">
         <v>4</v>
@@ -38940,41 +38940,41 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K536" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L536" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M536" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="Q536" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E537" t="n">
         <v>4</v>
@@ -39012,41 +39012,41 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K537" t="n">
+        <v>5400</v>
+      </c>
+      <c r="L537" t="n">
         <v>5500</v>
       </c>
-      <c r="L537" t="n">
-        <v>6000</v>
-      </c>
       <c r="M537" t="n">
-        <v>5750</v>
+        <v>5450</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>319</v>
+        <v>545</v>
       </c>
       <c r="Q537" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E538" t="n">
         <v>4</v>
@@ -39089,36 +39089,36 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K538" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L538" t="n">
-        <v>13500</v>
+        <v>4200</v>
       </c>
       <c r="M538" t="n">
-        <v>13250</v>
+        <v>4100</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>736</v>
+        <v>410</v>
       </c>
       <c r="Q538" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E539" t="n">
         <v>4</v>
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K539" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L539" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M539" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q539" t="n">
         <v>10</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E540" t="n">
         <v>4</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K540" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L540" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M540" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E541" t="n">
         <v>4</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K541" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L541" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M541" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39372,25 +39372,25 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K542" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L542" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="M542" t="n">
-        <v>7250</v>
+        <v>13250</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>403</v>
+        <v>736</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E543" t="n">
         <v>4</v>
@@ -39453,32 +39453,32 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K543" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L543" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M543" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>597</v>
+        <v>675</v>
       </c>
       <c r="Q543" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E544" t="n">
         <v>4</v>
@@ -39516,41 +39516,41 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K544" t="n">
-        <v>5800</v>
+        <v>11500</v>
       </c>
       <c r="L544" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M544" t="n">
-        <v>5900</v>
+        <v>11750</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="Q544" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E545" t="n">
         <v>4</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K545" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L545" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M545" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E546" t="n">
         <v>4</v>
@@ -39660,7 +39660,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -39669,32 +39669,32 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K546" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L546" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M546" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="Q546" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K547" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L547" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M547" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E548" t="n">
         <v>4</v>
@@ -39813,32 +39813,32 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K548" t="n">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="L548" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M548" t="n">
-        <v>11750</v>
+        <v>5900</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="Q548" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E549" t="n">
         <v>4</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K549" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L549" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M549" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E550" t="n">
         <v>4</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>860</v>
+        <v>400</v>
       </c>
       <c r="K550" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L550" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="M550" t="n">
-        <v>5550</v>
+        <v>4250</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>555</v>
+        <v>425</v>
       </c>
       <c r="Q550" t="n">
         <v>10</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E551" t="n">
         <v>4</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K551" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L551" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M551" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K552" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L552" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M552" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E553" t="n">
         <v>4</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K553" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L553" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M553" t="n">
-        <v>8250</v>
+        <v>10750</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>458</v>
+        <v>597</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E554" t="n">
         <v>4</v>
@@ -40236,41 +40236,41 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>560</v>
+        <v>860</v>
       </c>
       <c r="K554" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L554" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="M554" t="n">
-        <v>6250</v>
+        <v>5550</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>347</v>
+        <v>555</v>
       </c>
       <c r="Q554" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E555" t="n">
         <v>4</v>
@@ -40313,36 +40313,36 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K555" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L555" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M555" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="Q555" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E556" t="n">
         <v>4</v>
@@ -40389,20 +40389,20 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K556" t="n">
-        <v>4300</v>
+        <v>8500</v>
       </c>
       <c r="L556" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M556" t="n">
-        <v>4400</v>
+        <v>8750</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -40411,10 +40411,10 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="Q556" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R556" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E557" t="n">
         <v>4</v>
@@ -40464,13 +40464,13 @@
         <v>800</v>
       </c>
       <c r="K557" t="n">
-        <v>6800</v>
+        <v>8000</v>
       </c>
       <c r="L557" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M557" t="n">
-        <v>6900</v>
+        <v>8250</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E558" t="n">
         <v>4</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K558" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L558" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M558" t="n">
-        <v>4900</v>
+        <v>6250</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E559" t="n">
         <v>4</v>
@@ -40596,7 +40596,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -40605,32 +40605,32 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K559" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L559" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M559" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>528</v>
+        <v>625</v>
       </c>
       <c r="Q559" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E560" t="n">
         <v>4</v>
@@ -40668,7 +40668,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -40677,32 +40677,32 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="K560" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L560" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M560" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="Q560" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R560" t="inlineStr">
         <is>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E561" t="n">
         <v>4</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K561" t="n">
-        <v>11000</v>
+        <v>6800</v>
       </c>
       <c r="L561" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M561" t="n">
-        <v>11250</v>
+        <v>6900</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E562" t="n">
         <v>4</v>
@@ -40812,41 +40812,41 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K562" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="L562" t="n">
         <v>5000</v>
       </c>
       <c r="M562" t="n">
-        <v>4750</v>
+        <v>4900</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="Q562" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E563" t="n">
         <v>4</v>
@@ -40884,25 +40884,25 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J563" t="n">
         <v>600</v>
       </c>
       <c r="K563" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L563" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M563" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E564" t="n">
         <v>4</v>
@@ -40956,41 +40956,41 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K564" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="L564" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M564" t="n">
-        <v>5900</v>
+        <v>6750</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>590</v>
+        <v>375</v>
       </c>
       <c r="Q564" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E565" t="n">
         <v>4</v>
@@ -41033,36 +41033,36 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="K565" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L565" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="M565" t="n">
-        <v>4250</v>
+        <v>11250</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q565" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R565" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E566" t="n">
         <v>4</v>
@@ -41109,32 +41109,32 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K566" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L566" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M566" t="n">
-        <v>13500</v>
+        <v>4750</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q566" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E567" t="n">
         <v>4</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K567" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L567" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M567" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>639</v>
+        <v>486</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E568" t="n">
         <v>4</v>
@@ -41244,7 +41244,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -41253,32 +41253,32 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K568" t="n">
-        <v>11000</v>
+        <v>5800</v>
       </c>
       <c r="L568" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M568" t="n">
-        <v>11500</v>
+        <v>5900</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="Q568" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
@@ -41316,7 +41316,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -41325,32 +41325,32 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K569" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L569" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M569" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>528</v>
+        <v>425</v>
       </c>
       <c r="Q569" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R569" t="inlineStr">
         <is>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K570" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L570" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M570" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>653</v>
+        <v>750</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
         <v>400</v>
       </c>
       <c r="K571" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L571" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M571" t="n">
-        <v>10750</v>
+        <v>11500</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41532,25 +41532,25 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K572" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L572" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M572" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>542</v>
+        <v>639</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E573" t="n">
         <v>4</v>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K573" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M573" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E574" t="n">
         <v>4</v>
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K574" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L574" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M574" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E575" t="n">
         <v>4</v>
@@ -41757,20 +41757,20 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K575" t="n">
-        <v>5300</v>
+        <v>10500</v>
       </c>
       <c r="L575" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="M575" t="n">
-        <v>5400</v>
+        <v>10750</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
@@ -41779,10 +41779,10 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="Q575" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R575" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E576" t="n">
         <v>4</v>
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K576" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L576" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M576" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E577" t="n">
         <v>4</v>
@@ -41901,20 +41901,20 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K577" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L577" t="n">
-        <v>4200</v>
+        <v>9000</v>
       </c>
       <c r="M577" t="n">
-        <v>4100</v>
+        <v>8750</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -41923,10 +41923,10 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="Q577" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K578" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L578" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M578" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>347</v>
+        <v>542</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E579" t="n">
         <v>4</v>
@@ -42045,20 +42045,20 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="K579" t="n">
-        <v>9500</v>
+        <v>5300</v>
       </c>
       <c r="L579" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M579" t="n">
-        <v>9750</v>
+        <v>5400</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
@@ -42067,10 +42067,10 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q579" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R579" t="inlineStr">
         <is>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E580" t="n">
         <v>4</v>
@@ -42113,24 +42113,24 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="K580" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L580" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="M580" t="n">
-        <v>5100</v>
+        <v>7750</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
@@ -42139,10 +42139,10 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>510</v>
+        <v>431</v>
       </c>
       <c r="Q580" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R580" t="inlineStr">
         <is>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E581" t="n">
         <v>4</v>
@@ -42189,20 +42189,20 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K581" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L581" t="n">
-        <v>8000</v>
+        <v>4200</v>
       </c>
       <c r="M581" t="n">
-        <v>7750</v>
+        <v>4100</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
@@ -42211,10 +42211,10 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q581" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R581" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E582" t="n">
         <v>4</v>
@@ -42257,24 +42257,24 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J582" t="n">
         <v>400</v>
       </c>
       <c r="K582" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L582" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M582" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -42283,10 +42283,10 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="Q582" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E583" t="n">
         <v>4</v>
@@ -42324,7 +42324,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>800</v>
+        <v>660</v>
       </c>
       <c r="K583" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L583" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M583" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E584" t="n">
         <v>4</v>
@@ -42396,41 +42396,41 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>440</v>
+        <v>840</v>
       </c>
       <c r="K584" t="n">
         <v>5000</v>
       </c>
       <c r="L584" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="M584" t="n">
-        <v>5250</v>
+        <v>5100</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="Q584" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E585" t="n">
         <v>4</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>900</v>
+        <v>440</v>
       </c>
       <c r="K585" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L585" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M585" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E586" t="n">
         <v>4</v>
@@ -42549,32 +42549,32 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K586" t="n">
-        <v>9000</v>
+        <v>3800</v>
       </c>
       <c r="L586" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M586" t="n">
-        <v>9500</v>
+        <v>3900</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>528</v>
+        <v>390</v>
       </c>
       <c r="Q586" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R586" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E587" t="n">
         <v>4</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K587" t="n">
         <v>7000</v>
       </c>
       <c r="L587" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M587" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E588" t="n">
         <v>4</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="K588" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L588" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M588" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42756,7 +42756,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K589" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L589" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M589" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42828,7 +42828,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -42840,13 +42840,13 @@
         <v>600</v>
       </c>
       <c r="K590" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L590" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M590" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E591" t="n">
         <v>4</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K591" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L591" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M591" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E592" t="n">
         <v>4</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K592" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L592" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M592" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E593" t="n">
         <v>4</v>
@@ -43044,7 +43044,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -43056,13 +43056,13 @@
         <v>800</v>
       </c>
       <c r="K593" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L593" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M593" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>597</v>
+        <v>472</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E594" t="n">
         <v>4</v>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43128,13 +43128,13 @@
         <v>600</v>
       </c>
       <c r="K594" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L594" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M594" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>458</v>
+        <v>292</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K595" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L595" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="M595" t="n">
-        <v>6250</v>
+        <v>11250</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>347</v>
+        <v>625</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -43260,25 +43260,25 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K596" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L596" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M596" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43332,25 +43332,25 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K597" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L597" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M597" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
         <v>600</v>
       </c>
       <c r="K598" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L598" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M598" t="n">
-        <v>9750</v>
+        <v>8250</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43481,36 +43481,36 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K599" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="L599" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M599" t="n">
-        <v>5400</v>
+        <v>6250</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="Q599" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43548,41 +43548,41 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K600" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L600" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="M600" t="n">
-        <v>4100</v>
+        <v>7750</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="Q600" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K601" t="n">
-        <v>8800</v>
+        <v>5500</v>
       </c>
       <c r="L601" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M601" t="n">
-        <v>8900</v>
+        <v>5750</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E602" t="n">
         <v>4</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K602" t="n">
-        <v>6800</v>
+        <v>9500</v>
       </c>
       <c r="L602" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M602" t="n">
-        <v>6900</v>
+        <v>9750</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>383</v>
+        <v>542</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E603" t="n">
         <v>4</v>
@@ -43776,13 +43776,13 @@
         <v>800</v>
       </c>
       <c r="K603" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="L603" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M603" t="n">
-        <v>6250</v>
+        <v>5400</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>625</v>
+        <v>540</v>
       </c>
       <c r="Q603" t="n">
         <v>10</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43848,13 +43848,13 @@
         <v>400</v>
       </c>
       <c r="K604" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L604" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M604" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="Q604" t="n">
         <v>10</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J605" t="n">
         <v>800</v>
       </c>
       <c r="K605" t="n">
-        <v>11000</v>
+        <v>8800</v>
       </c>
       <c r="L605" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M605" t="n">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>639</v>
+        <v>494</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E606" t="n">
         <v>4</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K606" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="L606" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M606" t="n">
-        <v>9500</v>
+        <v>6900</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>528</v>
+        <v>383</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E607" t="n">
         <v>4</v>
@@ -44052,41 +44052,41 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K607" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L607" t="n">
         <v>6500</v>
       </c>
-      <c r="L607" t="n">
-        <v>7000</v>
-      </c>
       <c r="M607" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q607" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E608" t="n">
         <v>4</v>
@@ -44129,24 +44129,24 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K608" t="n">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="L608" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M608" t="n">
-        <v>9250</v>
+        <v>4400</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
@@ -44155,10 +44155,10 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="Q608" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -44196,41 +44196,41 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J609" t="n">
         <v>800</v>
       </c>
       <c r="K609" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L609" t="n">
-        <v>4600</v>
+        <v>12000</v>
       </c>
       <c r="M609" t="n">
-        <v>4550</v>
+        <v>11500</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>455</v>
+        <v>639</v>
       </c>
       <c r="Q609" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E610" t="n">
         <v>4</v>
@@ -44268,25 +44268,25 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K610" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L610" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M610" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>403</v>
+        <v>528</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E611" t="n">
         <v>4</v>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44349,32 +44349,32 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K611" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L611" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M611" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="Q611" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E612" t="n">
         <v>4</v>
@@ -44424,13 +44424,13 @@
         <v>700</v>
       </c>
       <c r="K612" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L612" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M612" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E613" t="n">
         <v>4</v>
@@ -44489,36 +44489,36 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K613" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L613" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M613" t="n">
-        <v>5750</v>
+        <v>4550</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>319</v>
+        <v>455</v>
       </c>
       <c r="Q613" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E614" t="n">
         <v>4</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K614" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L614" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M614" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,58 +44613,346 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E615" t="n">
+        <v>4</v>
+      </c>
+      <c r="F615" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J615" t="n">
+        <v>440</v>
+      </c>
+      <c r="K615" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L615" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M615" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N615" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P615" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>10</v>
+      </c>
+      <c r="R615" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>8</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D616" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E615" t="n">
-        <v>4</v>
-      </c>
-      <c r="F615" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H615" t="inlineStr">
+      <c r="E616" t="n">
+        <v>4</v>
+      </c>
+      <c r="F616" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J616" t="n">
+        <v>700</v>
+      </c>
+      <c r="K616" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L616" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M616" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N616" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O616" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P616" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>18</v>
+      </c>
+      <c r="R616" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>8</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D617" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E617" t="n">
+        <v>4</v>
+      </c>
+      <c r="F617" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J617" t="n">
+        <v>400</v>
+      </c>
+      <c r="K617" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L617" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M617" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N617" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P617" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>18</v>
+      </c>
+      <c r="R617" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>8</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D618" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E618" t="n">
+        <v>4</v>
+      </c>
+      <c r="F618" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
         <is>
           <t>Semiduro</t>
         </is>
       </c>
-      <c r="I615" t="inlineStr">
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J618" t="n">
+        <v>800</v>
+      </c>
+      <c r="K618" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L618" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M618" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N618" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P618" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>18</v>
+      </c>
+      <c r="R618" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>8</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D619" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E619" t="n">
+        <v>4</v>
+      </c>
+      <c r="F619" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J615" t="n">
+      <c r="J619" t="n">
         <v>560</v>
       </c>
-      <c r="K615" t="n">
+      <c r="K619" t="n">
         <v>4500</v>
       </c>
-      <c r="L615" t="n">
+      <c r="L619" t="n">
         <v>5000</v>
       </c>
-      <c r="M615" t="n">
+      <c r="M619" t="n">
         <v>4750</v>
       </c>
-      <c r="N615" t="inlineStr">
+      <c r="N619" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O615" t="inlineStr">
+      <c r="O619" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P615" t="n">
+      <c r="P619" t="n">
         <v>264</v>
       </c>
-      <c r="Q615" t="n">
+      <c r="Q619" t="n">
         <v>18</v>
       </c>
-      <c r="R615" t="inlineStr">
+      <c r="R619" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R631"/>
+  <dimension ref="A1:R635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E545" t="n">
         <v>4</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
         <v>800</v>
       </c>
       <c r="K545" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L545" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M545" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>806</v>
+        <v>917</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E546" t="n">
         <v>4</v>
@@ -39669,20 +39669,20 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="K546" t="n">
-        <v>12000</v>
+        <v>7800</v>
       </c>
       <c r="L546" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M546" t="n">
-        <v>12500</v>
+        <v>7900</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -39691,10 +39691,10 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>694</v>
+        <v>790</v>
       </c>
       <c r="Q546" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E547" t="n">
         <v>4</v>
@@ -39737,24 +39737,24 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K547" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L547" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M547" t="n">
-        <v>7250</v>
+        <v>14500</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -39763,10 +39763,10 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>725</v>
+        <v>806</v>
       </c>
       <c r="Q547" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E548" t="n">
         <v>4</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="K548" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L548" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M548" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q548" t="n">
         <v>10</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E549" t="n">
         <v>4</v>
@@ -39881,24 +39881,24 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J549" t="n">
         <v>800</v>
       </c>
       <c r="K549" t="n">
-        <v>5400</v>
+        <v>14000</v>
       </c>
       <c r="L549" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M549" t="n">
-        <v>5450</v>
+        <v>14500</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -39907,10 +39907,10 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>545</v>
+        <v>806</v>
       </c>
       <c r="Q549" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R549" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E550" t="n">
         <v>4</v>
@@ -39953,24 +39953,24 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K550" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L550" t="n">
-        <v>4200</v>
+        <v>13000</v>
       </c>
       <c r="M550" t="n">
-        <v>4100</v>
+        <v>12500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -39979,10 +39979,10 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>410</v>
+        <v>694</v>
       </c>
       <c r="Q550" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E551" t="n">
         <v>4</v>
@@ -40029,16 +40029,16 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K551" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L551" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M551" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q551" t="n">
         <v>10</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E552" t="n">
         <v>4</v>
@@ -40092,41 +40092,41 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K552" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L552" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M552" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="Q552" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E553" t="n">
         <v>4</v>
@@ -40164,41 +40164,41 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K553" t="n">
+        <v>5400</v>
+      </c>
+      <c r="L553" t="n">
         <v>5500</v>
       </c>
-      <c r="L553" t="n">
-        <v>6000</v>
-      </c>
       <c r="M553" t="n">
-        <v>5750</v>
+        <v>5450</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>319</v>
+        <v>545</v>
       </c>
       <c r="Q553" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E554" t="n">
         <v>4</v>
@@ -40241,36 +40241,36 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K554" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L554" t="n">
-        <v>13500</v>
+        <v>4200</v>
       </c>
       <c r="M554" t="n">
-        <v>13250</v>
+        <v>4100</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>736</v>
+        <v>410</v>
       </c>
       <c r="Q554" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E555" t="n">
         <v>4</v>
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K555" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L555" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M555" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40335,11 +40335,11 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q555" t="n">
         <v>10</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E556" t="n">
         <v>4</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K556" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L556" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M556" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E557" t="n">
         <v>4</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K557" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L557" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M557" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40524,25 +40524,25 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K558" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L558" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="M558" t="n">
-        <v>7250</v>
+        <v>13250</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>403</v>
+        <v>736</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E559" t="n">
         <v>4</v>
@@ -40605,32 +40605,32 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K559" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L559" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M559" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>597</v>
+        <v>675</v>
       </c>
       <c r="Q559" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E560" t="n">
         <v>4</v>
@@ -40668,41 +40668,41 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K560" t="n">
-        <v>5800</v>
+        <v>11500</v>
       </c>
       <c r="L560" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M560" t="n">
-        <v>5900</v>
+        <v>11750</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="Q560" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R560" t="inlineStr">
         <is>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E561" t="n">
         <v>4</v>
@@ -40740,25 +40740,25 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K561" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L561" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M561" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E562" t="n">
         <v>4</v>
@@ -40812,7 +40812,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -40821,32 +40821,32 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K562" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L562" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M562" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="Q562" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K563" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L563" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M563" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E564" t="n">
         <v>4</v>
@@ -40965,32 +40965,32 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K564" t="n">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="L564" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M564" t="n">
-        <v>11750</v>
+        <v>5900</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="Q564" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E565" t="n">
         <v>4</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K565" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L565" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M565" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E566" t="n">
         <v>4</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>860</v>
+        <v>400</v>
       </c>
       <c r="K566" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L566" t="n">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="M566" t="n">
-        <v>5550</v>
+        <v>4250</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>555</v>
+        <v>425</v>
       </c>
       <c r="Q566" t="n">
         <v>10</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E567" t="n">
         <v>4</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K567" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L567" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M567" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K568" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L568" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M568" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
@@ -41316,7 +41316,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K569" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L569" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M569" t="n">
-        <v>8250</v>
+        <v>10750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>458</v>
+        <v>597</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41388,41 +41388,41 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>560</v>
+        <v>860</v>
       </c>
       <c r="K570" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L570" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="M570" t="n">
-        <v>6250</v>
+        <v>5550</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>347</v>
+        <v>555</v>
       </c>
       <c r="Q570" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41465,36 +41465,36 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K571" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L571" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M571" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="Q571" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R571" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41541,20 +41541,20 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K572" t="n">
-        <v>4300</v>
+        <v>8500</v>
       </c>
       <c r="L572" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M572" t="n">
-        <v>4400</v>
+        <v>8750</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -41563,10 +41563,10 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="Q572" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E573" t="n">
         <v>4</v>
@@ -41616,13 +41616,13 @@
         <v>800</v>
       </c>
       <c r="K573" t="n">
-        <v>6800</v>
+        <v>8000</v>
       </c>
       <c r="L573" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M573" t="n">
-        <v>6900</v>
+        <v>8250</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E574" t="n">
         <v>4</v>
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K574" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L574" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M574" t="n">
-        <v>4900</v>
+        <v>6250</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E575" t="n">
         <v>4</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41757,32 +41757,32 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K575" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L575" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M575" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>528</v>
+        <v>625</v>
       </c>
       <c r="Q575" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R575" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E576" t="n">
         <v>4</v>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41829,32 +41829,32 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="K576" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L576" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M576" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="Q576" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E577" t="n">
         <v>4</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K577" t="n">
-        <v>11000</v>
+        <v>6800</v>
       </c>
       <c r="L577" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M577" t="n">
-        <v>11250</v>
+        <v>6900</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E578" t="n">
         <v>4</v>
@@ -41964,41 +41964,41 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K578" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="L578" t="n">
         <v>5000</v>
       </c>
       <c r="M578" t="n">
-        <v>4750</v>
+        <v>4900</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="Q578" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R578" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E579" t="n">
         <v>4</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
         <v>600</v>
       </c>
       <c r="K579" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L579" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M579" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E580" t="n">
         <v>4</v>
@@ -42108,41 +42108,41 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K580" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="L580" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M580" t="n">
-        <v>5900</v>
+        <v>6750</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>590</v>
+        <v>375</v>
       </c>
       <c r="Q580" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R580" t="inlineStr">
         <is>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E581" t="n">
         <v>4</v>
@@ -42185,36 +42185,36 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="K581" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L581" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="M581" t="n">
-        <v>4250</v>
+        <v>11250</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q581" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R581" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E582" t="n">
         <v>4</v>
@@ -42261,32 +42261,32 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K582" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L582" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M582" t="n">
-        <v>13500</v>
+        <v>4750</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q582" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E583" t="n">
         <v>4</v>
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K583" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L583" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M583" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>639</v>
+        <v>486</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E584" t="n">
         <v>4</v>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42405,32 +42405,32 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K584" t="n">
-        <v>11000</v>
+        <v>5800</v>
       </c>
       <c r="L584" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M584" t="n">
-        <v>11500</v>
+        <v>5900</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="Q584" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E585" t="n">
         <v>4</v>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42477,32 +42477,32 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K585" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L585" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M585" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>528</v>
+        <v>425</v>
       </c>
       <c r="Q585" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R585" t="inlineStr">
         <is>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E586" t="n">
         <v>4</v>
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K586" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L586" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M586" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>653</v>
+        <v>750</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E587" t="n">
         <v>4</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J587" t="n">
         <v>400</v>
       </c>
       <c r="K587" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L587" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M587" t="n">
-        <v>10750</v>
+        <v>11500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E588" t="n">
         <v>4</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K588" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L588" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M588" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>542</v>
+        <v>639</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E589" t="n">
         <v>4</v>
@@ -42756,7 +42756,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K589" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L589" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M589" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E590" t="n">
         <v>4</v>
@@ -42837,16 +42837,16 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K590" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L590" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M590" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E591" t="n">
         <v>4</v>
@@ -42909,20 +42909,20 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K591" t="n">
-        <v>5300</v>
+        <v>10500</v>
       </c>
       <c r="L591" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="M591" t="n">
-        <v>5400</v>
+        <v>10750</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -42931,10 +42931,10 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="Q591" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E592" t="n">
         <v>4</v>
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K592" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L592" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M592" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E593" t="n">
         <v>4</v>
@@ -43053,20 +43053,20 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K593" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L593" t="n">
-        <v>4200</v>
+        <v>9000</v>
       </c>
       <c r="M593" t="n">
-        <v>4100</v>
+        <v>8750</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -43075,10 +43075,10 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="Q593" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K594" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L594" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M594" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>347</v>
+        <v>542</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43197,20 +43197,20 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="K595" t="n">
-        <v>9500</v>
+        <v>5300</v>
       </c>
       <c r="L595" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M595" t="n">
-        <v>9750</v>
+        <v>5400</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -43219,10 +43219,10 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q595" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -43265,24 +43265,24 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="K596" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L596" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="M596" t="n">
-        <v>5100</v>
+        <v>7750</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -43291,10 +43291,10 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>510</v>
+        <v>431</v>
       </c>
       <c r="Q596" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E597" t="n">
         <v>4</v>
@@ -43341,20 +43341,20 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K597" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L597" t="n">
-        <v>8000</v>
+        <v>4200</v>
       </c>
       <c r="M597" t="n">
-        <v>7750</v>
+        <v>4100</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -43363,10 +43363,10 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q597" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43409,24 +43409,24 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J598" t="n">
         <v>400</v>
       </c>
       <c r="K598" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L598" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M598" t="n">
-        <v>3900</v>
+        <v>6250</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -43435,10 +43435,10 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="Q598" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>800</v>
+        <v>660</v>
       </c>
       <c r="K599" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L599" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M599" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43548,41 +43548,41 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>440</v>
+        <v>840</v>
       </c>
       <c r="K600" t="n">
         <v>5000</v>
       </c>
       <c r="L600" t="n">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="M600" t="n">
-        <v>5250</v>
+        <v>5100</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="Q600" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>900</v>
+        <v>440</v>
       </c>
       <c r="K601" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L601" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M601" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E602" t="n">
         <v>4</v>
@@ -43701,32 +43701,32 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K602" t="n">
-        <v>9000</v>
+        <v>3800</v>
       </c>
       <c r="L602" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M602" t="n">
-        <v>9500</v>
+        <v>3900</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>528</v>
+        <v>390</v>
       </c>
       <c r="Q602" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E603" t="n">
         <v>4</v>
@@ -43764,25 +43764,25 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K603" t="n">
         <v>7000</v>
       </c>
       <c r="L603" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M603" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="K604" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L604" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M604" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K605" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L605" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M605" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43992,13 +43992,13 @@
         <v>600</v>
       </c>
       <c r="K606" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L606" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M606" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E607" t="n">
         <v>4</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K607" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L607" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M607" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E608" t="n">
         <v>4</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K608" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L608" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M608" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -44196,7 +44196,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -44208,13 +44208,13 @@
         <v>800</v>
       </c>
       <c r="K609" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L609" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M609" t="n">
-        <v>10750</v>
+        <v>8500</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>597</v>
+        <v>472</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E610" t="n">
         <v>4</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44280,13 +44280,13 @@
         <v>600</v>
       </c>
       <c r="K610" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L610" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M610" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>458</v>
+        <v>292</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E611" t="n">
         <v>4</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K611" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L611" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="M611" t="n">
-        <v>6250</v>
+        <v>11250</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>347</v>
+        <v>625</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E612" t="n">
         <v>4</v>
@@ -44412,25 +44412,25 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K612" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L612" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M612" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44484,25 +44484,25 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K613" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L613" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M613" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E614" t="n">
         <v>4</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
         <v>600</v>
       </c>
       <c r="K614" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L614" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M614" t="n">
-        <v>9750</v>
+        <v>8250</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E615" t="n">
         <v>4</v>
@@ -44633,36 +44633,36 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K615" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="L615" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M615" t="n">
-        <v>5400</v>
+        <v>6250</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="Q615" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E616" t="n">
         <v>4</v>
@@ -44700,41 +44700,41 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K616" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L616" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="M616" t="n">
-        <v>4100</v>
+        <v>7750</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="Q616" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E617" t="n">
         <v>4</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K617" t="n">
-        <v>8800</v>
+        <v>5500</v>
       </c>
       <c r="L617" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M617" t="n">
-        <v>8900</v>
+        <v>5750</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E618" t="n">
         <v>4</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K618" t="n">
-        <v>6800</v>
+        <v>9500</v>
       </c>
       <c r="L618" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M618" t="n">
-        <v>6900</v>
+        <v>9750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>383</v>
+        <v>542</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E619" t="n">
         <v>4</v>
@@ -44928,13 +44928,13 @@
         <v>800</v>
       </c>
       <c r="K619" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="L619" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M619" t="n">
-        <v>6250</v>
+        <v>5400</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>625</v>
+        <v>540</v>
       </c>
       <c r="Q619" t="n">
         <v>10</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E620" t="n">
         <v>4</v>
@@ -45000,13 +45000,13 @@
         <v>400</v>
       </c>
       <c r="K620" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L620" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M620" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="Q620" t="n">
         <v>10</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E621" t="n">
         <v>4</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J621" t="n">
         <v>800</v>
       </c>
       <c r="K621" t="n">
-        <v>11000</v>
+        <v>8800</v>
       </c>
       <c r="L621" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M621" t="n">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>639</v>
+        <v>494</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E622" t="n">
         <v>4</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K622" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="L622" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M622" t="n">
-        <v>9500</v>
+        <v>6900</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>528</v>
+        <v>383</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E623" t="n">
         <v>4</v>
@@ -45204,41 +45204,41 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K623" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L623" t="n">
         <v>6500</v>
       </c>
-      <c r="L623" t="n">
-        <v>7000</v>
-      </c>
       <c r="M623" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q623" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E624" t="n">
         <v>4</v>
@@ -45281,24 +45281,24 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K624" t="n">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="L624" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M624" t="n">
-        <v>9250</v>
+        <v>4400</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,10 +45307,10 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="Q624" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E625" t="n">
         <v>4</v>
@@ -45348,41 +45348,41 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J625" t="n">
         <v>800</v>
       </c>
       <c r="K625" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L625" t="n">
-        <v>4600</v>
+        <v>12000</v>
       </c>
       <c r="M625" t="n">
-        <v>4550</v>
+        <v>11500</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>455</v>
+        <v>639</v>
       </c>
       <c r="Q625" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E626" t="n">
         <v>4</v>
@@ -45420,25 +45420,25 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K626" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L626" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M626" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>403</v>
+        <v>528</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,32 +45501,32 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K627" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L627" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M627" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="Q627" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E628" t="n">
         <v>4</v>
@@ -45576,13 +45576,13 @@
         <v>700</v>
       </c>
       <c r="K628" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L628" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M628" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E629" t="n">
         <v>4</v>
@@ -45641,36 +45641,36 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K629" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L629" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M629" t="n">
-        <v>5750</v>
+        <v>4550</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>319</v>
+        <v>455</v>
       </c>
       <c r="Q629" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E630" t="n">
         <v>4</v>
@@ -45708,25 +45708,25 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K630" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L630" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M630" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,58 +45765,346 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E631" t="n">
+        <v>4</v>
+      </c>
+      <c r="F631" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J631" t="n">
+        <v>440</v>
+      </c>
+      <c r="K631" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L631" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M631" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N631" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P631" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q631" t="n">
+        <v>10</v>
+      </c>
+      <c r="R631" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>8</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D632" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E631" t="n">
-        <v>4</v>
-      </c>
-      <c r="F631" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H631" t="inlineStr">
+      <c r="E632" t="n">
+        <v>4</v>
+      </c>
+      <c r="F632" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J632" t="n">
+        <v>700</v>
+      </c>
+      <c r="K632" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L632" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M632" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N632" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P632" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q632" t="n">
+        <v>18</v>
+      </c>
+      <c r="R632" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>8</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D633" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E633" t="n">
+        <v>4</v>
+      </c>
+      <c r="F633" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J633" t="n">
+        <v>400</v>
+      </c>
+      <c r="K633" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L633" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M633" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N633" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O633" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P633" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q633" t="n">
+        <v>18</v>
+      </c>
+      <c r="R633" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>8</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D634" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E634" t="n">
+        <v>4</v>
+      </c>
+      <c r="F634" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
         <is>
           <t>Semiduro</t>
         </is>
       </c>
-      <c r="I631" t="inlineStr">
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J634" t="n">
+        <v>800</v>
+      </c>
+      <c r="K634" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L634" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M634" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N634" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P634" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q634" t="n">
+        <v>18</v>
+      </c>
+      <c r="R634" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>8</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D635" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E635" t="n">
+        <v>4</v>
+      </c>
+      <c r="F635" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J631" t="n">
+      <c r="J635" t="n">
         <v>560</v>
       </c>
-      <c r="K631" t="n">
+      <c r="K635" t="n">
         <v>4500</v>
       </c>
-      <c r="L631" t="n">
+      <c r="L635" t="n">
         <v>5000</v>
       </c>
-      <c r="M631" t="n">
+      <c r="M635" t="n">
         <v>4750</v>
       </c>
-      <c r="N631" t="inlineStr">
+      <c r="N635" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O631" t="inlineStr">
+      <c r="O635" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P631" t="n">
+      <c r="P635" t="n">
         <v>264</v>
       </c>
-      <c r="Q631" t="n">
+      <c r="Q635" t="n">
         <v>18</v>
       </c>
-      <c r="R631" t="inlineStr">
+      <c r="R635" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R640"/>
+  <dimension ref="A1:R644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E530" t="n">
         <v>4</v>
@@ -38520,13 +38520,13 @@
         <v>800</v>
       </c>
       <c r="K530" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L530" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M530" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E531" t="n">
         <v>4</v>
@@ -38592,13 +38592,13 @@
         <v>800</v>
       </c>
       <c r="K531" t="n">
-        <v>6500</v>
+        <v>7300</v>
       </c>
       <c r="L531" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M531" t="n">
-        <v>6750</v>
+        <v>7400</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>675</v>
+        <v>740</v>
       </c>
       <c r="Q531" t="n">
         <v>10</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E532" t="n">
         <v>4</v>
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K532" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L532" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M532" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>694</v>
+        <v>861</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E533" t="n">
         <v>4</v>
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K533" t="n">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="L533" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M533" t="n">
-        <v>5750</v>
+        <v>6400</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="Q533" t="n">
         <v>10</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E534" t="n">
         <v>4</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K534" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L534" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M534" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E535" t="n">
         <v>4</v>
@@ -38873,24 +38873,24 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="K535" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L535" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M535" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -38899,10 +38899,10 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="Q535" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E536" t="n">
         <v>4</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K536" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L536" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M536" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>472</v>
+        <v>694</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E537" t="n">
         <v>4</v>
@@ -39017,24 +39017,24 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K537" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L537" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M537" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -39043,10 +39043,10 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="Q537" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39089,36 +39089,36 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K538" t="n">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="L538" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M538" t="n">
-        <v>5900</v>
+        <v>10500</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="Q538" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39161,24 +39161,24 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K539" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L539" t="n">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="M539" t="n">
-        <v>4650</v>
+        <v>11500</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -39187,10 +39187,10 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>465</v>
+        <v>639</v>
       </c>
       <c r="Q539" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E540" t="n">
         <v>4</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
         <v>600</v>
       </c>
       <c r="K540" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L540" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M540" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>694</v>
+        <v>472</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E541" t="n">
         <v>4</v>
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K541" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L541" t="n">
         <v>10000</v>
       </c>
-      <c r="L541" t="n">
-        <v>11000</v>
-      </c>
       <c r="M541" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E542" t="n">
         <v>4</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K542" t="n">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="L542" t="n">
         <v>6000</v>
       </c>
       <c r="M542" t="n">
-        <v>5850</v>
+        <v>5900</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Q542" t="n">
         <v>10</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E543" t="n">
         <v>4</v>
@@ -39456,13 +39456,13 @@
         <v>400</v>
       </c>
       <c r="K543" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L543" t="n">
-        <v>4200</v>
+        <v>4800</v>
       </c>
       <c r="M543" t="n">
-        <v>4100</v>
+        <v>4650</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="Q543" t="n">
         <v>10</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E544" t="n">
         <v>4</v>
@@ -39516,25 +39516,25 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K544" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L544" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M544" t="n">
-        <v>7250</v>
+        <v>12500</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>403</v>
+        <v>694</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E545" t="n">
         <v>4</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
         <v>500</v>
       </c>
       <c r="K545" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L545" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="M545" t="n">
-        <v>5250</v>
+        <v>10500</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>292</v>
+        <v>583</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E546" t="n">
         <v>4</v>
@@ -39672,13 +39672,13 @@
         <v>800</v>
       </c>
       <c r="K546" t="n">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="L546" t="n">
         <v>6000</v>
       </c>
       <c r="M546" t="n">
-        <v>5900</v>
+        <v>5850</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="Q546" t="n">
         <v>10</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E547" t="n">
         <v>4</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K547" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L547" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M547" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="Q547" t="n">
         <v>10</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E548" t="n">
         <v>4</v>
@@ -39816,13 +39816,13 @@
         <v>800</v>
       </c>
       <c r="K548" t="n">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="L548" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M548" t="n">
-        <v>6900</v>
+        <v>7250</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E549" t="n">
         <v>4</v>
@@ -39888,13 +39888,13 @@
         <v>500</v>
       </c>
       <c r="K549" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="L549" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M549" t="n">
-        <v>4900</v>
+        <v>5250</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E550" t="n">
         <v>4</v>
@@ -39960,13 +39960,13 @@
         <v>800</v>
       </c>
       <c r="K550" t="n">
+        <v>5800</v>
+      </c>
+      <c r="L550" t="n">
         <v>6000</v>
       </c>
-      <c r="L550" t="n">
-        <v>6500</v>
-      </c>
       <c r="M550" t="n">
-        <v>6250</v>
+        <v>5900</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="Q550" t="n">
         <v>10</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E551" t="n">
         <v>4</v>
@@ -40029,7 +40029,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K551" t="n">
         <v>4300</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E552" t="n">
         <v>4</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40104,13 +40104,13 @@
         <v>800</v>
       </c>
       <c r="K552" t="n">
-        <v>10500</v>
+        <v>6800</v>
       </c>
       <c r="L552" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M552" t="n">
-        <v>10750</v>
+        <v>6900</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>597</v>
+        <v>383</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E553" t="n">
         <v>4</v>
@@ -40164,25 +40164,25 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K553" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="L553" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M553" t="n">
-        <v>8500</v>
+        <v>4900</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E554" t="n">
         <v>4</v>
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K554" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L554" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M554" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q554" t="n">
         <v>10</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E555" t="n">
         <v>4</v>
@@ -40317,32 +40317,32 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K555" t="n">
-        <v>8500</v>
+        <v>4300</v>
       </c>
       <c r="L555" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M555" t="n">
-        <v>8750</v>
+        <v>4400</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="Q555" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
@@ -40385,36 +40385,36 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="K556" t="n">
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="L556" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="M556" t="n">
-        <v>3250</v>
+        <v>10750</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>325</v>
+        <v>597</v>
       </c>
       <c r="Q556" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R556" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E557" t="n">
         <v>4</v>
@@ -40452,7 +40452,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K557" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L557" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M557" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E558" t="n">
         <v>4</v>
@@ -40524,41 +40524,41 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="K558" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L558" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M558" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>319</v>
+        <v>475</v>
       </c>
       <c r="Q558" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E559" t="n">
         <v>4</v>
@@ -40601,36 +40601,36 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K559" t="n">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="L559" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M559" t="n">
-        <v>5900</v>
+        <v>8750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>590</v>
+        <v>486</v>
       </c>
       <c r="Q559" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E560" t="n">
         <v>4</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="K560" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L560" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M560" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="Q560" t="n">
         <v>10</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E561" t="n">
         <v>4</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K561" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L561" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M561" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E562" t="n">
         <v>4</v>
@@ -40812,7 +40812,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -40824,13 +40824,13 @@
         <v>500</v>
       </c>
       <c r="K562" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L562" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M562" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E563" t="n">
         <v>4</v>
@@ -40884,7 +40884,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -40893,32 +40893,32 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K563" t="n">
-        <v>7500</v>
+        <v>5800</v>
       </c>
       <c r="L563" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M563" t="n">
-        <v>7750</v>
+        <v>5900</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>431</v>
+        <v>590</v>
       </c>
       <c r="Q563" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E564" t="n">
         <v>4</v>
@@ -40956,7 +40956,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -40965,32 +40965,32 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K564" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L564" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M564" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="Q564" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E565" t="n">
         <v>4</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K565" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L565" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M565" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E566" t="n">
         <v>4</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K566" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L566" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M566" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E567" t="n">
         <v>4</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="K567" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L567" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M567" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E568" t="n">
         <v>4</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K568" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L568" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M568" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
@@ -41328,13 +41328,13 @@
         <v>800</v>
       </c>
       <c r="K569" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L569" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M569" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>583</v>
+        <v>431</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41400,13 +41400,13 @@
         <v>600</v>
       </c>
       <c r="K570" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L570" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M570" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K571" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L571" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M571" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K572" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L572" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M572" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E573" t="n">
         <v>4</v>
@@ -41616,13 +41616,13 @@
         <v>800</v>
       </c>
       <c r="K573" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L573" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M573" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E574" t="n">
         <v>4</v>
@@ -41688,13 +41688,13 @@
         <v>600</v>
       </c>
       <c r="K574" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L574" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M574" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E575" t="n">
         <v>4</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K575" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L575" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M575" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E576" t="n">
         <v>4</v>
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K576" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L576" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M576" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E577" t="n">
         <v>4</v>
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K577" t="n">
-        <v>11700</v>
+        <v>9500</v>
       </c>
       <c r="L577" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M577" t="n">
-        <v>11850</v>
+        <v>9750</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>658</v>
+        <v>542</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E578" t="n">
         <v>4</v>
@@ -41969,36 +41969,36 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K578" t="n">
-        <v>5600</v>
+        <v>7500</v>
       </c>
       <c r="L578" t="n">
-        <v>5700</v>
+        <v>8000</v>
       </c>
       <c r="M578" t="n">
-        <v>5650</v>
+        <v>7750</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>565</v>
+        <v>431</v>
       </c>
       <c r="Q578" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R578" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E579" t="n">
         <v>4</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K579" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L579" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M579" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E580" t="n">
         <v>4</v>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,32 +42117,32 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K580" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="L580" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M580" t="n">
-        <v>4400</v>
+        <v>5750</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>440</v>
+        <v>319</v>
       </c>
       <c r="Q580" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R580" t="inlineStr">
         <is>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E581" t="n">
         <v>4</v>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K581" t="n">
-        <v>9000</v>
+        <v>11700</v>
       </c>
       <c r="L581" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M581" t="n">
-        <v>9250</v>
+        <v>11850</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>514</v>
+        <v>658</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E582" t="n">
         <v>4</v>
@@ -42261,16 +42261,16 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K582" t="n">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="L582" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="M582" t="n">
-        <v>4900</v>
+        <v>5650</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="Q582" t="n">
         <v>10</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E583" t="n">
         <v>4</v>
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K583" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L583" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M583" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E584" t="n">
         <v>4</v>
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K584" t="n">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="L584" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M584" t="n">
-        <v>3900</v>
+        <v>4400</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="Q584" t="n">
         <v>10</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E585" t="n">
         <v>4</v>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42477,16 +42477,16 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K585" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L585" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M585" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E586" t="n">
         <v>4</v>
@@ -42540,41 +42540,41 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K586" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="L586" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M586" t="n">
-        <v>5750</v>
+        <v>4900</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>319</v>
+        <v>490</v>
       </c>
       <c r="Q586" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R586" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E587" t="n">
         <v>4</v>
@@ -42617,11 +42617,11 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K587" t="n">
         <v>7000</v>
@@ -42639,7 +42639,7 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P587" t="n">
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E588" t="n">
         <v>4</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K588" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L588" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M588" t="n">
-        <v>5250</v>
+        <v>3900</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>525</v>
+        <v>390</v>
       </c>
       <c r="Q588" t="n">
         <v>10</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E589" t="n">
         <v>4</v>
@@ -42756,25 +42756,25 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="K589" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L589" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M589" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E590" t="n">
         <v>4</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K590" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L590" t="n">
         <v>6000</v>
       </c>
-      <c r="L590" t="n">
-        <v>6500</v>
-      </c>
       <c r="M590" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42900,25 +42900,25 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K591" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L591" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M591" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E592" t="n">
         <v>4</v>
@@ -42984,13 +42984,13 @@
         <v>800</v>
       </c>
       <c r="K592" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L592" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M592" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q592" t="n">
         <v>10</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E593" t="n">
         <v>4</v>
@@ -43056,29 +43056,29 @@
         <v>560</v>
       </c>
       <c r="K593" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L593" t="n">
         <v>5500</v>
       </c>
-      <c r="L593" t="n">
-        <v>6000</v>
-      </c>
       <c r="M593" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="Q593" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E594" t="n">
         <v>4</v>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43128,13 +43128,13 @@
         <v>700</v>
       </c>
       <c r="K594" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L594" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M594" t="n">
-        <v>9250</v>
+        <v>6250</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>514</v>
+        <v>347</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43188,41 +43188,41 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K595" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L595" t="n">
         <v>4500</v>
       </c>
-      <c r="L595" t="n">
-        <v>4600</v>
-      </c>
       <c r="M595" t="n">
-        <v>4550</v>
+        <v>4250</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>455</v>
+        <v>236</v>
       </c>
       <c r="Q595" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -43265,24 +43265,24 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K596" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L596" t="n">
         <v>7000</v>
       </c>
-      <c r="L596" t="n">
-        <v>7500</v>
-      </c>
       <c r="M596" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -43291,10 +43291,10 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>403</v>
+        <v>675</v>
       </c>
       <c r="Q596" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E597" t="n">
         <v>4</v>
@@ -43341,16 +43341,16 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K597" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L597" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M597" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>325</v>
+        <v>575</v>
       </c>
       <c r="Q597" t="n">
         <v>10</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43413,20 +43413,20 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K598" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L598" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M598" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -43435,10 +43435,10 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>675</v>
+        <v>514</v>
       </c>
       <c r="Q598" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K599" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L599" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M599" t="n">
-        <v>5750</v>
+        <v>4550</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>575</v>
+        <v>455</v>
       </c>
       <c r="Q599" t="n">
         <v>10</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K600" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L600" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M600" t="n">
-        <v>10500</v>
+        <v>7250</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>583</v>
+        <v>403</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K601" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L601" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M601" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="Q601" t="n">
         <v>10</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E602" t="n">
         <v>4</v>
@@ -43697,36 +43697,36 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K602" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L602" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M602" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>431</v>
+        <v>675</v>
       </c>
       <c r="Q602" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E603" t="n">
         <v>4</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K603" t="n">
         <v>5500</v>
       </c>
       <c r="L603" t="n">
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="M603" t="n">
-        <v>5550</v>
+        <v>5750</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="Q603" t="n">
         <v>10</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43841,36 +43841,36 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K604" t="n">
-        <v>4300</v>
+        <v>10000</v>
       </c>
       <c r="L604" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M604" t="n">
-        <v>4400</v>
+        <v>10500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>440</v>
+        <v>583</v>
       </c>
       <c r="Q604" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43917,32 +43917,32 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K605" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L605" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M605" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>431</v>
+        <v>625</v>
       </c>
       <c r="Q605" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E606" t="n">
         <v>4</v>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K606" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L606" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M606" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E607" t="n">
         <v>4</v>
@@ -44064,29 +44064,29 @@
         <v>800</v>
       </c>
       <c r="K607" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L607" t="n">
-        <v>10500</v>
+        <v>5600</v>
       </c>
       <c r="M607" t="n">
-        <v>10250</v>
+        <v>5550</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="Q607" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E608" t="n">
         <v>4</v>
@@ -44133,32 +44133,32 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K608" t="n">
-        <v>7500</v>
+        <v>4300</v>
       </c>
       <c r="L608" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M608" t="n">
-        <v>7750</v>
+        <v>4400</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q608" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -44205,7 +44205,7 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="K609" t="n">
         <v>7500</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E610" t="n">
         <v>4</v>
@@ -44277,7 +44277,7 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K610" t="n">
         <v>5000</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E611" t="n">
         <v>4</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J611" t="n">
         <v>800</v>
       </c>
       <c r="K611" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L611" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M611" t="n">
-        <v>14500</v>
+        <v>10250</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>806</v>
+        <v>569</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E612" t="n">
         <v>4</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K612" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L612" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M612" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>694</v>
+        <v>431</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E613" t="n">
         <v>4</v>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,32 +44493,32 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K613" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L613" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M613" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>725</v>
+        <v>431</v>
       </c>
       <c r="Q613" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E614" t="n">
         <v>4</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,32 +44565,32 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K614" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L614" t="n">
         <v>5500</v>
       </c>
-      <c r="L614" t="n">
-        <v>6000</v>
-      </c>
       <c r="M614" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="Q614" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E615" t="n">
         <v>4</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K615" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L615" t="n">
         <v>15000</v>
       </c>
-      <c r="L615" t="n">
-        <v>16000</v>
-      </c>
       <c r="M615" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E616" t="n">
         <v>4</v>
@@ -44705,21 +44705,21 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K616" t="n">
         <v>12000</v>
       </c>
       <c r="L616" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M616" t="n">
         <v>12500</v>
       </c>
-      <c r="M616" t="n">
-        <v>12250</v>
-      </c>
       <c r="N616" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E617" t="n">
         <v>4</v>
@@ -44781,32 +44781,32 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K617" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L617" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M617" t="n">
-        <v>14750</v>
+        <v>7250</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>819</v>
+        <v>725</v>
       </c>
       <c r="Q617" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E618" t="n">
         <v>4</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K618" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L618" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M618" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q618" t="n">
         <v>10</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E619" t="n">
         <v>4</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K619" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L619" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M619" t="n">
-        <v>12750</v>
+        <v>15500</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>708</v>
+        <v>861</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E620" t="n">
         <v>4</v>
@@ -44993,24 +44993,24 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K620" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L620" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="M620" t="n">
-        <v>5750</v>
+        <v>12250</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -45019,10 +45019,10 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="Q620" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E621" t="n">
         <v>4</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K621" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L621" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M621" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>431</v>
+        <v>819</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E622" t="n">
         <v>4</v>
@@ -45132,41 +45132,41 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K622" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L622" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M622" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>319</v>
+        <v>775</v>
       </c>
       <c r="Q622" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E623" t="n">
         <v>4</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K623" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L623" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M623" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E624" t="n">
         <v>4</v>
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K624" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L624" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M624" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q624" t="n">
         <v>10</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E625" t="n">
         <v>4</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K625" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L625" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M625" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E626" t="n">
         <v>4</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,7 +45429,7 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K626" t="n">
         <v>5500</v>
@@ -45442,19 +45442,19 @@
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>575</v>
+        <v>319</v>
       </c>
       <c r="Q626" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K627" t="n">
-        <v>7300</v>
+        <v>13500</v>
       </c>
       <c r="L627" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M627" t="n">
-        <v>7400</v>
+        <v>13750</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>411</v>
+        <v>764</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E628" t="n">
         <v>4</v>
@@ -45576,13 +45576,13 @@
         <v>800</v>
       </c>
       <c r="K628" t="n">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="L628" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M628" t="n">
-        <v>5400</v>
+        <v>6750</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="Q628" t="n">
         <v>10</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E629" t="n">
         <v>4</v>
@@ -45648,13 +45648,13 @@
         <v>400</v>
       </c>
       <c r="K629" t="n">
-        <v>5300</v>
+        <v>11500</v>
       </c>
       <c r="L629" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M629" t="n">
-        <v>5400</v>
+        <v>11750</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>300</v>
+        <v>653</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E630" t="n">
         <v>4</v>
@@ -45708,41 +45708,41 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K630" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="L630" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M630" t="n">
-        <v>6400</v>
+        <v>5750</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>356</v>
+        <v>575</v>
       </c>
       <c r="Q630" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45780,25 +45780,25 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K631" t="n">
-        <v>4300</v>
+        <v>7300</v>
       </c>
       <c r="L631" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M631" t="n">
-        <v>4400</v>
+        <v>7400</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>244</v>
+        <v>411</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E632" t="n">
         <v>4</v>
@@ -45861,20 +45861,20 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K632" t="n">
-        <v>7500</v>
+        <v>5300</v>
       </c>
       <c r="L632" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M632" t="n">
-        <v>7750</v>
+        <v>5400</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -45883,10 +45883,10 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>431</v>
+        <v>540</v>
       </c>
       <c r="Q632" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E633" t="n">
         <v>4</v>
@@ -45929,36 +45929,36 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K633" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L633" t="n">
         <v>5500</v>
       </c>
-      <c r="L633" t="n">
-        <v>6000</v>
-      </c>
       <c r="M633" t="n">
-        <v>5750</v>
+        <v>5400</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>575</v>
+        <v>300</v>
       </c>
       <c r="Q633" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E634" t="n">
         <v>4</v>
@@ -45996,25 +45996,25 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K634" t="n">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="L634" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M634" t="n">
-        <v>5750</v>
+        <v>6400</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E635" t="n">
         <v>4</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="K635" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="L635" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M635" t="n">
-        <v>7250</v>
+        <v>4400</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>403</v>
+        <v>244</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46140,25 +46140,25 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K636" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L636" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M636" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E637" t="n">
         <v>4</v>
@@ -46221,20 +46221,20 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K637" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L637" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M637" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -46243,10 +46243,10 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="Q637" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E638" t="n">
         <v>4</v>
@@ -46289,24 +46289,24 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K638" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="L638" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M638" t="n">
-        <v>4400</v>
+        <v>5750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -46315,10 +46315,10 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>440</v>
+        <v>319</v>
       </c>
       <c r="Q638" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E639" t="n">
         <v>4</v>
@@ -46356,25 +46356,25 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>440</v>
+        <v>760</v>
       </c>
       <c r="K639" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L639" t="n">
         <v>7500</v>
       </c>
-      <c r="L639" t="n">
-        <v>8000</v>
-      </c>
       <c r="M639" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,58 +46413,346 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E640" t="n">
+        <v>4</v>
+      </c>
+      <c r="F640" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J640" t="n">
+        <v>500</v>
+      </c>
+      <c r="K640" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L640" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M640" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N640" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P640" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>18</v>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>8</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D641" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E640" t="n">
-        <v>4</v>
-      </c>
-      <c r="F640" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H640" t="inlineStr">
+      <c r="E641" t="n">
+        <v>4</v>
+      </c>
+      <c r="F641" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I640" t="inlineStr">
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J641" t="n">
+        <v>700</v>
+      </c>
+      <c r="K641" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L641" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M641" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P641" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>18</v>
+      </c>
+      <c r="R641" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>8</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E642" t="n">
+        <v>4</v>
+      </c>
+      <c r="F642" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J642" t="n">
+        <v>800</v>
+      </c>
+      <c r="K642" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L642" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M642" t="n">
+        <v>4400</v>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P642" t="n">
+        <v>440</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>10</v>
+      </c>
+      <c r="R642" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>8</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E643" t="n">
+        <v>4</v>
+      </c>
+      <c r="F643" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J640" t="n">
+      <c r="J643" t="n">
         <v>440</v>
       </c>
-      <c r="K640" t="n">
+      <c r="K643" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L643" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M643" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P643" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>18</v>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>8</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E644" t="n">
+        <v>4</v>
+      </c>
+      <c r="F644" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J644" t="n">
+        <v>440</v>
+      </c>
+      <c r="K644" t="n">
         <v>3000</v>
       </c>
-      <c r="L640" t="n">
+      <c r="L644" t="n">
         <v>3500</v>
       </c>
-      <c r="M640" t="n">
+      <c r="M644" t="n">
         <v>3250</v>
       </c>
-      <c r="N640" t="inlineStr">
+      <c r="N644" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O640" t="inlineStr">
+      <c r="O644" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P640" t="n">
+      <c r="P644" t="n">
         <v>325</v>
       </c>
-      <c r="Q640" t="n">
+      <c r="Q644" t="n">
         <v>10</v>
       </c>
-      <c r="R640" t="inlineStr">
+      <c r="R644" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R675"/>
+  <dimension ref="A1:R679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E587" t="n">
         <v>4</v>
@@ -42621,16 +42621,16 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K587" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="L587" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M587" t="n">
-        <v>10750</v>
+        <v>13500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>597</v>
+        <v>750</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E588" t="n">
         <v>4</v>
@@ -42693,20 +42693,20 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>700</v>
+        <v>880</v>
       </c>
       <c r="K588" t="n">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="L588" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M588" t="n">
-        <v>8500</v>
+        <v>6400</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
@@ -42715,10 +42715,10 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>472</v>
+        <v>640</v>
       </c>
       <c r="Q588" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R588" t="inlineStr">
         <is>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E589" t="n">
         <v>4</v>
@@ -42761,24 +42761,24 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="K589" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L589" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M589" t="n">
-        <v>4750</v>
+        <v>11500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -42787,10 +42787,10 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>475</v>
+        <v>639</v>
       </c>
       <c r="Q589" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E590" t="n">
         <v>4</v>
@@ -42837,32 +42837,32 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K590" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L590" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M590" t="n">
-        <v>8750</v>
+        <v>5250</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="Q590" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
@@ -42905,36 +42905,36 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="K591" t="n">
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="L591" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="M591" t="n">
-        <v>3250</v>
+        <v>10750</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>325</v>
+        <v>597</v>
       </c>
       <c r="Q591" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E592" t="n">
         <v>4</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K592" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L592" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M592" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E593" t="n">
         <v>4</v>
@@ -43044,41 +43044,41 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="K593" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L593" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M593" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>319</v>
+        <v>475</v>
       </c>
       <c r="Q593" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E594" t="n">
         <v>4</v>
@@ -43121,36 +43121,36 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K594" t="n">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="L594" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M594" t="n">
-        <v>5900</v>
+        <v>8750</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>590</v>
+        <v>486</v>
       </c>
       <c r="Q594" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43197,16 +43197,16 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="K595" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L595" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M595" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="Q595" t="n">
         <v>10</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -43260,7 +43260,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K596" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L596" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M596" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E597" t="n">
         <v>4</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43344,13 +43344,13 @@
         <v>500</v>
       </c>
       <c r="K597" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L597" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M597" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,32 +43413,32 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="K598" t="n">
-        <v>7500</v>
+        <v>5800</v>
       </c>
       <c r="L598" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M598" t="n">
-        <v>7750</v>
+        <v>5900</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>431</v>
+        <v>590</v>
       </c>
       <c r="Q598" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43485,32 +43485,32 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K599" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L599" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M599" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="Q599" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43557,16 +43557,16 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K600" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L600" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M600" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43629,16 +43629,16 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K601" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L601" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M601" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E602" t="n">
         <v>4</v>
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="K602" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L602" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M602" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E603" t="n">
         <v>4</v>
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K603" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L603" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M603" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43848,13 +43848,13 @@
         <v>800</v>
       </c>
       <c r="K604" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L604" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M604" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>583</v>
+        <v>431</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -43920,13 +43920,13 @@
         <v>600</v>
       </c>
       <c r="K605" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L605" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M605" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E606" t="n">
         <v>4</v>
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K606" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L606" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M606" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E607" t="n">
         <v>4</v>
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K607" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L607" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M607" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E608" t="n">
         <v>4</v>
@@ -44136,13 +44136,13 @@
         <v>800</v>
       </c>
       <c r="K608" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L608" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M608" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -44208,13 +44208,13 @@
         <v>600</v>
       </c>
       <c r="K609" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L609" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M609" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E610" t="n">
         <v>4</v>
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K610" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L610" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M610" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E611" t="n">
         <v>4</v>
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K611" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L611" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M611" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E612" t="n">
         <v>4</v>
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K612" t="n">
-        <v>11700</v>
+        <v>9500</v>
       </c>
       <c r="L612" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M612" t="n">
-        <v>11850</v>
+        <v>9750</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>658</v>
+        <v>542</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E613" t="n">
         <v>4</v>
@@ -44489,36 +44489,36 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K613" t="n">
-        <v>5600</v>
+        <v>7500</v>
       </c>
       <c r="L613" t="n">
-        <v>5700</v>
+        <v>8000</v>
       </c>
       <c r="M613" t="n">
-        <v>5650</v>
+        <v>7750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>565</v>
+        <v>431</v>
       </c>
       <c r="Q613" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E614" t="n">
         <v>4</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K614" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L614" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M614" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E615" t="n">
         <v>4</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,32 +44637,32 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K615" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="L615" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M615" t="n">
-        <v>4400</v>
+        <v>5750</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>440</v>
+        <v>319</v>
       </c>
       <c r="Q615" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E616" t="n">
         <v>4</v>
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K616" t="n">
-        <v>9000</v>
+        <v>11700</v>
       </c>
       <c r="L616" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M616" t="n">
-        <v>9250</v>
+        <v>11850</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>514</v>
+        <v>658</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E617" t="n">
         <v>4</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K617" t="n">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="L617" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="M617" t="n">
-        <v>4900</v>
+        <v>5650</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="Q617" t="n">
         <v>10</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E618" t="n">
         <v>4</v>
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K618" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L618" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M618" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E619" t="n">
         <v>4</v>
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K619" t="n">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="L619" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M619" t="n">
-        <v>3900</v>
+        <v>4400</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="Q619" t="n">
         <v>10</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E620" t="n">
         <v>4</v>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K620" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M620" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E621" t="n">
         <v>4</v>
@@ -45060,41 +45060,41 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K621" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="L621" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M621" t="n">
-        <v>5750</v>
+        <v>4900</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>319</v>
+        <v>490</v>
       </c>
       <c r="Q621" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E622" t="n">
         <v>4</v>
@@ -45137,11 +45137,11 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K622" t="n">
         <v>7000</v>
@@ -45159,7 +45159,7 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P622" t="n">
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E623" t="n">
         <v>4</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K623" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L623" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M623" t="n">
-        <v>5250</v>
+        <v>3900</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>525</v>
+        <v>390</v>
       </c>
       <c r="Q623" t="n">
         <v>10</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E624" t="n">
         <v>4</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="K624" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L624" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M624" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E625" t="n">
         <v>4</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K625" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L625" t="n">
         <v>6000</v>
       </c>
-      <c r="L625" t="n">
-        <v>6500</v>
-      </c>
       <c r="M625" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45420,25 +45420,25 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K626" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L626" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M626" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -45504,13 +45504,13 @@
         <v>800</v>
       </c>
       <c r="K627" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L627" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M627" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q627" t="n">
         <v>10</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E628" t="n">
         <v>4</v>
@@ -45576,29 +45576,29 @@
         <v>560</v>
       </c>
       <c r="K628" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L628" t="n">
         <v>5500</v>
       </c>
-      <c r="L628" t="n">
-        <v>6000</v>
-      </c>
       <c r="M628" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="Q628" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E629" t="n">
         <v>4</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45648,13 +45648,13 @@
         <v>700</v>
       </c>
       <c r="K629" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L629" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M629" t="n">
-        <v>9250</v>
+        <v>6250</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>514</v>
+        <v>347</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E630" t="n">
         <v>4</v>
@@ -45708,41 +45708,41 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K630" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L630" t="n">
         <v>4500</v>
       </c>
-      <c r="L630" t="n">
-        <v>4600</v>
-      </c>
       <c r="M630" t="n">
-        <v>4550</v>
+        <v>4250</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>455</v>
+        <v>236</v>
       </c>
       <c r="Q630" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E631" t="n">
         <v>4</v>
@@ -45785,24 +45785,24 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K631" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L631" t="n">
         <v>7000</v>
       </c>
-      <c r="L631" t="n">
-        <v>7500</v>
-      </c>
       <c r="M631" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -45811,10 +45811,10 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>403</v>
+        <v>675</v>
       </c>
       <c r="Q631" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E632" t="n">
         <v>4</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K632" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L632" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M632" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>325</v>
+        <v>575</v>
       </c>
       <c r="Q632" t="n">
         <v>10</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E633" t="n">
         <v>4</v>
@@ -45933,20 +45933,20 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K633" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L633" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M633" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,10 +45955,10 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>675</v>
+        <v>514</v>
       </c>
       <c r="Q633" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E634" t="n">
         <v>4</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K634" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L634" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M634" t="n">
-        <v>5750</v>
+        <v>4550</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>575</v>
+        <v>455</v>
       </c>
       <c r="Q634" t="n">
         <v>10</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E635" t="n">
         <v>4</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K635" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L635" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M635" t="n">
-        <v>10500</v>
+        <v>7250</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>583</v>
+        <v>403</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E636" t="n">
         <v>4</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K636" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L636" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M636" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="Q636" t="n">
         <v>10</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E637" t="n">
         <v>4</v>
@@ -46217,36 +46217,36 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K637" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L637" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M637" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>431</v>
+        <v>675</v>
       </c>
       <c r="Q637" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E638" t="n">
         <v>4</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K638" t="n">
         <v>5500</v>
       </c>
       <c r="L638" t="n">
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="M638" t="n">
-        <v>5550</v>
+        <v>5750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="Q638" t="n">
         <v>10</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E639" t="n">
         <v>4</v>
@@ -46361,36 +46361,36 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K639" t="n">
-        <v>4300</v>
+        <v>10000</v>
       </c>
       <c r="L639" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M639" t="n">
-        <v>4400</v>
+        <v>10500</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>440</v>
+        <v>583</v>
       </c>
       <c r="Q639" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E640" t="n">
         <v>4</v>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,32 +46437,32 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K640" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L640" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M640" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>431</v>
+        <v>625</v>
       </c>
       <c r="Q640" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E641" t="n">
         <v>4</v>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46509,16 +46509,16 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K641" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L641" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M641" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E642" t="n">
         <v>4</v>
@@ -46584,29 +46584,29 @@
         <v>800</v>
       </c>
       <c r="K642" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L642" t="n">
-        <v>10500</v>
+        <v>5600</v>
       </c>
       <c r="M642" t="n">
-        <v>10250</v>
+        <v>5550</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="Q642" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E643" t="n">
         <v>4</v>
@@ -46653,32 +46653,32 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K643" t="n">
-        <v>7500</v>
+        <v>4300</v>
       </c>
       <c r="L643" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M643" t="n">
-        <v>7750</v>
+        <v>4400</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q643" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E644" t="n">
         <v>4</v>
@@ -46725,7 +46725,7 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="K644" t="n">
         <v>7500</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E645" t="n">
         <v>4</v>
@@ -46797,7 +46797,7 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K645" t="n">
         <v>5000</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E646" t="n">
         <v>4</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J646" t="n">
         <v>800</v>
       </c>
       <c r="K646" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L646" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M646" t="n">
-        <v>14500</v>
+        <v>10250</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>806</v>
+        <v>569</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E647" t="n">
         <v>4</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K647" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L647" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M647" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>694</v>
+        <v>431</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E648" t="n">
         <v>4</v>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,32 +47013,32 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K648" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L648" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M648" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>725</v>
+        <v>431</v>
       </c>
       <c r="Q648" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E649" t="n">
         <v>4</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,32 +47085,32 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K649" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L649" t="n">
         <v>5500</v>
       </c>
-      <c r="L649" t="n">
-        <v>6000</v>
-      </c>
       <c r="M649" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>575</v>
+        <v>292</v>
       </c>
       <c r="Q649" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E650" t="n">
         <v>4</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K650" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L650" t="n">
         <v>15000</v>
       </c>
-      <c r="L650" t="n">
-        <v>16000</v>
-      </c>
       <c r="M650" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E651" t="n">
         <v>4</v>
@@ -47225,21 +47225,21 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K651" t="n">
         <v>12000</v>
       </c>
       <c r="L651" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M651" t="n">
         <v>12500</v>
       </c>
-      <c r="M651" t="n">
-        <v>12250</v>
-      </c>
       <c r="N651" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E652" t="n">
         <v>4</v>
@@ -47301,32 +47301,32 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K652" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L652" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M652" t="n">
-        <v>14750</v>
+        <v>7250</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>819</v>
+        <v>725</v>
       </c>
       <c r="Q652" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E653" t="n">
         <v>4</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K653" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L653" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M653" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q653" t="n">
         <v>10</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E654" t="n">
         <v>4</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K654" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L654" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M654" t="n">
-        <v>12750</v>
+        <v>15500</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>708</v>
+        <v>861</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E655" t="n">
         <v>4</v>
@@ -47513,24 +47513,24 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K655" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L655" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="M655" t="n">
-        <v>5750</v>
+        <v>12250</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -47539,10 +47539,10 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="Q655" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E656" t="n">
         <v>4</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K656" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L656" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M656" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>431</v>
+        <v>819</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E657" t="n">
         <v>4</v>
@@ -47652,41 +47652,41 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K657" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L657" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M657" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>319</v>
+        <v>775</v>
       </c>
       <c r="Q657" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E658" t="n">
         <v>4</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K658" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L658" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M658" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E659" t="n">
         <v>4</v>
@@ -47805,16 +47805,16 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K659" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L659" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M659" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q659" t="n">
         <v>10</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E660" t="n">
         <v>4</v>
@@ -47868,25 +47868,25 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K660" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L660" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M660" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E661" t="n">
         <v>4</v>
@@ -47940,7 +47940,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -47949,7 +47949,7 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K661" t="n">
         <v>5500</v>
@@ -47962,19 +47962,19 @@
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>575</v>
+        <v>319</v>
       </c>
       <c r="Q661" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E662" t="n">
         <v>4</v>
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K662" t="n">
-        <v>7300</v>
+        <v>13500</v>
       </c>
       <c r="L662" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M662" t="n">
-        <v>7400</v>
+        <v>13750</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>411</v>
+        <v>764</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E663" t="n">
         <v>4</v>
@@ -48096,13 +48096,13 @@
         <v>800</v>
       </c>
       <c r="K663" t="n">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="L663" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M663" t="n">
-        <v>5400</v>
+        <v>6750</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="Q663" t="n">
         <v>10</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E664" t="n">
         <v>4</v>
@@ -48168,13 +48168,13 @@
         <v>400</v>
       </c>
       <c r="K664" t="n">
-        <v>5300</v>
+        <v>11500</v>
       </c>
       <c r="L664" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M664" t="n">
-        <v>5400</v>
+        <v>11750</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>300</v>
+        <v>653</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E665" t="n">
         <v>4</v>
@@ -48228,41 +48228,41 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K665" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="L665" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M665" t="n">
-        <v>6400</v>
+        <v>5750</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>356</v>
+        <v>575</v>
       </c>
       <c r="Q665" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K666" t="n">
-        <v>4300</v>
+        <v>7300</v>
       </c>
       <c r="L666" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M666" t="n">
-        <v>4400</v>
+        <v>7400</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>244</v>
+        <v>411</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E667" t="n">
         <v>4</v>
@@ -48381,20 +48381,20 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K667" t="n">
-        <v>7500</v>
+        <v>5300</v>
       </c>
       <c r="L667" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M667" t="n">
-        <v>7750</v>
+        <v>5400</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -48403,10 +48403,10 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>431</v>
+        <v>540</v>
       </c>
       <c r="Q667" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E668" t="n">
         <v>4</v>
@@ -48449,36 +48449,36 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K668" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L668" t="n">
         <v>5500</v>
       </c>
-      <c r="L668" t="n">
-        <v>6000</v>
-      </c>
       <c r="M668" t="n">
-        <v>5750</v>
+        <v>5400</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>575</v>
+        <v>300</v>
       </c>
       <c r="Q668" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E669" t="n">
         <v>4</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K669" t="n">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="L669" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M669" t="n">
-        <v>5750</v>
+        <v>6400</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E670" t="n">
         <v>4</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="K670" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="L670" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M670" t="n">
-        <v>7250</v>
+        <v>4400</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>403</v>
+        <v>244</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48660,25 +48660,25 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K671" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L671" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M671" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E672" t="n">
         <v>4</v>
@@ -48741,20 +48741,20 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K672" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L672" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M672" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -48763,10 +48763,10 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="Q672" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E673" t="n">
         <v>4</v>
@@ -48809,24 +48809,24 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K673" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="L673" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M673" t="n">
-        <v>4400</v>
+        <v>5750</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -48835,10 +48835,10 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>440</v>
+        <v>319</v>
       </c>
       <c r="Q673" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E674" t="n">
         <v>4</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>440</v>
+        <v>760</v>
       </c>
       <c r="K674" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L674" t="n">
         <v>7500</v>
       </c>
-      <c r="L674" t="n">
-        <v>8000</v>
-      </c>
       <c r="M674" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,58 +48933,346 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E675" t="n">
+        <v>4</v>
+      </c>
+      <c r="F675" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J675" t="n">
+        <v>500</v>
+      </c>
+      <c r="K675" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L675" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M675" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N675" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O675" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P675" t="n">
+        <v>292</v>
+      </c>
+      <c r="Q675" t="n">
+        <v>18</v>
+      </c>
+      <c r="R675" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>8</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D676" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E675" t="n">
-        <v>4</v>
-      </c>
-      <c r="F675" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H675" t="inlineStr">
+      <c r="E676" t="n">
+        <v>4</v>
+      </c>
+      <c r="F676" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I675" t="inlineStr">
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J676" t="n">
+        <v>700</v>
+      </c>
+      <c r="K676" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L676" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M676" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N676" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O676" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P676" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q676" t="n">
+        <v>18</v>
+      </c>
+      <c r="R676" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>8</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D677" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E677" t="n">
+        <v>4</v>
+      </c>
+      <c r="F677" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J677" t="n">
+        <v>800</v>
+      </c>
+      <c r="K677" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L677" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M677" t="n">
+        <v>4400</v>
+      </c>
+      <c r="N677" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O677" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P677" t="n">
+        <v>440</v>
+      </c>
+      <c r="Q677" t="n">
+        <v>10</v>
+      </c>
+      <c r="R677" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>8</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D678" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E678" t="n">
+        <v>4</v>
+      </c>
+      <c r="F678" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J675" t="n">
+      <c r="J678" t="n">
         <v>440</v>
       </c>
-      <c r="K675" t="n">
+      <c r="K678" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L678" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M678" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N678" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O678" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P678" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q678" t="n">
+        <v>18</v>
+      </c>
+      <c r="R678" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>8</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D679" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E679" t="n">
+        <v>4</v>
+      </c>
+      <c r="F679" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J679" t="n">
+        <v>440</v>
+      </c>
+      <c r="K679" t="n">
         <v>3000</v>
       </c>
-      <c r="L675" t="n">
+      <c r="L679" t="n">
         <v>3500</v>
       </c>
-      <c r="M675" t="n">
+      <c r="M679" t="n">
         <v>3250</v>
       </c>
-      <c r="N675" t="inlineStr">
+      <c r="N679" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O675" t="inlineStr">
+      <c r="O679" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P675" t="n">
+      <c r="P679" t="n">
         <v>325</v>
       </c>
-      <c r="Q675" t="n">
+      <c r="Q679" t="n">
         <v>10</v>
       </c>
-      <c r="R675" t="inlineStr">
+      <c r="R679" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R705"/>
+  <dimension ref="A1:R710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K598" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L598" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M598" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>694</v>
+        <v>917</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="K599" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L599" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M599" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>583</v>
+        <v>917</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43560,13 +43560,13 @@
         <v>800</v>
       </c>
       <c r="K600" t="n">
-        <v>5700</v>
+        <v>7500</v>
       </c>
       <c r="L600" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M600" t="n">
-        <v>5850</v>
+        <v>7750</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>585</v>
+        <v>775</v>
       </c>
       <c r="Q600" t="n">
         <v>10</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43629,20 +43629,20 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K601" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L601" t="n">
-        <v>4200</v>
+        <v>13500</v>
       </c>
       <c r="M601" t="n">
-        <v>4100</v>
+        <v>13250</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -43651,10 +43651,10 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>410</v>
+        <v>736</v>
       </c>
       <c r="Q601" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E602" t="n">
         <v>4</v>
@@ -43697,36 +43697,36 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K602" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L602" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="M602" t="n">
-        <v>12250</v>
+        <v>5750</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>681</v>
+        <v>575</v>
       </c>
       <c r="Q602" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E603" t="n">
         <v>4</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J603" t="n">
         <v>600</v>
       </c>
       <c r="K603" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L603" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M603" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>542</v>
+        <v>694</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K604" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L604" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M604" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>431</v>
+        <v>583</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43920,29 +43920,29 @@
         <v>800</v>
       </c>
       <c r="K605" t="n">
-        <v>7500</v>
+        <v>5700</v>
       </c>
       <c r="L605" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M605" t="n">
-        <v>7750</v>
+        <v>5850</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>431</v>
+        <v>585</v>
       </c>
       <c r="Q605" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E606" t="n">
         <v>4</v>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43989,32 +43989,32 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K606" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L606" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="M606" t="n">
-        <v>5250</v>
+        <v>4100</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="Q606" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E607" t="n">
         <v>4</v>
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K607" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L607" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M607" t="n">
-        <v>14250</v>
+        <v>12250</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>792</v>
+        <v>681</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E608" t="n">
         <v>4</v>
@@ -44129,36 +44129,36 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K608" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L608" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M608" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>675</v>
+        <v>542</v>
       </c>
       <c r="Q608" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -44201,36 +44201,36 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K609" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L609" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M609" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>525</v>
+        <v>431</v>
       </c>
       <c r="Q609" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E610" t="n">
         <v>4</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K610" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L610" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M610" t="n">
-        <v>9250</v>
+        <v>7750</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E611" t="n">
         <v>4</v>
@@ -44340,41 +44340,41 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K611" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L611" t="n">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="M611" t="n">
-        <v>4550</v>
+        <v>5250</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>455</v>
+        <v>292</v>
       </c>
       <c r="Q611" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E612" t="n">
         <v>4</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K612" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L612" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="M612" t="n">
-        <v>7250</v>
+        <v>14250</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>403</v>
+        <v>792</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E613" t="n">
         <v>4</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K613" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L613" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M613" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>325</v>
+        <v>675</v>
       </c>
       <c r="Q613" t="n">
         <v>10</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E614" t="n">
         <v>4</v>
@@ -44556,41 +44556,41 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="K614" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L614" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M614" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>431</v>
+        <v>525</v>
       </c>
       <c r="Q614" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E615" t="n">
         <v>4</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K615" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L615" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M615" t="n">
-        <v>5750</v>
+        <v>9250</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E616" t="n">
         <v>4</v>
@@ -44712,13 +44712,13 @@
         <v>800</v>
       </c>
       <c r="K616" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L616" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M616" t="n">
-        <v>5750</v>
+        <v>4550</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>575</v>
+        <v>455</v>
       </c>
       <c r="Q616" t="n">
         <v>10</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E617" t="n">
         <v>4</v>
@@ -44781,20 +44781,20 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K617" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L617" t="n">
-        <v>4200</v>
+        <v>7500</v>
       </c>
       <c r="M617" t="n">
-        <v>4100</v>
+        <v>7250</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -44803,10 +44803,10 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q617" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E618" t="n">
         <v>4</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>900</v>
+        <v>440</v>
       </c>
       <c r="K618" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L618" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="M618" t="n">
-        <v>9250</v>
+        <v>3250</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>925</v>
+        <v>325</v>
       </c>
       <c r="Q618" t="n">
         <v>10</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E619" t="n">
         <v>4</v>
@@ -44916,41 +44916,41 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>520</v>
+        <v>720</v>
       </c>
       <c r="K619" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L619" t="n">
         <v>8000</v>
       </c>
-      <c r="L619" t="n">
-        <v>8500</v>
-      </c>
       <c r="M619" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>825</v>
+        <v>431</v>
       </c>
       <c r="Q619" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E620" t="n">
         <v>4</v>
@@ -44988,25 +44988,25 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K620" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L620" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="M620" t="n">
-        <v>11250</v>
+        <v>5750</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>625</v>
+        <v>319</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E621" t="n">
         <v>4</v>
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K621" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L621" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M621" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q621" t="n">
         <v>10</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E622" t="n">
         <v>4</v>
@@ -45141,32 +45141,32 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K622" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L622" t="n">
-        <v>9500</v>
+        <v>4200</v>
       </c>
       <c r="M622" t="n">
-        <v>9250</v>
+        <v>4100</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>514</v>
+        <v>410</v>
       </c>
       <c r="Q622" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E623" t="n">
         <v>4</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K623" t="n">
-        <v>3300</v>
+        <v>9000</v>
       </c>
       <c r="L623" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="M623" t="n">
-        <v>3400</v>
+        <v>9250</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>340</v>
+        <v>925</v>
       </c>
       <c r="Q623" t="n">
         <v>10</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E624" t="n">
         <v>4</v>
@@ -45281,36 +45281,36 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K624" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L624" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="M624" t="n">
-        <v>11250</v>
+        <v>8250</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q624" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E625" t="n">
         <v>4</v>
@@ -45360,29 +45360,29 @@
         <v>600</v>
       </c>
       <c r="K625" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L625" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="M625" t="n">
-        <v>4750</v>
+        <v>11250</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q625" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E626" t="n">
         <v>4</v>
@@ -45425,36 +45425,36 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K626" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L626" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M626" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="Q626" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -45497,36 +45497,36 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K627" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L627" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M627" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>675</v>
+        <v>514</v>
       </c>
       <c r="Q627" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E628" t="n">
         <v>4</v>
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K628" t="n">
-        <v>5500</v>
+        <v>3300</v>
       </c>
       <c r="L628" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M628" t="n">
-        <v>5750</v>
+        <v>3400</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>575</v>
+        <v>340</v>
       </c>
       <c r="Q628" t="n">
         <v>10</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E629" t="n">
         <v>4</v>
@@ -45648,17 +45648,17 @@
         <v>700</v>
       </c>
       <c r="K629" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L629" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="M629" t="n">
-        <v>5750</v>
+        <v>11250</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,10 +45667,10 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q629" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E630" t="n">
         <v>4</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,32 +45717,32 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K630" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L630" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M630" t="n">
-        <v>7750</v>
+        <v>4750</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="Q630" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E631" t="n">
         <v>4</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K631" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L631" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M631" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E632" t="n">
         <v>4</v>
@@ -45861,20 +45861,20 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K632" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="L632" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M632" t="n">
-        <v>16500</v>
+        <v>6750</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -45883,10 +45883,10 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>917</v>
+        <v>675</v>
       </c>
       <c r="Q632" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E633" t="n">
         <v>4</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="K633" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L633" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M633" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q633" t="n">
         <v>10</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E634" t="n">
         <v>4</v>
@@ -46001,36 +46001,36 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K634" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L634" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M634" t="n">
-        <v>14500</v>
+        <v>5750</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>806</v>
+        <v>575</v>
       </c>
       <c r="Q634" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E635" t="n">
         <v>4</v>
@@ -46068,41 +46068,41 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K635" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L635" t="n">
-        <v>6600</v>
+        <v>8000</v>
       </c>
       <c r="M635" t="n">
-        <v>6550</v>
+        <v>7750</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>655</v>
+        <v>431</v>
       </c>
       <c r="Q635" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E636" t="n">
         <v>4</v>
@@ -46140,25 +46140,25 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K636" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L636" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M636" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E637" t="n">
         <v>4</v>
@@ -46221,20 +46221,20 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K637" t="n">
-        <v>5600</v>
+        <v>16000</v>
       </c>
       <c r="L637" t="n">
-        <v>5700</v>
+        <v>17000</v>
       </c>
       <c r="M637" t="n">
-        <v>5650</v>
+        <v>16500</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -46243,10 +46243,10 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>565</v>
+        <v>917</v>
       </c>
       <c r="Q637" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E638" t="n">
         <v>4</v>
@@ -46289,24 +46289,24 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K638" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L638" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M638" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -46315,10 +46315,10 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>542</v>
+        <v>775</v>
       </c>
       <c r="Q638" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E639" t="n">
         <v>4</v>
@@ -46365,20 +46365,20 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K639" t="n">
-        <v>4300</v>
+        <v>14000</v>
       </c>
       <c r="L639" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="M639" t="n">
-        <v>4400</v>
+        <v>14500</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -46387,10 +46387,10 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>440</v>
+        <v>806</v>
       </c>
       <c r="Q639" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E640" t="n">
         <v>4</v>
@@ -46433,24 +46433,24 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K640" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L640" t="n">
-        <v>14000</v>
+        <v>6600</v>
       </c>
       <c r="M640" t="n">
-        <v>13500</v>
+        <v>6550</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -46459,10 +46459,10 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>750</v>
+        <v>655</v>
       </c>
       <c r="Q640" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E641" t="n">
         <v>4</v>
@@ -46509,20 +46509,20 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K641" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L641" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M641" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -46531,10 +46531,10 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="Q641" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E642" t="n">
         <v>4</v>
@@ -46577,24 +46577,24 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="K642" t="n">
-        <v>11500</v>
+        <v>5600</v>
       </c>
       <c r="L642" t="n">
-        <v>12000</v>
+        <v>5700</v>
       </c>
       <c r="M642" t="n">
-        <v>11750</v>
+        <v>5650</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>653</v>
+        <v>565</v>
       </c>
       <c r="Q642" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E643" t="n">
         <v>4</v>
@@ -46653,20 +46653,20 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K643" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L643" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M643" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -46675,10 +46675,10 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="Q643" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E644" t="n">
         <v>4</v>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K644" t="n">
-        <v>14500</v>
+        <v>4300</v>
       </c>
       <c r="L644" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M644" t="n">
-        <v>14750</v>
+        <v>4400</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -46747,10 +46747,10 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>819</v>
+        <v>440</v>
       </c>
       <c r="Q644" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E645" t="n">
         <v>4</v>
@@ -46797,20 +46797,20 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="K645" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L645" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M645" t="n">
-        <v>7250</v>
+        <v>13500</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -46819,10 +46819,10 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="Q645" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E646" t="n">
         <v>4</v>
@@ -46865,24 +46865,24 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K646" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L646" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="M646" t="n">
-        <v>12250</v>
+        <v>6750</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
@@ -46891,10 +46891,10 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="Q646" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R646" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E647" t="n">
         <v>4</v>
@@ -46941,20 +46941,20 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="K647" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="L647" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M647" t="n">
-        <v>5250</v>
+        <v>11750</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
@@ -46963,10 +46963,10 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>525</v>
+        <v>653</v>
       </c>
       <c r="Q647" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E648" t="n">
         <v>4</v>
@@ -47004,41 +47004,41 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K648" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L648" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M648" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>431</v>
+        <v>525</v>
       </c>
       <c r="Q648" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E649" t="n">
         <v>4</v>
@@ -47076,25 +47076,25 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K649" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="L649" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M649" t="n">
-        <v>5750</v>
+        <v>14750</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>319</v>
+        <v>819</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E650" t="n">
         <v>4</v>
@@ -47153,24 +47153,24 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K650" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L650" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="M650" t="n">
-        <v>20500</v>
+        <v>7250</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -47179,10 +47179,10 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>1139</v>
+        <v>725</v>
       </c>
       <c r="Q650" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E651" t="n">
         <v>4</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K651" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="L651" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="M651" t="n">
-        <v>18750</v>
+        <v>12250</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>1042</v>
+        <v>681</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E652" t="n">
         <v>4</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="K652" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L652" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M652" t="n">
-        <v>8750</v>
+        <v>5250</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="Q652" t="n">
         <v>10</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E653" t="n">
         <v>4</v>
@@ -47364,25 +47364,25 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K653" t="n">
-        <v>16500</v>
+        <v>7500</v>
       </c>
       <c r="L653" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M653" t="n">
-        <v>16750</v>
+        <v>7750</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>931</v>
+        <v>431</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E654" t="n">
         <v>4</v>
@@ -47436,7 +47436,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
@@ -47445,32 +47445,32 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K654" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L654" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M654" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>775</v>
+        <v>319</v>
       </c>
       <c r="Q654" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E655" t="n">
         <v>4</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K655" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="L655" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M655" t="n">
-        <v>9750</v>
+        <v>20500</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>542</v>
+        <v>1139</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E656" t="n">
         <v>4</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K656" t="n">
-        <v>7500</v>
+        <v>18500</v>
       </c>
       <c r="L656" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="M656" t="n">
-        <v>7750</v>
+        <v>18750</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>431</v>
+        <v>1042</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E657" t="n">
         <v>4</v>
@@ -47652,7 +47652,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -47661,32 +47661,32 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="K657" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L657" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M657" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>431</v>
+        <v>875</v>
       </c>
       <c r="Q657" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E658" t="n">
         <v>4</v>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K658" t="n">
-        <v>5500</v>
+        <v>16500</v>
       </c>
       <c r="L658" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M658" t="n">
-        <v>5750</v>
+        <v>16750</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>319</v>
+        <v>931</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E659" t="n">
         <v>4</v>
@@ -47796,16 +47796,16 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K659" t="n">
         <v>7500</v>
@@ -47818,19 +47818,19 @@
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>431</v>
+        <v>775</v>
       </c>
       <c r="Q659" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E660" t="n">
         <v>4</v>
@@ -47868,25 +47868,25 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K660" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L660" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M660" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E661" t="n">
         <v>4</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K661" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L661" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M661" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E662" t="n">
         <v>4</v>
@@ -48012,16 +48012,16 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="K662" t="n">
         <v>7500</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E663" t="n">
         <v>4</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K663" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L663" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M663" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E664" t="n">
         <v>4</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K664" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L664" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M664" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E665" t="n">
         <v>4</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K665" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L665" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M665" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E666" t="n">
         <v>4</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K666" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L666" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M666" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E667" t="n">
         <v>4</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K667" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L667" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M667" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E668" t="n">
         <v>4</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K668" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L668" t="n">
         <v>8000</v>
       </c>
-      <c r="L668" t="n">
-        <v>8500</v>
-      </c>
       <c r="M668" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E669" t="n">
         <v>4</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K669" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L669" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M669" t="n">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>639</v>
+        <v>319</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E670" t="n">
         <v>4</v>
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K670" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L670" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M670" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E671" t="n">
         <v>4</v>
@@ -48672,13 +48672,13 @@
         <v>400</v>
       </c>
       <c r="K671" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L671" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M671" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E672" t="n">
         <v>4</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K672" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L672" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M672" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E673" t="n">
         <v>4</v>
@@ -48804,41 +48804,41 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K673" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L673" t="n">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="M673" t="n">
-        <v>4650</v>
+        <v>8250</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Q673" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E674" t="n">
         <v>4</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K674" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L674" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M674" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>431</v>
+        <v>639</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E675" t="n">
         <v>4</v>
@@ -48948,41 +48948,41 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K675" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L675" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="M675" t="n">
-        <v>3250</v>
+        <v>9500</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="Q675" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E676" t="n">
         <v>4</v>
@@ -49020,41 +49020,41 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K676" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L676" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M676" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q676" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E677" t="n">
         <v>4</v>
@@ -49097,24 +49097,24 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K677" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L677" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M677" t="n">
-        <v>4250</v>
+        <v>9750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -49123,10 +49123,10 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>425</v>
+        <v>542</v>
       </c>
       <c r="Q677" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E678" t="n">
         <v>4</v>
@@ -49176,29 +49176,29 @@
         <v>900</v>
       </c>
       <c r="K678" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="L678" t="n">
-        <v>12000</v>
+        <v>4800</v>
       </c>
       <c r="M678" t="n">
-        <v>11750</v>
+        <v>4650</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>653</v>
+        <v>465</v>
       </c>
       <c r="Q678" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E679" t="n">
         <v>4</v>
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K679" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L679" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E680" t="n">
         <v>4</v>
@@ -49313,36 +49313,36 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K680" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L680" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M680" t="n">
-        <v>7500</v>
+        <v>3250</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="Q680" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E681" t="n">
         <v>4</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,32 +49389,32 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K681" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L681" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M681" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="Q681" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E682" t="n">
         <v>4</v>
@@ -49452,41 +49452,41 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K682" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L682" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M682" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="Q682" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49524,25 +49524,25 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K683" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="L683" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M683" t="n">
-        <v>5250</v>
+        <v>11750</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>292</v>
+        <v>653</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E684" t="n">
         <v>4</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K684" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L684" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M684" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E685" t="n">
         <v>4</v>
@@ -49673,20 +49673,20 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K685" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L685" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M685" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E686" t="n">
         <v>4</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K686" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L686" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M686" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E687" t="n">
         <v>4</v>
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K687" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L687" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M687" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>375</v>
+        <v>472</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E688" t="n">
         <v>4</v>
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K688" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L688" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M688" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E689" t="n">
         <v>4</v>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49968,13 +49968,13 @@
         <v>800</v>
       </c>
       <c r="K689" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L689" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M689" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E690" t="n">
         <v>4</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K690" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L690" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M690" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E691" t="n">
         <v>4</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K691" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L691" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M691" t="n">
-        <v>9250</v>
+        <v>4250</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>514</v>
+        <v>236</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E692" t="n">
         <v>4</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,32 +50181,32 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K692" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="L692" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M692" t="n">
-        <v>4400</v>
+        <v>6750</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="Q692" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E693" t="n">
         <v>4</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,16 +50253,16 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K693" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L693" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M693" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E694" t="n">
         <v>4</v>
@@ -50316,41 +50316,41 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K694" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L694" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M694" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="Q694" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E695" t="n">
         <v>4</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K695" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L695" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M695" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E696" t="n">
         <v>4</v>
@@ -50465,20 +50465,20 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K696" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L696" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="M696" t="n">
-        <v>4750</v>
+        <v>9250</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>264</v>
+        <v>514</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E697" t="n">
         <v>4</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50544,29 +50544,29 @@
         <v>800</v>
       </c>
       <c r="K697" t="n">
-        <v>7500</v>
+        <v>4300</v>
       </c>
       <c r="L697" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M697" t="n">
-        <v>7750</v>
+        <v>4400</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q697" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E698" t="n">
         <v>4</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K698" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L698" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M698" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E699" t="n">
         <v>4</v>
@@ -50681,36 +50681,36 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K699" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L699" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="M699" t="n">
-        <v>9750</v>
+        <v>3250</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>542</v>
+        <v>325</v>
       </c>
       <c r="Q699" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E700" t="n">
         <v>4</v>
@@ -50760,13 +50760,13 @@
         <v>600</v>
       </c>
       <c r="K700" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L700" t="n">
         <v>7000</v>
       </c>
-      <c r="L700" t="n">
-        <v>7500</v>
-      </c>
       <c r="M700" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E701" t="n">
         <v>4</v>
@@ -50829,7 +50829,7 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K701" t="n">
         <v>4500</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E702" t="n">
         <v>4</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K702" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L702" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M702" t="n">
-        <v>13500</v>
+        <v>7750</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E703" t="n">
         <v>4</v>
@@ -50964,41 +50964,41 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K703" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="L703" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M703" t="n">
-        <v>6400</v>
+        <v>5250</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>640</v>
+        <v>292</v>
       </c>
       <c r="Q703" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K704" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L704" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M704" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,58 +51093,418 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E705" t="n">
+        <v>4</v>
+      </c>
+      <c r="F705" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J705" t="n">
+        <v>600</v>
+      </c>
+      <c r="K705" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L705" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M705" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N705" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O705" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P705" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q705" t="n">
+        <v>18</v>
+      </c>
+      <c r="R705" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>8</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D706" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E706" t="n">
+        <v>4</v>
+      </c>
+      <c r="F706" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J706" t="n">
+        <v>520</v>
+      </c>
+      <c r="K706" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L706" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M706" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N706" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O706" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P706" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q706" t="n">
+        <v>18</v>
+      </c>
+      <c r="R706" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>8</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D707" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E705" t="n">
-        <v>4</v>
-      </c>
-      <c r="F705" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H705" t="inlineStr">
+      <c r="E707" t="n">
+        <v>4</v>
+      </c>
+      <c r="F707" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I705" t="inlineStr">
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J707" t="n">
+        <v>720</v>
+      </c>
+      <c r="K707" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L707" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M707" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N707" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O707" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P707" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q707" t="n">
+        <v>18</v>
+      </c>
+      <c r="R707" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>8</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D708" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E708" t="n">
+        <v>4</v>
+      </c>
+      <c r="F708" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J708" t="n">
+        <v>880</v>
+      </c>
+      <c r="K708" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L708" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M708" t="n">
+        <v>6400</v>
+      </c>
+      <c r="N708" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O708" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P708" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q708" t="n">
+        <v>10</v>
+      </c>
+      <c r="R708" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>8</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D709" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E709" t="n">
+        <v>4</v>
+      </c>
+      <c r="F709" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J705" t="n">
+      <c r="J709" t="n">
         <v>560</v>
       </c>
-      <c r="K705" t="n">
+      <c r="K709" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L709" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M709" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N709" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O709" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P709" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q709" t="n">
+        <v>18</v>
+      </c>
+      <c r="R709" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>8</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D710" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E710" t="n">
+        <v>4</v>
+      </c>
+      <c r="F710" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J710" t="n">
+        <v>560</v>
+      </c>
+      <c r="K710" t="n">
         <v>5000</v>
       </c>
-      <c r="L705" t="n">
+      <c r="L710" t="n">
         <v>5500</v>
       </c>
-      <c r="M705" t="n">
+      <c r="M710" t="n">
         <v>5250</v>
       </c>
-      <c r="N705" t="inlineStr">
+      <c r="N710" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O705" t="inlineStr">
+      <c r="O710" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P705" t="n">
+      <c r="P710" t="n">
         <v>525</v>
       </c>
-      <c r="Q705" t="n">
+      <c r="Q710" t="n">
         <v>10</v>
       </c>
-      <c r="R705" t="inlineStr">
+      <c r="R710" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R710"/>
+  <dimension ref="A1:R715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E612" t="n">
         <v>4</v>
@@ -44424,13 +44424,13 @@
         <v>600</v>
       </c>
       <c r="K612" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L612" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="M612" t="n">
-        <v>14250</v>
+        <v>16500</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>792</v>
+        <v>917</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E613" t="n">
         <v>4</v>
@@ -44493,20 +44493,20 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K613" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="L613" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M613" t="n">
-        <v>6750</v>
+        <v>15750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -44515,10 +44515,10 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q613" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E614" t="n">
         <v>4</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K614" t="n">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="L614" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M614" t="n">
-        <v>5250</v>
+        <v>7400</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>525</v>
+        <v>740</v>
       </c>
       <c r="Q614" t="n">
         <v>10</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E615" t="n">
         <v>4</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="K615" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="L615" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="M615" t="n">
-        <v>9250</v>
+        <v>12750</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>514</v>
+        <v>708</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E616" t="n">
         <v>4</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K616" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L616" t="n">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="M616" t="n">
-        <v>4550</v>
+        <v>5250</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="Q616" t="n">
         <v>10</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E617" t="n">
         <v>4</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K617" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L617" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="M617" t="n">
-        <v>7250</v>
+        <v>14250</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>403</v>
+        <v>792</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E618" t="n">
         <v>4</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K618" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L618" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M618" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>325</v>
+        <v>675</v>
       </c>
       <c r="Q618" t="n">
         <v>10</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E619" t="n">
         <v>4</v>
@@ -44916,41 +44916,41 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="K619" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L619" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M619" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>431</v>
+        <v>525</v>
       </c>
       <c r="Q619" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E620" t="n">
         <v>4</v>
@@ -44988,25 +44988,25 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K620" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L620" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M620" t="n">
-        <v>5750</v>
+        <v>9250</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E621" t="n">
         <v>4</v>
@@ -45072,13 +45072,13 @@
         <v>800</v>
       </c>
       <c r="K621" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L621" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M621" t="n">
-        <v>5750</v>
+        <v>4550</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>575</v>
+        <v>455</v>
       </c>
       <c r="Q621" t="n">
         <v>10</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E622" t="n">
         <v>4</v>
@@ -45141,20 +45141,20 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K622" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L622" t="n">
-        <v>4200</v>
+        <v>7500</v>
       </c>
       <c r="M622" t="n">
-        <v>4100</v>
+        <v>7250</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -45163,10 +45163,10 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q622" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E623" t="n">
         <v>4</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>900</v>
+        <v>440</v>
       </c>
       <c r="K623" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L623" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="M623" t="n">
-        <v>9250</v>
+        <v>3250</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>925</v>
+        <v>325</v>
       </c>
       <c r="Q623" t="n">
         <v>10</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E624" t="n">
         <v>4</v>
@@ -45276,41 +45276,41 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>520</v>
+        <v>720</v>
       </c>
       <c r="K624" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L624" t="n">
         <v>8000</v>
       </c>
-      <c r="L624" t="n">
-        <v>8500</v>
-      </c>
       <c r="M624" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>825</v>
+        <v>431</v>
       </c>
       <c r="Q624" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E625" t="n">
         <v>4</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K625" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L625" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="M625" t="n">
-        <v>11250</v>
+        <v>5750</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>625</v>
+        <v>319</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E626" t="n">
         <v>4</v>
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K626" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L626" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M626" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q626" t="n">
         <v>10</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -45501,32 +45501,32 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K627" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L627" t="n">
-        <v>9500</v>
+        <v>4200</v>
       </c>
       <c r="M627" t="n">
-        <v>9250</v>
+        <v>4100</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>514</v>
+        <v>410</v>
       </c>
       <c r="Q627" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E628" t="n">
         <v>4</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K628" t="n">
-        <v>3300</v>
+        <v>9000</v>
       </c>
       <c r="L628" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="M628" t="n">
-        <v>3400</v>
+        <v>9250</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>340</v>
+        <v>925</v>
       </c>
       <c r="Q628" t="n">
         <v>10</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E629" t="n">
         <v>4</v>
@@ -45641,36 +45641,36 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K629" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L629" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="M629" t="n">
-        <v>11250</v>
+        <v>8250</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q629" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E630" t="n">
         <v>4</v>
@@ -45720,29 +45720,29 @@
         <v>600</v>
       </c>
       <c r="K630" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L630" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="M630" t="n">
-        <v>4750</v>
+        <v>11250</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="Q630" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E631" t="n">
         <v>4</v>
@@ -45785,36 +45785,36 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K631" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L631" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M631" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="Q631" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E632" t="n">
         <v>4</v>
@@ -45857,36 +45857,36 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K632" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L632" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M632" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>675</v>
+        <v>514</v>
       </c>
       <c r="Q632" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E633" t="n">
         <v>4</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K633" t="n">
-        <v>5500</v>
+        <v>3300</v>
       </c>
       <c r="L633" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M633" t="n">
-        <v>5750</v>
+        <v>3400</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>575</v>
+        <v>340</v>
       </c>
       <c r="Q633" t="n">
         <v>10</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E634" t="n">
         <v>4</v>
@@ -46008,17 +46008,17 @@
         <v>700</v>
       </c>
       <c r="K634" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L634" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="M634" t="n">
-        <v>5750</v>
+        <v>11250</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -46027,10 +46027,10 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q634" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E635" t="n">
         <v>4</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,32 +46077,32 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K635" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L635" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M635" t="n">
-        <v>7750</v>
+        <v>4750</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="Q635" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E636" t="n">
         <v>4</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K636" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L636" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M636" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E637" t="n">
         <v>4</v>
@@ -46221,20 +46221,20 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K637" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="L637" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M637" t="n">
-        <v>16500</v>
+        <v>6750</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -46243,10 +46243,10 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>917</v>
+        <v>675</v>
       </c>
       <c r="Q637" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E638" t="n">
         <v>4</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="K638" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L638" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M638" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q638" t="n">
         <v>10</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E639" t="n">
         <v>4</v>
@@ -46361,36 +46361,36 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K639" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L639" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M639" t="n">
-        <v>14500</v>
+        <v>5750</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>806</v>
+        <v>575</v>
       </c>
       <c r="Q639" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E640" t="n">
         <v>4</v>
@@ -46428,41 +46428,41 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K640" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L640" t="n">
-        <v>6600</v>
+        <v>8000</v>
       </c>
       <c r="M640" t="n">
-        <v>6550</v>
+        <v>7750</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>655</v>
+        <v>431</v>
       </c>
       <c r="Q640" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E641" t="n">
         <v>4</v>
@@ -46500,25 +46500,25 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K641" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L641" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M641" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E642" t="n">
         <v>4</v>
@@ -46581,20 +46581,20 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K642" t="n">
-        <v>5600</v>
+        <v>16000</v>
       </c>
       <c r="L642" t="n">
-        <v>5700</v>
+        <v>17000</v>
       </c>
       <c r="M642" t="n">
-        <v>5650</v>
+        <v>16500</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>565</v>
+        <v>917</v>
       </c>
       <c r="Q642" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E643" t="n">
         <v>4</v>
@@ -46649,24 +46649,24 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K643" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L643" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M643" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -46675,10 +46675,10 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>542</v>
+        <v>775</v>
       </c>
       <c r="Q643" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E644" t="n">
         <v>4</v>
@@ -46725,20 +46725,20 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K644" t="n">
-        <v>4300</v>
+        <v>14000</v>
       </c>
       <c r="L644" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="M644" t="n">
-        <v>4400</v>
+        <v>14500</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -46747,10 +46747,10 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>440</v>
+        <v>806</v>
       </c>
       <c r="Q644" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E645" t="n">
         <v>4</v>
@@ -46793,24 +46793,24 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K645" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L645" t="n">
-        <v>14000</v>
+        <v>6600</v>
       </c>
       <c r="M645" t="n">
-        <v>13500</v>
+        <v>6550</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -46819,10 +46819,10 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>750</v>
+        <v>655</v>
       </c>
       <c r="Q645" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E646" t="n">
         <v>4</v>
@@ -46869,20 +46869,20 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K646" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L646" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M646" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
@@ -46891,10 +46891,10 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="Q646" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R646" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E647" t="n">
         <v>4</v>
@@ -46937,24 +46937,24 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="K647" t="n">
-        <v>11500</v>
+        <v>5600</v>
       </c>
       <c r="L647" t="n">
-        <v>12000</v>
+        <v>5700</v>
       </c>
       <c r="M647" t="n">
-        <v>11750</v>
+        <v>5650</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
@@ -46963,10 +46963,10 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>653</v>
+        <v>565</v>
       </c>
       <c r="Q647" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E648" t="n">
         <v>4</v>
@@ -47013,20 +47013,20 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K648" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L648" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M648" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -47035,10 +47035,10 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="Q648" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E649" t="n">
         <v>4</v>
@@ -47081,24 +47081,24 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K649" t="n">
-        <v>14500</v>
+        <v>4300</v>
       </c>
       <c r="L649" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M649" t="n">
-        <v>14750</v>
+        <v>4400</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -47107,10 +47107,10 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>819</v>
+        <v>440</v>
       </c>
       <c r="Q649" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E650" t="n">
         <v>4</v>
@@ -47157,20 +47157,20 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="K650" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L650" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M650" t="n">
-        <v>7250</v>
+        <v>13500</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -47179,10 +47179,10 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="Q650" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E651" t="n">
         <v>4</v>
@@ -47225,24 +47225,24 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K651" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L651" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="M651" t="n">
-        <v>12250</v>
+        <v>6750</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -47251,10 +47251,10 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="Q651" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E652" t="n">
         <v>4</v>
@@ -47301,20 +47301,20 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="K652" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="L652" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M652" t="n">
-        <v>5250</v>
+        <v>11750</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -47323,10 +47323,10 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>525</v>
+        <v>653</v>
       </c>
       <c r="Q652" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E653" t="n">
         <v>4</v>
@@ -47364,41 +47364,41 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K653" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L653" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M653" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>431</v>
+        <v>525</v>
       </c>
       <c r="Q653" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E654" t="n">
         <v>4</v>
@@ -47436,25 +47436,25 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K654" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="L654" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M654" t="n">
-        <v>5750</v>
+        <v>14750</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>319</v>
+        <v>819</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E655" t="n">
         <v>4</v>
@@ -47513,24 +47513,24 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K655" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L655" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="M655" t="n">
-        <v>20500</v>
+        <v>7250</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -47539,10 +47539,10 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>1139</v>
+        <v>725</v>
       </c>
       <c r="Q655" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E656" t="n">
         <v>4</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K656" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="L656" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="M656" t="n">
-        <v>18750</v>
+        <v>12250</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>1042</v>
+        <v>681</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E657" t="n">
         <v>4</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="K657" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L657" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M657" t="n">
-        <v>8750</v>
+        <v>5250</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="Q657" t="n">
         <v>10</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E658" t="n">
         <v>4</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K658" t="n">
-        <v>16500</v>
+        <v>7500</v>
       </c>
       <c r="L658" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M658" t="n">
-        <v>16750</v>
+        <v>7750</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>931</v>
+        <v>431</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E659" t="n">
         <v>4</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,32 +47805,32 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K659" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L659" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M659" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>775</v>
+        <v>319</v>
       </c>
       <c r="Q659" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E660" t="n">
         <v>4</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K660" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="L660" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M660" t="n">
-        <v>9750</v>
+        <v>20500</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>542</v>
+        <v>1139</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E661" t="n">
         <v>4</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K661" t="n">
-        <v>7500</v>
+        <v>18500</v>
       </c>
       <c r="L661" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="M661" t="n">
-        <v>7750</v>
+        <v>18750</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>431</v>
+        <v>1042</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E662" t="n">
         <v>4</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,32 +48021,32 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="K662" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L662" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M662" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>431</v>
+        <v>875</v>
       </c>
       <c r="Q662" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E663" t="n">
         <v>4</v>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K663" t="n">
-        <v>5500</v>
+        <v>16500</v>
       </c>
       <c r="L663" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M663" t="n">
-        <v>5750</v>
+        <v>16750</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>319</v>
+        <v>931</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E664" t="n">
         <v>4</v>
@@ -48156,16 +48156,16 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K664" t="n">
         <v>7500</v>
@@ -48178,19 +48178,19 @@
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>431</v>
+        <v>775</v>
       </c>
       <c r="Q664" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E665" t="n">
         <v>4</v>
@@ -48228,25 +48228,25 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K665" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L665" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M665" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E666" t="n">
         <v>4</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K666" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L666" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M666" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E667" t="n">
         <v>4</v>
@@ -48372,16 +48372,16 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="K667" t="n">
         <v>7500</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E668" t="n">
         <v>4</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K668" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L668" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M668" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E669" t="n">
         <v>4</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K669" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L669" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M669" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E670" t="n">
         <v>4</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K670" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L670" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M670" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E671" t="n">
         <v>4</v>
@@ -48660,25 +48660,25 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K671" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L671" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M671" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E672" t="n">
         <v>4</v>
@@ -48732,25 +48732,25 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K672" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L672" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M672" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E673" t="n">
         <v>4</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K673" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L673" t="n">
         <v>8000</v>
       </c>
-      <c r="L673" t="n">
-        <v>8500</v>
-      </c>
       <c r="M673" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E674" t="n">
         <v>4</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K674" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L674" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M674" t="n">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>639</v>
+        <v>319</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E675" t="n">
         <v>4</v>
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K675" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L675" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M675" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E676" t="n">
         <v>4</v>
@@ -49032,13 +49032,13 @@
         <v>400</v>
       </c>
       <c r="K676" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L676" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M676" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E677" t="n">
         <v>4</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K677" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L677" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M677" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E678" t="n">
         <v>4</v>
@@ -49164,41 +49164,41 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K678" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L678" t="n">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="M678" t="n">
-        <v>4650</v>
+        <v>8250</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Q678" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E679" t="n">
         <v>4</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K679" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L679" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M679" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>431</v>
+        <v>639</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E680" t="n">
         <v>4</v>
@@ -49308,41 +49308,41 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K680" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L680" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="M680" t="n">
-        <v>3250</v>
+        <v>9500</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="Q680" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E681" t="n">
         <v>4</v>
@@ -49380,41 +49380,41 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K681" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L681" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M681" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q681" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E682" t="n">
         <v>4</v>
@@ -49457,24 +49457,24 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K682" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L682" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M682" t="n">
-        <v>4250</v>
+        <v>9750</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
@@ -49483,10 +49483,10 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>425</v>
+        <v>542</v>
       </c>
       <c r="Q682" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E683" t="n">
         <v>4</v>
@@ -49536,29 +49536,29 @@
         <v>900</v>
       </c>
       <c r="K683" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="L683" t="n">
-        <v>12000</v>
+        <v>4800</v>
       </c>
       <c r="M683" t="n">
-        <v>11750</v>
+        <v>4650</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>653</v>
+        <v>465</v>
       </c>
       <c r="Q683" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E684" t="n">
         <v>4</v>
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K684" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L684" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M684" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E685" t="n">
         <v>4</v>
@@ -49673,36 +49673,36 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K685" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L685" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M685" t="n">
-        <v>7500</v>
+        <v>3250</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="Q685" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E686" t="n">
         <v>4</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,32 +49749,32 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K686" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L686" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M686" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="Q686" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E687" t="n">
         <v>4</v>
@@ -49812,41 +49812,41 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K687" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L687" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M687" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="Q687" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49884,25 +49884,25 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K688" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="L688" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M688" t="n">
-        <v>5250</v>
+        <v>11750</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>292</v>
+        <v>653</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E689" t="n">
         <v>4</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K689" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L689" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M689" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E690" t="n">
         <v>4</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K690" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L690" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M690" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E691" t="n">
         <v>4</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K691" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L691" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M691" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E692" t="n">
         <v>4</v>
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K692" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L692" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M692" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>375</v>
+        <v>472</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E693" t="n">
         <v>4</v>
@@ -50253,16 +50253,16 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K693" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L693" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M693" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E694" t="n">
         <v>4</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50328,13 +50328,13 @@
         <v>800</v>
       </c>
       <c r="K694" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L694" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M694" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E695" t="n">
         <v>4</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K695" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L695" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M695" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E696" t="n">
         <v>4</v>
@@ -50465,20 +50465,20 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K696" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L696" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M696" t="n">
-        <v>9250</v>
+        <v>4250</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>514</v>
+        <v>236</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E697" t="n">
         <v>4</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,32 +50541,32 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K697" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="L697" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M697" t="n">
-        <v>4400</v>
+        <v>6750</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="Q697" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E698" t="n">
         <v>4</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K698" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L698" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M698" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E699" t="n">
         <v>4</v>
@@ -50676,41 +50676,41 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K699" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L699" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M699" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="Q699" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E700" t="n">
         <v>4</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K700" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L700" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M700" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E701" t="n">
         <v>4</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K701" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L701" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="M701" t="n">
-        <v>4750</v>
+        <v>9250</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>264</v>
+        <v>514</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E702" t="n">
         <v>4</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50904,29 +50904,29 @@
         <v>800</v>
       </c>
       <c r="K702" t="n">
-        <v>7500</v>
+        <v>4300</v>
       </c>
       <c r="L702" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M702" t="n">
-        <v>7750</v>
+        <v>4400</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q702" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E703" t="n">
         <v>4</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K703" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L703" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M703" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51041,36 +51041,36 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K704" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L704" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="M704" t="n">
-        <v>9750</v>
+        <v>3250</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>542</v>
+        <v>325</v>
       </c>
       <c r="Q704" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E705" t="n">
         <v>4</v>
@@ -51120,13 +51120,13 @@
         <v>600</v>
       </c>
       <c r="K705" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L705" t="n">
         <v>7000</v>
       </c>
-      <c r="L705" t="n">
-        <v>7500</v>
-      </c>
       <c r="M705" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E706" t="n">
         <v>4</v>
@@ -51189,7 +51189,7 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K706" t="n">
         <v>4500</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E707" t="n">
         <v>4</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K707" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L707" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M707" t="n">
-        <v>13500</v>
+        <v>7750</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E708" t="n">
         <v>4</v>
@@ -51324,41 +51324,41 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K708" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="L708" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M708" t="n">
-        <v>6400</v>
+        <v>5250</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>640</v>
+        <v>292</v>
       </c>
       <c r="Q708" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E709" t="n">
         <v>4</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K709" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L709" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M709" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,58 +51453,418 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E710" t="n">
+        <v>4</v>
+      </c>
+      <c r="F710" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J710" t="n">
+        <v>600</v>
+      </c>
+      <c r="K710" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L710" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M710" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N710" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P710" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q710" t="n">
+        <v>18</v>
+      </c>
+      <c r="R710" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>8</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D711" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E711" t="n">
+        <v>4</v>
+      </c>
+      <c r="F711" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J711" t="n">
+        <v>520</v>
+      </c>
+      <c r="K711" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L711" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M711" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N711" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O711" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P711" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q711" t="n">
+        <v>18</v>
+      </c>
+      <c r="R711" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>8</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D712" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E710" t="n">
-        <v>4</v>
-      </c>
-      <c r="F710" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H710" t="inlineStr">
+      <c r="E712" t="n">
+        <v>4</v>
+      </c>
+      <c r="F712" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I710" t="inlineStr">
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J712" t="n">
+        <v>720</v>
+      </c>
+      <c r="K712" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L712" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M712" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N712" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O712" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P712" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q712" t="n">
+        <v>18</v>
+      </c>
+      <c r="R712" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>8</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D713" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E713" t="n">
+        <v>4</v>
+      </c>
+      <c r="F713" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J713" t="n">
+        <v>880</v>
+      </c>
+      <c r="K713" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L713" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M713" t="n">
+        <v>6400</v>
+      </c>
+      <c r="N713" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O713" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P713" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>10</v>
+      </c>
+      <c r="R713" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>8</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D714" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E714" t="n">
+        <v>4</v>
+      </c>
+      <c r="F714" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J710" t="n">
+      <c r="J714" t="n">
         <v>560</v>
       </c>
-      <c r="K710" t="n">
+      <c r="K714" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L714" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M714" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N714" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O714" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P714" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>18</v>
+      </c>
+      <c r="R714" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>8</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D715" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E715" t="n">
+        <v>4</v>
+      </c>
+      <c r="F715" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J715" t="n">
+        <v>560</v>
+      </c>
+      <c r="K715" t="n">
         <v>5000</v>
       </c>
-      <c r="L710" t="n">
+      <c r="L715" t="n">
         <v>5500</v>
       </c>
-      <c r="M710" t="n">
+      <c r="M715" t="n">
         <v>5250</v>
       </c>
-      <c r="N710" t="inlineStr">
+      <c r="N715" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O710" t="inlineStr">
+      <c r="O715" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P710" t="n">
+      <c r="P715" t="n">
         <v>525</v>
       </c>
-      <c r="Q710" t="n">
+      <c r="Q715" t="n">
         <v>10</v>
       </c>
-      <c r="R710" t="inlineStr">
+      <c r="R715" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R715"/>
+  <dimension ref="A1:R719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41388,25 +41388,25 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K570" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L570" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M570" t="n">
-        <v>7750</v>
+        <v>17500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>431</v>
+        <v>972</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41460,25 +41460,25 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K571" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="L571" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M571" t="n">
-        <v>5750</v>
+        <v>14750</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>319</v>
+        <v>819</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K572" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="L572" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="M572" t="n">
-        <v>10750</v>
+        <v>14250</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>597</v>
+        <v>792</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E573" t="n">
         <v>4</v>
@@ -41609,24 +41609,24 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K573" t="n">
-        <v>5800</v>
+        <v>12000</v>
       </c>
       <c r="L573" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="M573" t="n">
-        <v>5900</v>
+        <v>12250</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -41635,10 +41635,10 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>590</v>
+        <v>681</v>
       </c>
       <c r="Q573" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R573" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E574" t="n">
         <v>4</v>
@@ -41676,16 +41676,16 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K574" t="n">
         <v>7500</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E575" t="n">
         <v>4</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41757,32 +41757,32 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K575" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L575" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M575" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>425</v>
+        <v>319</v>
       </c>
       <c r="Q575" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R575" t="inlineStr">
         <is>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K576" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L576" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M576" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E577" t="n">
         <v>4</v>
@@ -41901,32 +41901,32 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K577" t="n">
-        <v>7500</v>
+        <v>5800</v>
       </c>
       <c r="L577" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M577" t="n">
-        <v>7750</v>
+        <v>5900</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>431</v>
+        <v>590</v>
       </c>
       <c r="Q577" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E578" t="n">
         <v>4</v>
@@ -41976,13 +41976,13 @@
         <v>400</v>
       </c>
       <c r="K578" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L578" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M578" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E579" t="n">
         <v>4</v>
@@ -42036,41 +42036,41 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K579" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L579" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M579" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="Q579" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R579" t="inlineStr">
         <is>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E580" t="n">
         <v>4</v>
@@ -42108,25 +42108,25 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K580" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L580" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M580" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E581" t="n">
         <v>4</v>
@@ -42180,7 +42180,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K581" t="n">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="L581" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M581" t="n">
-        <v>6900</v>
+        <v>7750</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E582" t="n">
         <v>4</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42261,16 +42261,16 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K582" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="L582" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M582" t="n">
-        <v>4900</v>
+        <v>5750</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E583" t="n">
         <v>4</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
         <v>800</v>
       </c>
       <c r="K583" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L583" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M583" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>639</v>
+        <v>375</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E584" t="n">
         <v>4</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K584" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L584" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M584" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>528</v>
+        <v>264</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E585" t="n">
         <v>4</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K585" t="n">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="L585" t="n">
         <v>7000</v>
       </c>
       <c r="M585" t="n">
-        <v>6750</v>
+        <v>6900</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E586" t="n">
         <v>4</v>
@@ -42540,25 +42540,25 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K586" t="n">
-        <v>14000</v>
+        <v>4800</v>
       </c>
       <c r="L586" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M586" t="n">
-        <v>14500</v>
+        <v>4900</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>806</v>
+        <v>272</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E587" t="n">
         <v>4</v>
@@ -42612,41 +42612,41 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J587" t="n">
         <v>800</v>
       </c>
       <c r="K587" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L587" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M587" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="Q587" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R587" t="inlineStr">
         <is>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E588" t="n">
         <v>4</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K588" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L588" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M588" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>694</v>
+        <v>528</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E589" t="n">
         <v>4</v>
@@ -42756,7 +42756,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -42765,32 +42765,32 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K589" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L589" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M589" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="Q589" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E590" t="n">
         <v>4</v>
@@ -42828,7 +42828,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -42837,16 +42837,16 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K590" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L590" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M590" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>528</v>
+        <v>806</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E591" t="n">
         <v>4</v>
@@ -42900,16 +42900,16 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K591" t="n">
         <v>6500</v>
@@ -42922,19 +42922,19 @@
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>375</v>
+        <v>675</v>
       </c>
       <c r="Q591" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E592" t="n">
         <v>4</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K592" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L592" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M592" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E593" t="n">
         <v>4</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>900</v>
+        <v>540</v>
       </c>
       <c r="K593" t="n">
         <v>5000</v>
       </c>
       <c r="L593" t="n">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="M593" t="n">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="Q593" t="n">
         <v>10</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E594" t="n">
         <v>4</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K594" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L594" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M594" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -43197,32 +43197,32 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K595" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L595" t="n">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="M595" t="n">
-        <v>4100</v>
+        <v>6750</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="Q595" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K596" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L596" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M596" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E597" t="n">
         <v>4</v>
@@ -43337,36 +43337,36 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K597" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L597" t="n">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="M597" t="n">
-        <v>7250</v>
+        <v>5100</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>403</v>
+        <v>510</v>
       </c>
       <c r="Q597" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K598" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L598" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M598" t="n">
-        <v>16500</v>
+        <v>7500</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>917</v>
+        <v>417</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43481,24 +43481,24 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>740</v>
+        <v>520</v>
       </c>
       <c r="K599" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="L599" t="n">
-        <v>17000</v>
+        <v>4200</v>
       </c>
       <c r="M599" t="n">
-        <v>16500</v>
+        <v>4100</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -43507,10 +43507,10 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>917</v>
+        <v>410</v>
       </c>
       <c r="Q599" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43557,32 +43557,32 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K600" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L600" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M600" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>775</v>
+        <v>528</v>
       </c>
       <c r="Q600" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43629,16 +43629,16 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K601" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L601" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="M601" t="n">
-        <v>13250</v>
+        <v>7250</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>736</v>
+        <v>403</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43697,36 +43697,36 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="K602" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="L602" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M602" t="n">
-        <v>5750</v>
+        <v>16500</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>575</v>
+        <v>917</v>
       </c>
       <c r="Q602" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E603" t="n">
         <v>4</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="K603" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L603" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M603" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>694</v>
+        <v>917</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43845,20 +43845,20 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K604" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L604" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M604" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -43867,10 +43867,10 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>583</v>
+        <v>775</v>
       </c>
       <c r="Q604" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -43913,24 +43913,24 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K605" t="n">
-        <v>5700</v>
+        <v>13000</v>
       </c>
       <c r="L605" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="M605" t="n">
-        <v>5850</v>
+        <v>13250</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
@@ -43939,10 +43939,10 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>585</v>
+        <v>736</v>
       </c>
       <c r="Q605" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E606" t="n">
         <v>4</v>
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K606" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L606" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M606" t="n">
-        <v>4100</v>
+        <v>5750</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>410</v>
+        <v>575</v>
       </c>
       <c r="Q606" t="n">
         <v>10</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E607" t="n">
         <v>4</v>
@@ -44057,21 +44057,21 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K607" t="n">
         <v>12000</v>
       </c>
       <c r="L607" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M607" t="n">
         <v>12500</v>
       </c>
-      <c r="M607" t="n">
-        <v>12250</v>
-      </c>
       <c r="N607" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E608" t="n">
         <v>4</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K608" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L608" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M608" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -44201,36 +44201,36 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K609" t="n">
-        <v>7500</v>
+        <v>5700</v>
       </c>
       <c r="L609" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M609" t="n">
-        <v>7750</v>
+        <v>5850</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>431</v>
+        <v>585</v>
       </c>
       <c r="Q609" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E610" t="n">
         <v>4</v>
@@ -44268,41 +44268,41 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K610" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L610" t="n">
-        <v>8000</v>
+        <v>4200</v>
       </c>
       <c r="M610" t="n">
-        <v>7750</v>
+        <v>4100</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q610" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
@@ -44340,25 +44340,25 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K611" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L611" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="M611" t="n">
-        <v>5250</v>
+        <v>12250</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>292</v>
+        <v>681</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E612" t="n">
         <v>4</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J612" t="n">
         <v>600</v>
       </c>
       <c r="K612" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="L612" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M612" t="n">
-        <v>16500</v>
+        <v>9750</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>917</v>
+        <v>542</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E613" t="n">
         <v>4</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K613" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="L613" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M613" t="n">
-        <v>15750</v>
+        <v>7750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>875</v>
+        <v>431</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E614" t="n">
         <v>4</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44568,29 +44568,29 @@
         <v>800</v>
       </c>
       <c r="K614" t="n">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="L614" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M614" t="n">
-        <v>7400</v>
+        <v>7750</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>740</v>
+        <v>431</v>
       </c>
       <c r="Q614" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E615" t="n">
         <v>4</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K615" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="L615" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M615" t="n">
-        <v>12750</v>
+        <v>5250</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>708</v>
+        <v>292</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44705,36 +44705,36 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K616" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L616" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="M616" t="n">
-        <v>5250</v>
+        <v>16500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>525</v>
+        <v>917</v>
       </c>
       <c r="Q616" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E617" t="n">
         <v>4</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K617" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="L617" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="M617" t="n">
-        <v>14250</v>
+        <v>15750</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>792</v>
+        <v>875</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E618" t="n">
         <v>4</v>
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K618" t="n">
-        <v>6500</v>
+        <v>7300</v>
       </c>
       <c r="L618" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M618" t="n">
-        <v>6750</v>
+        <v>7400</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>675</v>
+        <v>740</v>
       </c>
       <c r="Q618" t="n">
         <v>10</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E619" t="n">
         <v>4</v>
@@ -44925,20 +44925,20 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K619" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="L619" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M619" t="n">
-        <v>5250</v>
+        <v>12750</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,10 +44947,10 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>525</v>
+        <v>708</v>
       </c>
       <c r="Q619" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E620" t="n">
         <v>4</v>
@@ -44993,24 +44993,24 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K620" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L620" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M620" t="n">
-        <v>9250</v>
+        <v>5250</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -45019,10 +45019,10 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="Q620" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E621" t="n">
         <v>4</v>
@@ -45069,20 +45069,20 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K621" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L621" t="n">
-        <v>4600</v>
+        <v>14500</v>
       </c>
       <c r="M621" t="n">
-        <v>4550</v>
+        <v>14250</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -45091,10 +45091,10 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>455</v>
+        <v>792</v>
       </c>
       <c r="Q621" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E622" t="n">
         <v>4</v>
@@ -45137,24 +45137,24 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K622" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L622" t="n">
         <v>7000</v>
       </c>
-      <c r="L622" t="n">
-        <v>7500</v>
-      </c>
       <c r="M622" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -45163,10 +45163,10 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>403</v>
+        <v>675</v>
       </c>
       <c r="Q622" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E623" t="n">
         <v>4</v>
@@ -45213,16 +45213,16 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="K623" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L623" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M623" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="Q623" t="n">
         <v>10</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E624" t="n">
         <v>4</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="K624" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L624" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M624" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E625" t="n">
         <v>4</v>
@@ -45348,41 +45348,41 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K625" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L625" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="M625" t="n">
-        <v>5750</v>
+        <v>4550</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>319</v>
+        <v>455</v>
       </c>
       <c r="Q625" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E626" t="n">
         <v>4</v>
@@ -45425,24 +45425,24 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K626" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L626" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M626" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -45451,10 +45451,10 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>575</v>
+        <v>403</v>
       </c>
       <c r="Q626" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K627" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L627" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="M627" t="n">
-        <v>4100</v>
+        <v>3250</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>410</v>
+        <v>325</v>
       </c>
       <c r="Q627" t="n">
         <v>10</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E628" t="n">
         <v>4</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,32 +45573,32 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="K628" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L628" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M628" t="n">
-        <v>9250</v>
+        <v>7750</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>925</v>
+        <v>431</v>
       </c>
       <c r="Q628" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E629" t="n">
         <v>4</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,32 +45645,32 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="K629" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L629" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M629" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>825</v>
+        <v>319</v>
       </c>
       <c r="Q629" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E630" t="n">
         <v>4</v>
@@ -45717,32 +45717,32 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K630" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L630" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="M630" t="n">
-        <v>11250</v>
+        <v>5750</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q630" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E631" t="n">
         <v>4</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K631" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L631" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="M631" t="n">
-        <v>4750</v>
+        <v>4100</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="Q631" t="n">
         <v>10</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E632" t="n">
         <v>4</v>
@@ -45857,11 +45857,11 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>340</v>
+        <v>900</v>
       </c>
       <c r="K632" t="n">
         <v>9000</v>
@@ -45874,19 +45874,19 @@
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>514</v>
+        <v>925</v>
       </c>
       <c r="Q632" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E633" t="n">
         <v>4</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K633" t="n">
-        <v>3300</v>
+        <v>8000</v>
       </c>
       <c r="L633" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M633" t="n">
-        <v>3400</v>
+        <v>8250</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>340</v>
+        <v>825</v>
       </c>
       <c r="Q633" t="n">
         <v>10</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E634" t="n">
         <v>4</v>
@@ -46005,7 +46005,7 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K634" t="n">
         <v>11000</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E635" t="n">
         <v>4</v>
@@ -46077,7 +46077,7 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K635" t="n">
         <v>4500</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E636" t="n">
         <v>4</v>
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K636" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L636" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M636" t="n">
-        <v>8750</v>
+        <v>9250</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E637" t="n">
         <v>4</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K637" t="n">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="L637" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M637" t="n">
-        <v>6750</v>
+        <v>3400</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>675</v>
+        <v>340</v>
       </c>
       <c r="Q637" t="n">
         <v>10</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E638" t="n">
         <v>4</v>
@@ -46289,36 +46289,36 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="K638" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L638" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="M638" t="n">
-        <v>5750</v>
+        <v>11250</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q638" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E639" t="n">
         <v>4</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K639" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L639" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M639" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q639" t="n">
         <v>10</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E640" t="n">
         <v>4</v>
@@ -46428,25 +46428,25 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K640" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L640" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M640" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E641" t="n">
         <v>4</v>
@@ -46500,41 +46500,41 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K641" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L641" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M641" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>319</v>
+        <v>675</v>
       </c>
       <c r="Q641" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E642" t="n">
         <v>4</v>
@@ -46577,24 +46577,24 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K642" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L642" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M642" t="n">
-        <v>16500</v>
+        <v>5750</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>917</v>
+        <v>575</v>
       </c>
       <c r="Q642" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E643" t="n">
         <v>4</v>
@@ -46653,16 +46653,16 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K643" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L643" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M643" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q643" t="n">
         <v>10</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E644" t="n">
         <v>4</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K644" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L644" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M644" t="n">
-        <v>14500</v>
+        <v>7750</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>806</v>
+        <v>431</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E645" t="n">
         <v>4</v>
@@ -46788,7 +46788,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -46797,32 +46797,32 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K645" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L645" t="n">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="M645" t="n">
-        <v>6550</v>
+        <v>5750</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>655</v>
+        <v>319</v>
       </c>
       <c r="Q645" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E646" t="n">
         <v>4</v>
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K646" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="L646" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M646" t="n">
-        <v>11750</v>
+        <v>16500</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>653</v>
+        <v>917</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E647" t="n">
         <v>4</v>
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>900</v>
+        <v>760</v>
       </c>
       <c r="K647" t="n">
-        <v>5600</v>
+        <v>7500</v>
       </c>
       <c r="L647" t="n">
-        <v>5700</v>
+        <v>8000</v>
       </c>
       <c r="M647" t="n">
-        <v>5650</v>
+        <v>7750</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>565</v>
+        <v>775</v>
       </c>
       <c r="Q647" t="n">
         <v>10</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E648" t="n">
         <v>4</v>
@@ -47016,13 +47016,13 @@
         <v>400</v>
       </c>
       <c r="K648" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L648" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M648" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>542</v>
+        <v>806</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E649" t="n">
         <v>4</v>
@@ -47085,16 +47085,16 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K649" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="L649" t="n">
-        <v>4500</v>
+        <v>6600</v>
       </c>
       <c r="M649" t="n">
-        <v>4400</v>
+        <v>6550</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>440</v>
+        <v>655</v>
       </c>
       <c r="Q649" t="n">
         <v>10</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E650" t="n">
         <v>4</v>
@@ -47157,16 +47157,16 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K650" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L650" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M650" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>750</v>
+        <v>653</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E651" t="n">
         <v>4</v>
@@ -47232,13 +47232,13 @@
         <v>900</v>
       </c>
       <c r="K651" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="L651" t="n">
-        <v>7000</v>
+        <v>5700</v>
       </c>
       <c r="M651" t="n">
-        <v>6750</v>
+        <v>5650</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>675</v>
+        <v>565</v>
       </c>
       <c r="Q651" t="n">
         <v>10</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E652" t="n">
         <v>4</v>
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K652" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L652" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M652" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E653" t="n">
         <v>4</v>
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K653" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L653" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M653" t="n">
-        <v>5250</v>
+        <v>4400</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>525</v>
+        <v>440</v>
       </c>
       <c r="Q653" t="n">
         <v>10</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E654" t="n">
         <v>4</v>
@@ -47445,16 +47445,16 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="K654" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L654" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M654" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>819</v>
+        <v>750</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E655" t="n">
         <v>4</v>
@@ -47517,16 +47517,16 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K655" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L655" t="n">
         <v>7000</v>
       </c>
-      <c r="L655" t="n">
-        <v>7500</v>
-      </c>
       <c r="M655" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q655" t="n">
         <v>10</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E656" t="n">
         <v>4</v>
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K656" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L656" t="n">
         <v>12000</v>
       </c>
-      <c r="L656" t="n">
-        <v>12500</v>
-      </c>
       <c r="M656" t="n">
-        <v>12250</v>
+        <v>11750</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E657" t="n">
         <v>4</v>
@@ -47661,7 +47661,7 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="K657" t="n">
         <v>5000</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E658" t="n">
         <v>4</v>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K658" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L658" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M658" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>431</v>
+        <v>819</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E659" t="n">
         <v>4</v>
@@ -47796,41 +47796,41 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K659" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L659" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M659" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>319</v>
+        <v>725</v>
       </c>
       <c r="Q659" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E660" t="n">
         <v>4</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K660" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L660" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="M660" t="n">
-        <v>20500</v>
+        <v>12250</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>1139</v>
+        <v>681</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E661" t="n">
         <v>4</v>
@@ -47945,24 +47945,24 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K661" t="n">
-        <v>18500</v>
+        <v>5000</v>
       </c>
       <c r="L661" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="M661" t="n">
-        <v>18750</v>
+        <v>5250</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -47971,10 +47971,10 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>1042</v>
+        <v>525</v>
       </c>
       <c r="Q661" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E662" t="n">
         <v>4</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48024,29 +48024,29 @@
         <v>800</v>
       </c>
       <c r="K662" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L662" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M662" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>875</v>
+        <v>431</v>
       </c>
       <c r="Q662" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E663" t="n">
         <v>4</v>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K663" t="n">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="L663" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M663" t="n">
-        <v>16750</v>
+        <v>5750</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>931</v>
+        <v>319</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48161,24 +48161,24 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K664" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="L664" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M664" t="n">
-        <v>7750</v>
+        <v>20500</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -48187,10 +48187,10 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>775</v>
+        <v>1139</v>
       </c>
       <c r="Q664" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E665" t="n">
         <v>4</v>
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K665" t="n">
-        <v>9500</v>
+        <v>18500</v>
       </c>
       <c r="L665" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M665" t="n">
-        <v>9750</v>
+        <v>18750</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>542</v>
+        <v>1042</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E666" t="n">
         <v>4</v>
@@ -48305,36 +48305,36 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K666" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L666" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M666" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>431</v>
+        <v>875</v>
       </c>
       <c r="Q666" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E667" t="n">
         <v>4</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>880</v>
+        <v>500</v>
       </c>
       <c r="K667" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="L667" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M667" t="n">
-        <v>7750</v>
+        <v>16750</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>431</v>
+        <v>931</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E668" t="n">
         <v>4</v>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,32 +48453,32 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K668" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L668" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M668" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>319</v>
+        <v>775</v>
       </c>
       <c r="Q668" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E669" t="n">
         <v>4</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K669" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L669" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M669" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E670" t="n">
         <v>4</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48600,13 +48600,13 @@
         <v>500</v>
       </c>
       <c r="K670" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L670" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M670" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E671" t="n">
         <v>4</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,16 +48669,16 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>720</v>
+        <v>880</v>
       </c>
       <c r="K671" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L671" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M671" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E672" t="n">
         <v>4</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K672" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L672" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M672" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E673" t="n">
         <v>4</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E674" t="n">
         <v>4</v>
@@ -48885,7 +48885,7 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K674" t="n">
         <v>5500</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E675" t="n">
         <v>4</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48960,13 +48960,13 @@
         <v>720</v>
       </c>
       <c r="K675" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L675" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M675" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E676" t="n">
         <v>4</v>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K676" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L676" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M676" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E677" t="n">
         <v>4</v>
@@ -49104,13 +49104,13 @@
         <v>800</v>
       </c>
       <c r="K677" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L677" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M677" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E678" t="n">
         <v>4</v>
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K678" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L678" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M678" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>458</v>
+        <v>319</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E679" t="n">
         <v>4</v>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>520</v>
+        <v>720</v>
       </c>
       <c r="K679" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L679" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E680" t="n">
         <v>4</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K680" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L680" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M680" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>528</v>
+        <v>292</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E681" t="n">
         <v>4</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K681" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L681" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M681" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E682" t="n">
         <v>4</v>
@@ -49452,25 +49452,25 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K682" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L682" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M682" t="n">
-        <v>9750</v>
+        <v>8250</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E683" t="n">
         <v>4</v>
@@ -49533,32 +49533,32 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>900</v>
+        <v>520</v>
       </c>
       <c r="K683" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L683" t="n">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="M683" t="n">
-        <v>4650</v>
+        <v>11500</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>465</v>
+        <v>639</v>
       </c>
       <c r="Q683" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E684" t="n">
         <v>4</v>
@@ -49596,25 +49596,25 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K684" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L684" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M684" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E685" t="n">
         <v>4</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,32 +49677,32 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K685" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L685" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M685" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="Q685" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E686" t="n">
         <v>4</v>
@@ -49749,20 +49749,20 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K686" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L686" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M686" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
@@ -49771,10 +49771,10 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="Q686" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E687" t="n">
         <v>4</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K687" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L687" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M687" t="n">
-        <v>4250</v>
+        <v>4650</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="Q687" t="n">
         <v>10</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E688" t="n">
         <v>4</v>
@@ -49889,20 +49889,20 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K688" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L688" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M688" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E689" t="n">
         <v>4</v>
@@ -49965,32 +49965,32 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K689" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L689" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="M689" t="n">
-        <v>9500</v>
+        <v>3250</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>528</v>
+        <v>325</v>
       </c>
       <c r="Q689" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E690" t="n">
         <v>4</v>
@@ -50033,36 +50033,36 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K690" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L690" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M690" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="Q690" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E691" t="n">
         <v>4</v>
@@ -50100,41 +50100,41 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K691" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L691" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M691" t="n">
-        <v>7750</v>
+        <v>4250</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q691" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K692" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L692" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M692" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50256,13 +50256,13 @@
         <v>600</v>
       </c>
       <c r="K693" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L693" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M693" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E694" t="n">
         <v>4</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K694" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L694" t="n">
         <v>8000</v>
       </c>
-      <c r="L694" t="n">
-        <v>8500</v>
-      </c>
       <c r="M694" t="n">
-        <v>8250</v>
+        <v>7500</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E695" t="n">
         <v>4</v>
@@ -50388,25 +50388,25 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K695" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L695" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M695" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E696" t="n">
         <v>4</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K696" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L696" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M696" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>236</v>
+        <v>472</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E697" t="n">
         <v>4</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K697" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L697" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M697" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K698" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L698" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M698" t="n">
-        <v>4750</v>
+        <v>8250</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>264</v>
+        <v>458</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E699" t="n">
         <v>4</v>
@@ -50676,25 +50676,25 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K699" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L699" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M699" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E700" t="n">
         <v>4</v>
@@ -50748,25 +50748,25 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K700" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L700" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M700" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E701" t="n">
         <v>4</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K701" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L701" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M701" t="n">
-        <v>9250</v>
+        <v>6750</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E702" t="n">
         <v>4</v>
@@ -50892,41 +50892,41 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K702" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L702" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M702" t="n">
-        <v>4400</v>
+        <v>4750</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="Q702" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E703" t="n">
         <v>4</v>
@@ -50964,16 +50964,16 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K703" t="n">
         <v>7000</v>
@@ -50991,7 +50991,7 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P703" t="n">
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,32 +51045,32 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K704" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L704" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M704" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="Q704" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E705" t="n">
         <v>4</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K705" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L705" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M705" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E706" t="n">
         <v>4</v>
@@ -51185,36 +51185,36 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K706" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L706" t="n">
         <v>4500</v>
       </c>
-      <c r="L706" t="n">
-        <v>5000</v>
-      </c>
       <c r="M706" t="n">
-        <v>4750</v>
+        <v>4400</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>264</v>
+        <v>440</v>
       </c>
       <c r="Q706" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E707" t="n">
         <v>4</v>
@@ -51252,25 +51252,25 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K707" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L707" t="n">
         <v>7500</v>
       </c>
-      <c r="L707" t="n">
-        <v>8000</v>
-      </c>
       <c r="M707" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E708" t="n">
         <v>4</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51336,29 +51336,29 @@
         <v>600</v>
       </c>
       <c r="K708" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L708" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M708" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="Q708" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E709" t="n">
         <v>4</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K709" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L709" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M709" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E710" t="n">
         <v>4</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K710" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L710" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M710" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E711" t="n">
         <v>4</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K711" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L711" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M711" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E712" t="n">
         <v>4</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K712" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L712" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M712" t="n">
-        <v>13500</v>
+        <v>5250</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>750</v>
+        <v>292</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E713" t="n">
         <v>4</v>
@@ -51693,32 +51693,32 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="K713" t="n">
-        <v>6300</v>
+        <v>9500</v>
       </c>
       <c r="L713" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M713" t="n">
-        <v>6400</v>
+        <v>9750</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>640</v>
+        <v>542</v>
       </c>
       <c r="Q713" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R713" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E714" t="n">
         <v>4</v>
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K714" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L714" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M714" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>639</v>
+        <v>403</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,58 +51813,346 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E715" t="n">
+        <v>4</v>
+      </c>
+      <c r="F715" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J715" t="n">
+        <v>520</v>
+      </c>
+      <c r="K715" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L715" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M715" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N715" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O715" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P715" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q715" t="n">
+        <v>18</v>
+      </c>
+      <c r="R715" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>8</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D716" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E715" t="n">
-        <v>4</v>
-      </c>
-      <c r="F715" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H715" t="inlineStr">
+      <c r="E716" t="n">
+        <v>4</v>
+      </c>
+      <c r="F716" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I715" t="inlineStr">
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J716" t="n">
+        <v>720</v>
+      </c>
+      <c r="K716" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L716" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M716" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N716" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O716" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P716" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q716" t="n">
+        <v>18</v>
+      </c>
+      <c r="R716" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>8</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D717" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E717" t="n">
+        <v>4</v>
+      </c>
+      <c r="F717" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J717" t="n">
+        <v>880</v>
+      </c>
+      <c r="K717" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L717" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M717" t="n">
+        <v>6400</v>
+      </c>
+      <c r="N717" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O717" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P717" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>10</v>
+      </c>
+      <c r="R717" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>8</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D718" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E718" t="n">
+        <v>4</v>
+      </c>
+      <c r="F718" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J715" t="n">
+      <c r="J718" t="n">
         <v>560</v>
       </c>
-      <c r="K715" t="n">
+      <c r="K718" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L718" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M718" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N718" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O718" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P718" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>18</v>
+      </c>
+      <c r="R718" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>8</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D719" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E719" t="n">
+        <v>4</v>
+      </c>
+      <c r="F719" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J719" t="n">
+        <v>560</v>
+      </c>
+      <c r="K719" t="n">
         <v>5000</v>
       </c>
-      <c r="L715" t="n">
+      <c r="L719" t="n">
         <v>5500</v>
       </c>
-      <c r="M715" t="n">
+      <c r="M719" t="n">
         <v>5250</v>
       </c>
-      <c r="N715" t="inlineStr">
+      <c r="N719" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O715" t="inlineStr">
+      <c r="O719" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P715" t="n">
+      <c r="P719" t="n">
         <v>525</v>
       </c>
-      <c r="Q715" t="n">
+      <c r="Q719" t="n">
         <v>10</v>
       </c>
-      <c r="R715" t="inlineStr">
+      <c r="R719" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R719"/>
+  <dimension ref="A1:R722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E686" t="n">
         <v>4</v>
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K686" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L686" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M686" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E687" t="n">
         <v>4</v>
@@ -49821,20 +49821,20 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K687" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L687" t="n">
-        <v>4800</v>
+        <v>14500</v>
       </c>
       <c r="M687" t="n">
-        <v>4650</v>
+        <v>14250</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -49843,10 +49843,10 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>465</v>
+        <v>792</v>
       </c>
       <c r="Q687" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E688" t="n">
         <v>4</v>
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K688" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L688" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="M688" t="n">
-        <v>7750</v>
+        <v>12250</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>431</v>
+        <v>681</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49961,24 +49961,24 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K689" t="n">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="L689" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="M689" t="n">
-        <v>3250</v>
+        <v>9750</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
@@ -49987,10 +49987,10 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>325</v>
+        <v>542</v>
       </c>
       <c r="Q689" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E690" t="n">
         <v>4</v>
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K690" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L690" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M690" t="n">
-        <v>5750</v>
+        <v>4650</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>575</v>
+        <v>465</v>
       </c>
       <c r="Q690" t="n">
         <v>10</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E691" t="n">
         <v>4</v>
@@ -50109,20 +50109,20 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K691" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L691" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M691" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -50131,10 +50131,10 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q691" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E692" t="n">
         <v>4</v>
@@ -50177,36 +50177,36 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K692" t="n">
-        <v>11500</v>
+        <v>3000</v>
       </c>
       <c r="L692" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M692" t="n">
-        <v>11750</v>
+        <v>3250</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>653</v>
+        <v>325</v>
       </c>
       <c r="Q692" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E693" t="n">
         <v>4</v>
@@ -50249,36 +50249,36 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K693" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L693" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M693" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="Q693" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E694" t="n">
         <v>4</v>
@@ -50321,36 +50321,36 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K694" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L694" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M694" t="n">
-        <v>7500</v>
+        <v>4250</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q694" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K695" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L695" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M695" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K696" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L696" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M696" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50532,25 +50532,25 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K697" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L697" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M697" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E698" t="n">
         <v>4</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K698" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L698" t="n">
         <v>8000</v>
       </c>
-      <c r="L698" t="n">
-        <v>8500</v>
-      </c>
       <c r="M698" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E699" t="n">
         <v>4</v>
@@ -50676,25 +50676,25 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K699" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L699" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M699" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>347</v>
+        <v>472</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E700" t="n">
         <v>4</v>
@@ -50748,25 +50748,25 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K700" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L700" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M700" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K701" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L701" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M701" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K702" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L702" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M702" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E703" t="n">
         <v>4</v>
@@ -50964,25 +50964,25 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K703" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L703" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M703" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>403</v>
+        <v>236</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>520</v>
+        <v>900</v>
       </c>
       <c r="K704" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L704" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M704" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E705" t="n">
         <v>4</v>
@@ -51108,25 +51108,25 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="K705" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L705" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M705" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E706" t="n">
         <v>4</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51192,29 +51192,29 @@
         <v>800</v>
       </c>
       <c r="K706" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="L706" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M706" t="n">
-        <v>4400</v>
+        <v>7250</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="Q706" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E707" t="n">
         <v>4</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K707" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L707" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M707" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51329,24 +51329,24 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K708" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L708" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="M708" t="n">
-        <v>3250</v>
+        <v>9250</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
@@ -51355,10 +51355,10 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>325</v>
+        <v>514</v>
       </c>
       <c r="Q708" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E709" t="n">
         <v>4</v>
@@ -51401,36 +51401,36 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K709" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="L709" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M709" t="n">
-        <v>6750</v>
+        <v>4400</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="Q709" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E710" t="n">
         <v>4</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K710" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L710" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M710" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E711" t="n">
         <v>4</v>
@@ -51540,41 +51540,41 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K711" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L711" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M711" t="n">
-        <v>7750</v>
+        <v>3250</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="Q711" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -51624,13 +51624,13 @@
         <v>600</v>
       </c>
       <c r="K712" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L712" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M712" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E713" t="n">
         <v>4</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K713" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L713" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M713" t="n">
-        <v>9750</v>
+        <v>4750</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E714" t="n">
         <v>4</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K714" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L714" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M714" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E715" t="n">
         <v>4</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K715" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L715" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M715" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E716" t="n">
         <v>4</v>
@@ -51909,16 +51909,16 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K716" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L716" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M716" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>750</v>
+        <v>542</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E717" t="n">
         <v>4</v>
@@ -51977,36 +51977,36 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K717" t="n">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="L717" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M717" t="n">
-        <v>6400</v>
+        <v>7250</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>640</v>
+        <v>403</v>
       </c>
       <c r="Q717" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E718" t="n">
         <v>4</v>
@@ -52049,20 +52049,20 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K718" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L718" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M718" t="n">
-        <v>11500</v>
+        <v>4750</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>639</v>
+        <v>264</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52121,38 +52121,254 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J719" t="n">
+        <v>720</v>
+      </c>
+      <c r="K719" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L719" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M719" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N719" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O719" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P719" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>18</v>
+      </c>
+      <c r="R719" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>8</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D720" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E720" t="n">
+        <v>4</v>
+      </c>
+      <c r="F720" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J720" t="n">
+        <v>880</v>
+      </c>
+      <c r="K720" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L720" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M720" t="n">
+        <v>6400</v>
+      </c>
+      <c r="N720" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O720" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P720" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>10</v>
+      </c>
+      <c r="R720" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>8</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D721" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E721" t="n">
+        <v>4</v>
+      </c>
+      <c r="F721" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J719" t="n">
+      <c r="J721" t="n">
         <v>560</v>
       </c>
-      <c r="K719" t="n">
+      <c r="K721" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L721" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M721" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N721" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O721" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P721" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>18</v>
+      </c>
+      <c r="R721" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>8</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D722" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E722" t="n">
+        <v>4</v>
+      </c>
+      <c r="F722" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J722" t="n">
+        <v>560</v>
+      </c>
+      <c r="K722" t="n">
         <v>5000</v>
       </c>
-      <c r="L719" t="n">
+      <c r="L722" t="n">
         <v>5500</v>
       </c>
-      <c r="M719" t="n">
+      <c r="M722" t="n">
         <v>5250</v>
       </c>
-      <c r="N719" t="inlineStr">
+      <c r="N722" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O719" t="inlineStr">
+      <c r="O722" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P719" t="n">
+      <c r="P722" t="n">
         <v>525</v>
       </c>
-      <c r="Q719" t="n">
+      <c r="Q722" t="n">
         <v>10</v>
       </c>
-      <c r="R719" t="inlineStr">
+      <c r="R722" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R728"/>
+  <dimension ref="A1:R734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E591" t="n">
         <v>4</v>
@@ -42900,7 +42900,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K591" t="n">
-        <v>6800</v>
+        <v>14000</v>
       </c>
       <c r="L591" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M591" t="n">
-        <v>6900</v>
+        <v>14500</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>383</v>
+        <v>806</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E592" t="n">
         <v>4</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K592" t="n">
-        <v>4800</v>
+        <v>12500</v>
       </c>
       <c r="L592" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M592" t="n">
-        <v>4900</v>
+        <v>12750</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>272</v>
+        <v>708</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E593" t="n">
         <v>4</v>
@@ -43044,41 +43044,41 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
         <v>800</v>
       </c>
       <c r="K593" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L593" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M593" t="n">
-        <v>11500</v>
+        <v>6250</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="Q593" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E594" t="n">
         <v>4</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K594" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L594" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M594" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>528</v>
+        <v>694</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -43200,13 +43200,13 @@
         <v>400</v>
       </c>
       <c r="K595" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L595" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M595" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44469</v>
+        <v>44511</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -43265,24 +43265,24 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K596" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L596" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M596" t="n">
-        <v>14500</v>
+        <v>4750</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -43291,10 +43291,10 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>806</v>
+        <v>475</v>
       </c>
       <c r="Q596" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E597" t="n">
         <v>4</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43344,29 +43344,29 @@
         <v>800</v>
       </c>
       <c r="K597" t="n">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="L597" t="n">
         <v>7000</v>
       </c>
       <c r="M597" t="n">
-        <v>6750</v>
+        <v>6900</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>675</v>
+        <v>383</v>
       </c>
       <c r="Q597" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K598" t="n">
-        <v>12000</v>
+        <v>4800</v>
       </c>
       <c r="L598" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M598" t="n">
-        <v>12500</v>
+        <v>4900</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>694</v>
+        <v>272</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43476,41 +43476,41 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K599" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L599" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M599" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>550</v>
+        <v>639</v>
       </c>
       <c r="Q599" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43629,7 +43629,7 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K601" t="n">
         <v>6500</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E602" t="n">
         <v>4</v>
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K602" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L602" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M602" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E603" t="n">
         <v>4</v>
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K603" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L603" t="n">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="M603" t="n">
-        <v>5100</v>
+        <v>6750</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>510</v>
+        <v>675</v>
       </c>
       <c r="Q603" t="n">
         <v>10</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43845,16 +43845,16 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K604" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L604" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M604" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>417</v>
+        <v>694</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="K605" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L605" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M605" t="n">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>410</v>
+        <v>550</v>
       </c>
       <c r="Q605" t="n">
         <v>10</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E606" t="n">
         <v>4</v>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E607" t="n">
         <v>4</v>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K607" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L607" t="n">
         <v>7000</v>
       </c>
-      <c r="L607" t="n">
-        <v>7500</v>
-      </c>
       <c r="M607" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E608" t="n">
         <v>4</v>
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K608" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L608" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M608" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>917</v>
+        <v>583</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -44205,20 +44205,20 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>740</v>
+        <v>900</v>
       </c>
       <c r="K609" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L609" t="n">
-        <v>17000</v>
+        <v>5200</v>
       </c>
       <c r="M609" t="n">
-        <v>16500</v>
+        <v>5100</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -44227,10 +44227,10 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>917</v>
+        <v>510</v>
       </c>
       <c r="Q609" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E610" t="n">
         <v>4</v>
@@ -44273,24 +44273,24 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K610" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L610" t="n">
         <v>8000</v>
       </c>
       <c r="M610" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
@@ -44299,10 +44299,10 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>775</v>
+        <v>417</v>
       </c>
       <c r="Q610" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E611" t="n">
         <v>4</v>
@@ -44352,17 +44352,17 @@
         <v>520</v>
       </c>
       <c r="K611" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L611" t="n">
-        <v>13500</v>
+        <v>4200</v>
       </c>
       <c r="M611" t="n">
-        <v>13250</v>
+        <v>4100</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -44371,10 +44371,10 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>736</v>
+        <v>410</v>
       </c>
       <c r="Q611" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E612" t="n">
         <v>4</v>
@@ -44417,36 +44417,36 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K612" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L612" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M612" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="Q612" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44384</v>
+        <v>44186</v>
       </c>
       <c r="E613" t="n">
         <v>4</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K613" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L613" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M613" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>694</v>
+        <v>403</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E614" t="n">
         <v>4</v>
@@ -44565,16 +44565,16 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K614" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L614" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M614" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>583</v>
+        <v>917</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E615" t="n">
         <v>4</v>
@@ -44637,20 +44637,20 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="K615" t="n">
-        <v>5700</v>
+        <v>16000</v>
       </c>
       <c r="L615" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M615" t="n">
-        <v>5850</v>
+        <v>16500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
@@ -44659,10 +44659,10 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>585</v>
+        <v>917</v>
       </c>
       <c r="Q615" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E616" t="n">
         <v>4</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K616" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L616" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="M616" t="n">
-        <v>4100</v>
+        <v>7750</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>410</v>
+        <v>775</v>
       </c>
       <c r="Q616" t="n">
         <v>10</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E617" t="n">
         <v>4</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K617" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L617" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="M617" t="n">
-        <v>12250</v>
+        <v>13250</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E618" t="n">
         <v>4</v>
@@ -44853,32 +44853,32 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K618" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L618" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M618" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="Q618" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E619" t="n">
         <v>4</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K619" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L619" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M619" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E620" t="n">
         <v>4</v>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K620" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M620" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>431</v>
+        <v>583</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E621" t="n">
         <v>4</v>
@@ -45060,41 +45060,41 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K621" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="L621" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M621" t="n">
-        <v>5250</v>
+        <v>5850</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>292</v>
+        <v>585</v>
       </c>
       <c r="Q621" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E622" t="n">
         <v>4</v>
@@ -45137,36 +45137,36 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K622" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="L622" t="n">
-        <v>17000</v>
+        <v>4200</v>
       </c>
       <c r="M622" t="n">
-        <v>16500</v>
+        <v>4100</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>917</v>
+        <v>410</v>
       </c>
       <c r="Q622" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E623" t="n">
         <v>4</v>
@@ -45216,13 +45216,13 @@
         <v>800</v>
       </c>
       <c r="K623" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="L623" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="M623" t="n">
-        <v>15750</v>
+        <v>12250</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>875</v>
+        <v>681</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E624" t="n">
         <v>4</v>
@@ -45281,36 +45281,36 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K624" t="n">
-        <v>7300</v>
+        <v>9500</v>
       </c>
       <c r="L624" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M624" t="n">
-        <v>7400</v>
+        <v>9750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>740</v>
+        <v>542</v>
       </c>
       <c r="Q624" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E625" t="n">
         <v>4</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K625" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L625" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M625" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E626" t="n">
         <v>4</v>
@@ -45420,41 +45420,41 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K626" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L626" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M626" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>525</v>
+        <v>431</v>
       </c>
       <c r="Q626" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -45492,25 +45492,25 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J627" t="n">
         <v>600</v>
       </c>
       <c r="K627" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L627" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="M627" t="n">
-        <v>14250</v>
+        <v>5250</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>792</v>
+        <v>292</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E628" t="n">
         <v>4</v>
@@ -45573,32 +45573,32 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K628" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="L628" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M628" t="n">
-        <v>6750</v>
+        <v>16500</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>675</v>
+        <v>917</v>
       </c>
       <c r="Q628" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E629" t="n">
         <v>4</v>
@@ -45641,24 +45641,24 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K629" t="n">
-        <v>5000</v>
+        <v>15500</v>
       </c>
       <c r="L629" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M629" t="n">
-        <v>5250</v>
+        <v>15750</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,10 +45667,10 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>525</v>
+        <v>875</v>
       </c>
       <c r="Q629" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E630" t="n">
         <v>4</v>
@@ -45717,20 +45717,20 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K630" t="n">
-        <v>9000</v>
+        <v>7300</v>
       </c>
       <c r="L630" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M630" t="n">
-        <v>9250</v>
+        <v>7400</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
@@ -45739,10 +45739,10 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>514</v>
+        <v>740</v>
       </c>
       <c r="Q630" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E631" t="n">
         <v>4</v>
@@ -45785,24 +45785,24 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K631" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="L631" t="n">
-        <v>4600</v>
+        <v>13000</v>
       </c>
       <c r="M631" t="n">
-        <v>4550</v>
+        <v>12750</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -45811,10 +45811,10 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>455</v>
+        <v>708</v>
       </c>
       <c r="Q631" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E632" t="n">
         <v>4</v>
@@ -45861,20 +45861,20 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K632" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L632" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M632" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -45883,10 +45883,10 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="Q632" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E633" t="n">
         <v>4</v>
@@ -45929,24 +45929,24 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K633" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="L633" t="n">
-        <v>3500</v>
+        <v>14500</v>
       </c>
       <c r="M633" t="n">
-        <v>3250</v>
+        <v>14250</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,10 +45955,10 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>325</v>
+        <v>792</v>
       </c>
       <c r="Q633" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E634" t="n">
         <v>4</v>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,32 +46005,32 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="K634" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L634" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M634" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>431</v>
+        <v>675</v>
       </c>
       <c r="Q634" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E635" t="n">
         <v>4</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,32 +46077,32 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K635" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L635" t="n">
         <v>5500</v>
       </c>
-      <c r="L635" t="n">
-        <v>6000</v>
-      </c>
       <c r="M635" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="Q635" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E636" t="n">
         <v>4</v>
@@ -46149,20 +46149,20 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K636" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L636" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M636" t="n">
-        <v>5750</v>
+        <v>9250</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -46171,10 +46171,10 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="Q636" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E637" t="n">
         <v>4</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K637" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L637" t="n">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="M637" t="n">
-        <v>4100</v>
+        <v>4550</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="Q637" t="n">
         <v>10</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E638" t="n">
         <v>4</v>
@@ -46289,24 +46289,24 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>900</v>
+        <v>440</v>
       </c>
       <c r="K638" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L638" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M638" t="n">
-        <v>9250</v>
+        <v>7250</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -46315,10 +46315,10 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>925</v>
+        <v>403</v>
       </c>
       <c r="Q638" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E639" t="n">
         <v>4</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K639" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L639" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M639" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q639" t="n">
         <v>10</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E640" t="n">
         <v>4</v>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,16 +46437,16 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K640" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L640" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M640" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E641" t="n">
         <v>4</v>
@@ -46500,41 +46500,41 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="K641" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L641" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M641" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>475</v>
+        <v>319</v>
       </c>
       <c r="Q641" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E642" t="n">
         <v>4</v>
@@ -46577,36 +46577,36 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K642" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L642" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M642" t="n">
-        <v>9250</v>
+        <v>5750</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="Q642" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E643" t="n">
         <v>4</v>
@@ -46656,13 +46656,13 @@
         <v>400</v>
       </c>
       <c r="K643" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="L643" t="n">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="M643" t="n">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="Q643" t="n">
         <v>10</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E644" t="n">
         <v>4</v>
@@ -46725,32 +46725,32 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K644" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L644" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="M644" t="n">
-        <v>11250</v>
+        <v>9250</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="Q644" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E645" t="n">
         <v>4</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K645" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L645" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M645" t="n">
-        <v>4750</v>
+        <v>8250</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>475</v>
+        <v>825</v>
       </c>
       <c r="Q645" t="n">
         <v>10</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E646" t="n">
         <v>4</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J646" t="n">
         <v>600</v>
       </c>
       <c r="K646" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L646" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M646" t="n">
-        <v>8750</v>
+        <v>11250</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>486</v>
+        <v>625</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E647" t="n">
         <v>4</v>
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K647" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L647" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M647" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q647" t="n">
         <v>10</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E648" t="n">
         <v>4</v>
@@ -47013,32 +47013,32 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>560</v>
+        <v>340</v>
       </c>
       <c r="K648" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L648" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M648" t="n">
-        <v>5750</v>
+        <v>9250</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="Q648" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E649" t="n">
         <v>4</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K649" t="n">
-        <v>5500</v>
+        <v>3300</v>
       </c>
       <c r="L649" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M649" t="n">
-        <v>5750</v>
+        <v>3400</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>575</v>
+        <v>340</v>
       </c>
       <c r="Q649" t="n">
         <v>10</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E650" t="n">
         <v>4</v>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -47157,16 +47157,16 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K650" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L650" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="M650" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>431</v>
+        <v>625</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E651" t="n">
         <v>4</v>
@@ -47220,41 +47220,41 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K651" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L651" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M651" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>319</v>
+        <v>475</v>
       </c>
       <c r="Q651" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E652" t="n">
         <v>4</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J652" t="n">
         <v>600</v>
       </c>
       <c r="K652" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="L652" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M652" t="n">
-        <v>16500</v>
+        <v>8750</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>917</v>
+        <v>486</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E653" t="n">
         <v>4</v>
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="K653" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L653" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M653" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q653" t="n">
         <v>10</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E654" t="n">
         <v>4</v>
@@ -47445,20 +47445,20 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K654" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L654" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M654" t="n">
-        <v>14500</v>
+        <v>5750</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -47467,10 +47467,10 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>806</v>
+        <v>575</v>
       </c>
       <c r="Q654" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E655" t="n">
         <v>4</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K655" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L655" t="n">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="M655" t="n">
-        <v>6550</v>
+        <v>5750</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>655</v>
+        <v>575</v>
       </c>
       <c r="Q655" t="n">
         <v>10</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E656" t="n">
         <v>4</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K656" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L656" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M656" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E657" t="n">
         <v>4</v>
@@ -47652,41 +47652,41 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>900</v>
+        <v>540</v>
       </c>
       <c r="K657" t="n">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="L657" t="n">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="M657" t="n">
-        <v>5650</v>
+        <v>5750</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>565</v>
+        <v>319</v>
       </c>
       <c r="Q657" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E658" t="n">
         <v>4</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K658" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="L658" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M658" t="n">
-        <v>9750</v>
+        <v>16500</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>542</v>
+        <v>917</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E659" t="n">
         <v>4</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="K659" t="n">
-        <v>4300</v>
+        <v>7500</v>
       </c>
       <c r="L659" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M659" t="n">
-        <v>4400</v>
+        <v>7750</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>440</v>
+        <v>775</v>
       </c>
       <c r="Q659" t="n">
         <v>10</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E660" t="n">
         <v>4</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K660" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L660" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M660" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E661" t="n">
         <v>4</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K661" t="n">
         <v>6500</v>
       </c>
       <c r="L661" t="n">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="M661" t="n">
-        <v>6750</v>
+        <v>6550</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="Q661" t="n">
         <v>10</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E662" t="n">
         <v>4</v>
@@ -48017,11 +48017,11 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="K662" t="n">
         <v>11500</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E663" t="n">
         <v>4</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="K663" t="n">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="L663" t="n">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="M663" t="n">
-        <v>5250</v>
+        <v>5650</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="Q663" t="n">
         <v>10</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E664" t="n">
         <v>4</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K664" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="L664" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M664" t="n">
-        <v>14750</v>
+        <v>9750</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>819</v>
+        <v>542</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E665" t="n">
         <v>4</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K665" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="L665" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M665" t="n">
-        <v>7250</v>
+        <v>4400</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>725</v>
+        <v>440</v>
       </c>
       <c r="Q665" t="n">
         <v>10</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E666" t="n">
         <v>4</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K666" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L666" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M666" t="n">
-        <v>12250</v>
+        <v>13500</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>681</v>
+        <v>750</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E667" t="n">
         <v>4</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="K667" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L667" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M667" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q667" t="n">
         <v>10</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E668" t="n">
         <v>4</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K668" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L668" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M668" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E669" t="n">
         <v>4</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,32 +48525,32 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="K669" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L669" t="n">
         <v>5500</v>
       </c>
-      <c r="L669" t="n">
-        <v>6000</v>
-      </c>
       <c r="M669" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="Q669" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E670" t="n">
         <v>4</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K670" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="L670" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M670" t="n">
-        <v>20500</v>
+        <v>14750</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>1139</v>
+        <v>819</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E671" t="n">
         <v>4</v>
@@ -48669,20 +48669,20 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K671" t="n">
-        <v>18500</v>
+        <v>7000</v>
       </c>
       <c r="L671" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="M671" t="n">
-        <v>18750</v>
+        <v>7250</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -48691,10 +48691,10 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>1042</v>
+        <v>725</v>
       </c>
       <c r="Q671" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E672" t="n">
         <v>4</v>
@@ -48737,24 +48737,24 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K672" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L672" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="M672" t="n">
-        <v>8750</v>
+        <v>12250</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -48763,10 +48763,10 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>875</v>
+        <v>681</v>
       </c>
       <c r="Q672" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E673" t="n">
         <v>4</v>
@@ -48813,20 +48813,20 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K673" t="n">
-        <v>16500</v>
+        <v>5000</v>
       </c>
       <c r="L673" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="M673" t="n">
-        <v>16750</v>
+        <v>5250</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -48835,10 +48835,10 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>931</v>
+        <v>525</v>
       </c>
       <c r="Q673" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E674" t="n">
         <v>4</v>
@@ -48876,16 +48876,16 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K674" t="n">
         <v>7500</v>
@@ -48898,19 +48898,19 @@
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>775</v>
+        <v>431</v>
       </c>
       <c r="Q674" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E675" t="n">
         <v>4</v>
@@ -48948,25 +48948,25 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K675" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L675" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M675" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E676" t="n">
         <v>4</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K676" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="L676" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M676" t="n">
-        <v>7750</v>
+        <v>20500</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>431</v>
+        <v>1139</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E677" t="n">
         <v>4</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K677" t="n">
-        <v>7500</v>
+        <v>18500</v>
       </c>
       <c r="L677" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="M677" t="n">
-        <v>7750</v>
+        <v>18750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>431</v>
+        <v>1042</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E678" t="n">
         <v>4</v>
@@ -49164,41 +49164,41 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K678" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L678" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M678" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>319</v>
+        <v>875</v>
       </c>
       <c r="Q678" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E679" t="n">
         <v>4</v>
@@ -49236,25 +49236,25 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K679" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="L679" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M679" t="n">
-        <v>7750</v>
+        <v>16750</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>431</v>
+        <v>931</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E680" t="n">
         <v>4</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,32 +49317,32 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K680" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L680" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M680" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>319</v>
+        <v>775</v>
       </c>
       <c r="Q680" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E681" t="n">
         <v>4</v>
@@ -49389,7 +49389,7 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="K681" t="n">
         <v>9500</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E682" t="n">
         <v>4</v>
@@ -49461,7 +49461,7 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K682" t="n">
         <v>7500</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E683" t="n">
         <v>4</v>
@@ -49533,7 +49533,7 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="K683" t="n">
         <v>7500</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E684" t="n">
         <v>4</v>
@@ -49605,7 +49605,7 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K684" t="n">
         <v>5500</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E685" t="n">
         <v>4</v>
@@ -49677,7 +49677,7 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K685" t="n">
         <v>7500</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E686" t="n">
         <v>4</v>
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K686" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L686" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M686" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E687" t="n">
         <v>4</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K687" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L687" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M687" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E688" t="n">
         <v>4</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K688" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L688" t="n">
         <v>8000</v>
       </c>
-      <c r="L688" t="n">
-        <v>8500</v>
-      </c>
       <c r="M688" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E689" t="n">
         <v>4</v>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K689" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L689" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M689" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E690" t="n">
         <v>4</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K690" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L690" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M690" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E691" t="n">
         <v>4</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K691" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L691" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M691" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44509</v>
+        <v>44270</v>
       </c>
       <c r="E692" t="n">
         <v>4</v>
@@ -50172,25 +50172,25 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K692" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="L692" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M692" t="n">
-        <v>14750</v>
+        <v>5250</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>819</v>
+        <v>292</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E693" t="n">
         <v>4</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,16 +50253,16 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K693" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="L693" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="M693" t="n">
-        <v>14250</v>
+        <v>10750</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>792</v>
+        <v>597</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E694" t="n">
         <v>4</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K694" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L694" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="M694" t="n">
-        <v>12250</v>
+        <v>8250</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>681</v>
+        <v>458</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E695" t="n">
         <v>4</v>
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K695" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L695" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M695" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>542</v>
+        <v>639</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E696" t="n">
         <v>4</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,32 +50469,32 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K696" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L696" t="n">
-        <v>4800</v>
+        <v>10000</v>
       </c>
       <c r="M696" t="n">
-        <v>4650</v>
+        <v>9500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="Q696" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E697" t="n">
         <v>4</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,16 +50541,16 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K697" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L697" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M697" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E698" t="n">
         <v>4</v>
@@ -50609,36 +50609,36 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K698" t="n">
-        <v>3000</v>
+        <v>14500</v>
       </c>
       <c r="L698" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="M698" t="n">
-        <v>3250</v>
+        <v>14750</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>325</v>
+        <v>819</v>
       </c>
       <c r="Q698" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E699" t="n">
         <v>4</v>
@@ -50685,20 +50685,20 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K699" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L699" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="M699" t="n">
-        <v>5750</v>
+        <v>14250</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -50707,10 +50707,10 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>575</v>
+        <v>792</v>
       </c>
       <c r="Q699" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E700" t="n">
         <v>4</v>
@@ -50760,17 +50760,17 @@
         <v>400</v>
       </c>
       <c r="K700" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L700" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="M700" t="n">
-        <v>4250</v>
+        <v>12250</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -50779,10 +50779,10 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>425</v>
+        <v>681</v>
       </c>
       <c r="Q700" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E701" t="n">
         <v>4</v>
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K701" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L701" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M701" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E702" t="n">
         <v>4</v>
@@ -50897,36 +50897,36 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K702" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L702" t="n">
-        <v>10000</v>
+        <v>4800</v>
       </c>
       <c r="M702" t="n">
-        <v>9500</v>
+        <v>4650</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>528</v>
+        <v>465</v>
       </c>
       <c r="Q702" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E703" t="n">
         <v>4</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K703" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L703" t="n">
         <v>8000</v>
       </c>
       <c r="M703" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51036,41 +51036,41 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K704" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L704" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M704" t="n">
-        <v>7750</v>
+        <v>3250</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="Q704" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E705" t="n">
         <v>4</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51120,29 +51120,29 @@
         <v>800</v>
       </c>
       <c r="K705" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L705" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M705" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>472</v>
+        <v>575</v>
       </c>
       <c r="Q705" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E706" t="n">
         <v>4</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,32 +51189,32 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K706" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L706" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M706" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="Q706" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E707" t="n">
         <v>4</v>
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K707" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L707" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M707" t="n">
-        <v>8250</v>
+        <v>11750</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>458</v>
+        <v>653</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E708" t="n">
         <v>4</v>
@@ -51336,13 +51336,13 @@
         <v>600</v>
       </c>
       <c r="K708" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L708" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M708" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>347</v>
+        <v>528</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E709" t="n">
         <v>4</v>
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K709" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L709" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M709" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>236</v>
+        <v>417</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E710" t="n">
         <v>4</v>
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K710" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L710" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M710" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E711" t="n">
         <v>4</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K711" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L711" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M711" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>264</v>
+        <v>472</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E712" t="n">
         <v>4</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K712" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L712" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M712" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E713" t="n">
         <v>4</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K713" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L713" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M713" t="n">
-        <v>5250</v>
+        <v>8250</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>292</v>
+        <v>458</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E714" t="n">
         <v>4</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K714" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L714" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M714" t="n">
-        <v>9250</v>
+        <v>6250</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>514</v>
+        <v>347</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E715" t="n">
         <v>4</v>
@@ -51833,36 +51833,36 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K715" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L715" t="n">
         <v>4500</v>
       </c>
       <c r="M715" t="n">
-        <v>4400</v>
+        <v>4250</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>440</v>
+        <v>236</v>
       </c>
       <c r="Q715" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E716" t="n">
         <v>4</v>
@@ -51900,25 +51900,25 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K716" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L716" t="n">
         <v>7000</v>
       </c>
-      <c r="L716" t="n">
-        <v>7500</v>
-      </c>
       <c r="M716" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E717" t="n">
         <v>4</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,32 +51981,32 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K717" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L717" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M717" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="Q717" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E718" t="n">
         <v>4</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K718" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L718" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M718" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E719" t="n">
         <v>4</v>
@@ -52116,25 +52116,25 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K719" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L719" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M719" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E720" t="n">
         <v>4</v>
@@ -52188,7 +52188,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K720" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L720" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M720" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E721" t="n">
         <v>4</v>
@@ -52260,41 +52260,41 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K721" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L721" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M721" t="n">
-        <v>5250</v>
+        <v>4400</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="Q721" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E722" t="n">
         <v>4</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K722" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L722" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M722" t="n">
-        <v>9750</v>
+        <v>7250</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>542</v>
+        <v>403</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E723" t="n">
         <v>4</v>
@@ -52416,29 +52416,29 @@
         <v>600</v>
       </c>
       <c r="K723" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L723" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M723" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="Q723" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E724" t="n">
         <v>4</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K724" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L724" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M724" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E725" t="n">
         <v>4</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K725" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L725" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M725" t="n">
-        <v>13500</v>
+        <v>4750</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>750</v>
+        <v>264</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E726" t="n">
         <v>4</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,32 +52629,32 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="K726" t="n">
-        <v>6300</v>
+        <v>7500</v>
       </c>
       <c r="L726" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M726" t="n">
-        <v>6400</v>
+        <v>7750</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>640</v>
+        <v>431</v>
       </c>
       <c r="Q726" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E727" t="n">
         <v>4</v>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,16 +52701,16 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K727" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L727" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M727" t="n">
-        <v>11500</v>
+        <v>5250</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>639</v>
+        <v>292</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52749,58 +52749,490 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E728" t="n">
+        <v>4</v>
+      </c>
+      <c r="F728" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J728" t="n">
+        <v>800</v>
+      </c>
+      <c r="K728" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L728" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M728" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N728" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O728" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P728" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>18</v>
+      </c>
+      <c r="R728" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>8</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D729" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E729" t="n">
+        <v>4</v>
+      </c>
+      <c r="F729" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J729" t="n">
+        <v>600</v>
+      </c>
+      <c r="K729" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L729" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M729" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N729" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O729" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P729" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q729" t="n">
+        <v>18</v>
+      </c>
+      <c r="R729" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>8</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D730" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E730" t="n">
+        <v>4</v>
+      </c>
+      <c r="F730" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J730" t="n">
+        <v>520</v>
+      </c>
+      <c r="K730" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L730" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M730" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N730" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O730" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P730" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q730" t="n">
+        <v>18</v>
+      </c>
+      <c r="R730" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>8</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D731" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E728" t="n">
-        <v>4</v>
-      </c>
-      <c r="F728" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H728" t="inlineStr">
+      <c r="E731" t="n">
+        <v>4</v>
+      </c>
+      <c r="F731" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I728" t="inlineStr">
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J731" t="n">
+        <v>720</v>
+      </c>
+      <c r="K731" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L731" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M731" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N731" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O731" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P731" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q731" t="n">
+        <v>18</v>
+      </c>
+      <c r="R731" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>8</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D732" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E732" t="n">
+        <v>4</v>
+      </c>
+      <c r="F732" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J732" t="n">
+        <v>880</v>
+      </c>
+      <c r="K732" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L732" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M732" t="n">
+        <v>6400</v>
+      </c>
+      <c r="N732" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O732" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P732" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q732" t="n">
+        <v>10</v>
+      </c>
+      <c r="R732" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>8</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D733" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E733" t="n">
+        <v>4</v>
+      </c>
+      <c r="F733" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J728" t="n">
+      <c r="J733" t="n">
         <v>560</v>
       </c>
-      <c r="K728" t="n">
+      <c r="K733" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L733" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M733" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N733" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O733" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P733" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>18</v>
+      </c>
+      <c r="R733" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>8</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D734" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E734" t="n">
+        <v>4</v>
+      </c>
+      <c r="F734" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J734" t="n">
+        <v>560</v>
+      </c>
+      <c r="K734" t="n">
         <v>5000</v>
       </c>
-      <c r="L728" t="n">
+      <c r="L734" t="n">
         <v>5500</v>
       </c>
-      <c r="M728" t="n">
+      <c r="M734" t="n">
         <v>5250</v>
       </c>
-      <c r="N728" t="inlineStr">
+      <c r="N734" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O728" t="inlineStr">
+      <c r="O734" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P728" t="n">
+      <c r="P734" t="n">
         <v>525</v>
       </c>
-      <c r="Q728" t="n">
+      <c r="Q734" t="n">
         <v>10</v>
       </c>
-      <c r="R728" t="inlineStr">
+      <c r="R734" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R747"/>
+  <dimension ref="A1:R751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="K704" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="L704" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M704" t="n">
-        <v>7750</v>
+        <v>13750</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>431</v>
+        <v>764</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E705" t="n">
         <v>4</v>
@@ -51108,25 +51108,25 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K705" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L705" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="M705" t="n">
-        <v>5250</v>
+        <v>12250</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>292</v>
+        <v>681</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E706" t="n">
         <v>4</v>
@@ -51180,25 +51180,25 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="K706" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L706" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M706" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E707" t="n">
         <v>4</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K707" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L707" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M707" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E708" t="n">
         <v>4</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>520</v>
+        <v>720</v>
       </c>
       <c r="K708" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L708" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M708" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E709" t="n">
         <v>4</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K709" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L709" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M709" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>528</v>
+        <v>292</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E710" t="n">
         <v>4</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K710" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L710" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M710" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E711" t="n">
         <v>4</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J711" t="n">
         <v>600</v>
       </c>
       <c r="K711" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="L711" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M711" t="n">
-        <v>14750</v>
+        <v>8250</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>819</v>
+        <v>458</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E712" t="n">
         <v>4</v>
@@ -51621,16 +51621,16 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K712" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L712" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="M712" t="n">
-        <v>14250</v>
+        <v>11500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>792</v>
+        <v>639</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E713" t="n">
         <v>4</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K713" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L713" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M713" t="n">
-        <v>12250</v>
+        <v>9500</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>681</v>
+        <v>528</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E714" t="n">
         <v>4</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K714" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L714" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M714" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E715" t="n">
         <v>4</v>
@@ -51837,32 +51837,32 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K715" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="L715" t="n">
-        <v>4800</v>
+        <v>15000</v>
       </c>
       <c r="M715" t="n">
-        <v>4650</v>
+        <v>14750</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>465</v>
+        <v>819</v>
       </c>
       <c r="Q715" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E716" t="n">
         <v>4</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K716" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L716" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="M716" t="n">
-        <v>7750</v>
+        <v>14250</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>431</v>
+        <v>792</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E717" t="n">
         <v>4</v>
@@ -51981,20 +51981,20 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K717" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="L717" t="n">
-        <v>3500</v>
+        <v>12500</v>
       </c>
       <c r="M717" t="n">
-        <v>3250</v>
+        <v>12250</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
@@ -52003,10 +52003,10 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>325</v>
+        <v>681</v>
       </c>
       <c r="Q717" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E718" t="n">
         <v>4</v>
@@ -52053,20 +52053,20 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K718" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L718" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M718" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
@@ -52075,10 +52075,10 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="Q718" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E719" t="n">
         <v>4</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K719" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L719" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M719" t="n">
-        <v>4250</v>
+        <v>4650</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="Q719" t="n">
         <v>10</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E720" t="n">
         <v>4</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K720" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L720" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M720" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E721" t="n">
         <v>4</v>
@@ -52269,32 +52269,32 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K721" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L721" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="M721" t="n">
-        <v>9500</v>
+        <v>3250</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>528</v>
+        <v>325</v>
       </c>
       <c r="Q721" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E722" t="n">
         <v>4</v>
@@ -52337,36 +52337,36 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K722" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L722" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M722" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="Q722" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E723" t="n">
         <v>4</v>
@@ -52404,41 +52404,41 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K723" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L723" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M723" t="n">
-        <v>7750</v>
+        <v>4250</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q723" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K724" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L724" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M724" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52560,13 +52560,13 @@
         <v>600</v>
       </c>
       <c r="K725" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L725" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M725" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E726" t="n">
         <v>4</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K726" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L726" t="n">
         <v>8000</v>
       </c>
-      <c r="L726" t="n">
-        <v>8500</v>
-      </c>
       <c r="M726" t="n">
-        <v>8250</v>
+        <v>7500</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E727" t="n">
         <v>4</v>
@@ -52692,25 +52692,25 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K727" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L727" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M727" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E728" t="n">
         <v>4</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K728" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L728" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M728" t="n">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>236</v>
+        <v>472</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E729" t="n">
         <v>4</v>
@@ -52841,20 +52841,20 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K729" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L729" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M729" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q729" t="n">
         <v>18</v>
@@ -52908,25 +52908,25 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K730" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L730" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M730" t="n">
-        <v>4750</v>
+        <v>8250</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>264</v>
+        <v>458</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E731" t="n">
         <v>4</v>
@@ -52980,25 +52980,25 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K731" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L731" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M731" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E732" t="n">
         <v>4</v>
@@ -53052,25 +53052,25 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K732" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L732" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M732" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E733" t="n">
         <v>4</v>
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,16 +53133,16 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K733" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L733" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M733" t="n">
-        <v>9250</v>
+        <v>6750</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E734" t="n">
         <v>4</v>
@@ -53196,41 +53196,41 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K734" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L734" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M734" t="n">
-        <v>4400</v>
+        <v>4750</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="Q734" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E735" t="n">
         <v>4</v>
@@ -53268,16 +53268,16 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K735" t="n">
         <v>7000</v>
@@ -53295,7 +53295,7 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P735" t="n">
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E736" t="n">
         <v>4</v>
@@ -53340,7 +53340,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -53349,32 +53349,32 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K736" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L736" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M736" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="Q736" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R736" t="inlineStr">
         <is>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E737" t="n">
         <v>4</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K737" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L737" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M737" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E738" t="n">
         <v>4</v>
@@ -53489,36 +53489,36 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K738" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L738" t="n">
         <v>4500</v>
       </c>
-      <c r="L738" t="n">
-        <v>5000</v>
-      </c>
       <c r="M738" t="n">
-        <v>4750</v>
+        <v>4400</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>264</v>
+        <v>440</v>
       </c>
       <c r="Q738" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R738" t="inlineStr">
         <is>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E739" t="n">
         <v>4</v>
@@ -53556,25 +53556,25 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K739" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L739" t="n">
         <v>7500</v>
       </c>
-      <c r="L739" t="n">
-        <v>8000</v>
-      </c>
       <c r="M739" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E740" t="n">
         <v>4</v>
@@ -53628,7 +53628,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -53640,29 +53640,29 @@
         <v>600</v>
       </c>
       <c r="K740" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L740" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M740" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="Q740" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E741" t="n">
         <v>4</v>
@@ -53705,20 +53705,20 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K741" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L741" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M741" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E742" t="n">
         <v>4</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K742" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L742" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M742" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E743" t="n">
         <v>4</v>
@@ -53844,25 +53844,25 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K743" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L743" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M743" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E744" t="n">
         <v>4</v>
@@ -53916,25 +53916,25 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K744" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L744" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M744" t="n">
-        <v>13500</v>
+        <v>5250</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>750</v>
+        <v>292</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E745" t="n">
         <v>4</v>
@@ -53997,32 +53997,32 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="K745" t="n">
-        <v>6300</v>
+        <v>9500</v>
       </c>
       <c r="L745" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M745" t="n">
-        <v>6400</v>
+        <v>9750</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>640</v>
+        <v>542</v>
       </c>
       <c r="Q745" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E746" t="n">
         <v>4</v>
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K746" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L746" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M746" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>639</v>
+        <v>403</v>
       </c>
       <c r="Q746" t="n">
         <v>18</v>
@@ -54117,58 +54117,346 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E747" t="n">
+        <v>4</v>
+      </c>
+      <c r="F747" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J747" t="n">
+        <v>520</v>
+      </c>
+      <c r="K747" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L747" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M747" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N747" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O747" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P747" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q747" t="n">
+        <v>18</v>
+      </c>
+      <c r="R747" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>8</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D748" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E747" t="n">
-        <v>4</v>
-      </c>
-      <c r="F747" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G747" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H747" t="inlineStr">
+      <c r="E748" t="n">
+        <v>4</v>
+      </c>
+      <c r="F748" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H748" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I747" t="inlineStr">
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J748" t="n">
+        <v>720</v>
+      </c>
+      <c r="K748" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L748" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M748" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N748" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O748" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P748" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q748" t="n">
+        <v>18</v>
+      </c>
+      <c r="R748" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>8</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D749" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E749" t="n">
+        <v>4</v>
+      </c>
+      <c r="F749" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J749" t="n">
+        <v>880</v>
+      </c>
+      <c r="K749" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L749" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M749" t="n">
+        <v>6400</v>
+      </c>
+      <c r="N749" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O749" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P749" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q749" t="n">
+        <v>10</v>
+      </c>
+      <c r="R749" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>8</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D750" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E750" t="n">
+        <v>4</v>
+      </c>
+      <c r="F750" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I750" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J747" t="n">
+      <c r="J750" t="n">
         <v>560</v>
       </c>
-      <c r="K747" t="n">
+      <c r="K750" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L750" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M750" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N750" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O750" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P750" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q750" t="n">
+        <v>18</v>
+      </c>
+      <c r="R750" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>8</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D751" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E751" t="n">
+        <v>4</v>
+      </c>
+      <c r="F751" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J751" t="n">
+        <v>560</v>
+      </c>
+      <c r="K751" t="n">
         <v>5000</v>
       </c>
-      <c r="L747" t="n">
+      <c r="L751" t="n">
         <v>5500</v>
       </c>
-      <c r="M747" t="n">
+      <c r="M751" t="n">
         <v>5250</v>
       </c>
-      <c r="N747" t="inlineStr">
+      <c r="N751" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O747" t="inlineStr">
+      <c r="O751" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P747" t="n">
+      <c r="P751" t="n">
         <v>525</v>
       </c>
-      <c r="Q747" t="n">
+      <c r="Q751" t="n">
         <v>10</v>
       </c>
-      <c r="R747" t="inlineStr">
+      <c r="R751" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R767"/>
+  <dimension ref="A1:R771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E654" t="n">
         <v>4</v>
@@ -47445,17 +47445,17 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K654" t="n">
         <v>12000</v>
       </c>
       <c r="L654" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M654" t="n">
         <v>12500</v>
       </c>
-      <c r="M654" t="n">
-        <v>12250</v>
-      </c>
       <c r="N654" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E655" t="n">
         <v>4</v>
@@ -47513,36 +47513,36 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K655" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="L655" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M655" t="n">
-        <v>9750</v>
+        <v>4250</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>542</v>
+        <v>425</v>
       </c>
       <c r="Q655" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E656" t="n">
         <v>4</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J656" t="n">
         <v>400</v>
       </c>
       <c r="K656" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L656" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M656" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>431</v>
+        <v>583</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E657" t="n">
         <v>4</v>
@@ -47652,41 +47652,41 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K657" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="L657" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="M657" t="n">
-        <v>7750</v>
+        <v>2250</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>431</v>
+        <v>225</v>
       </c>
       <c r="Q657" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K658" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L658" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="M658" t="n">
-        <v>5250</v>
+        <v>12250</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>292</v>
+        <v>681</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E659" t="n">
         <v>4</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K659" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L659" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M659" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>750</v>
+        <v>542</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E660" t="n">
         <v>4</v>
@@ -47873,36 +47873,36 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="K660" t="n">
-        <v>6300</v>
+        <v>7500</v>
       </c>
       <c r="L660" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M660" t="n">
-        <v>6400</v>
+        <v>7750</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>640</v>
+        <v>431</v>
       </c>
       <c r="Q660" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E661" t="n">
         <v>4</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K661" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L661" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M661" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E662" t="n">
         <v>4</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,7 +48021,7 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K662" t="n">
         <v>5000</v>
@@ -48034,19 +48034,19 @@
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>525</v>
+        <v>292</v>
       </c>
       <c r="Q662" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E663" t="n">
         <v>4</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K663" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L663" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M663" t="n">
-        <v>5750</v>
+        <v>13500</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>319</v>
+        <v>750</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E664" t="n">
         <v>4</v>
@@ -48161,36 +48161,36 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>500</v>
+        <v>880</v>
       </c>
       <c r="K664" t="n">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="L664" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M664" t="n">
-        <v>4250</v>
+        <v>6400</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>236</v>
+        <v>640</v>
       </c>
       <c r="Q664" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E665" t="n">
         <v>4</v>
@@ -48228,25 +48228,25 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K665" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L665" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M665" t="n">
-        <v>7250</v>
+        <v>11500</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>403</v>
+        <v>639</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E666" t="n">
         <v>4</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,7 +48309,7 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K666" t="n">
         <v>5000</v>
@@ -48322,19 +48322,19 @@
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>292</v>
+        <v>525</v>
       </c>
       <c r="Q666" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E667" t="n">
         <v>4</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>740</v>
+        <v>600</v>
       </c>
       <c r="K667" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L667" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M667" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E668" t="n">
         <v>4</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J668" t="n">
         <v>500</v>
       </c>
       <c r="K668" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L668" t="n">
         <v>4500</v>
       </c>
-      <c r="L668" t="n">
-        <v>5000</v>
-      </c>
       <c r="M668" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E669" t="n">
         <v>4</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K669" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L669" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M669" t="n">
-        <v>11750</v>
+        <v>7250</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>653</v>
+        <v>403</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E670" t="n">
         <v>4</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K670" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L670" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M670" t="n">
-        <v>9250</v>
+        <v>5250</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>514</v>
+        <v>292</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E671" t="n">
         <v>4</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,16 +48669,16 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="K671" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L671" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E672" t="n">
         <v>4</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48744,13 +48744,13 @@
         <v>500</v>
       </c>
       <c r="K672" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L672" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M672" t="n">
-        <v>8500</v>
+        <v>4750</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>472</v>
+        <v>264</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E673" t="n">
         <v>4</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K673" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L673" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M673" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E674" t="n">
         <v>4</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K674" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L674" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M674" t="n">
-        <v>5750</v>
+        <v>9250</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E675" t="n">
         <v>4</v>
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="K675" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="L675" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="M675" t="n">
-        <v>18750</v>
+        <v>10500</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>1042</v>
+        <v>583</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E676" t="n">
         <v>4</v>
@@ -49025,36 +49025,36 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>860</v>
+        <v>500</v>
       </c>
       <c r="K676" t="n">
-        <v>8800</v>
+        <v>8000</v>
       </c>
       <c r="L676" t="n">
         <v>9000</v>
       </c>
       <c r="M676" t="n">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>890</v>
+        <v>472</v>
       </c>
       <c r="Q676" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E677" t="n">
         <v>4</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="K677" t="n">
-        <v>16500</v>
+        <v>7500</v>
       </c>
       <c r="L677" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M677" t="n">
-        <v>16750</v>
+        <v>7750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>931</v>
+        <v>431</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E678" t="n">
         <v>4</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49176,29 +49176,29 @@
         <v>600</v>
       </c>
       <c r="K678" t="n">
-        <v>7800</v>
+        <v>5500</v>
       </c>
       <c r="L678" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M678" t="n">
-        <v>7900</v>
+        <v>5750</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>790</v>
+        <v>319</v>
       </c>
       <c r="Q678" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E679" t="n">
         <v>4</v>
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="K679" t="n">
-        <v>9000</v>
+        <v>18500</v>
       </c>
       <c r="L679" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="M679" t="n">
-        <v>9250</v>
+        <v>18750</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>514</v>
+        <v>1042</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E680" t="n">
         <v>4</v>
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="K680" t="n">
-        <v>4500</v>
+        <v>8800</v>
       </c>
       <c r="L680" t="n">
-        <v>4600</v>
+        <v>9000</v>
       </c>
       <c r="M680" t="n">
-        <v>4550</v>
+        <v>8900</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>455</v>
+        <v>890</v>
       </c>
       <c r="Q680" t="n">
         <v>10</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E681" t="n">
         <v>4</v>
@@ -49392,13 +49392,13 @@
         <v>440</v>
       </c>
       <c r="K681" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="L681" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="M681" t="n">
-        <v>7250</v>
+        <v>16750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>403</v>
+        <v>931</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E682" t="n">
         <v>4</v>
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K682" t="n">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="L682" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M682" t="n">
-        <v>3250</v>
+        <v>7900</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>325</v>
+        <v>790</v>
       </c>
       <c r="Q682" t="n">
         <v>10</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E683" t="n">
         <v>4</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K683" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="L683" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M683" t="n">
-        <v>6400</v>
+        <v>9250</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>356</v>
+        <v>514</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E684" t="n">
         <v>4</v>
@@ -49596,41 +49596,41 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K684" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L684" t="n">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="M684" t="n">
-        <v>4400</v>
+        <v>4550</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>244</v>
+        <v>455</v>
       </c>
       <c r="Q684" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E685" t="n">
         <v>4</v>
@@ -49673,24 +49673,24 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="K685" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L685" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M685" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -49699,10 +49699,10 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>625</v>
+        <v>403</v>
       </c>
       <c r="Q685" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E686" t="n">
         <v>4</v>
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="K686" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L686" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M686" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="Q686" t="n">
         <v>10</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E687" t="n">
         <v>4</v>
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K687" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L687" t="n">
         <v>6500</v>
       </c>
-      <c r="L687" t="n">
-        <v>7000</v>
-      </c>
       <c r="M687" t="n">
-        <v>6750</v>
+        <v>6400</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E688" t="n">
         <v>4</v>
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="K688" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L688" t="n">
         <v>4500</v>
       </c>
-      <c r="L688" t="n">
-        <v>5000</v>
-      </c>
       <c r="M688" t="n">
-        <v>4750</v>
+        <v>4400</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E689" t="n">
         <v>4</v>
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K689" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L689" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M689" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q689" t="n">
         <v>10</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E690" t="n">
         <v>4</v>
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K690" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L690" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M690" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="Q690" t="n">
         <v>10</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E691" t="n">
         <v>4</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,16 +50109,16 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K691" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L691" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M691" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E692" t="n">
         <v>4</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="K692" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L692" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M692" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E693" t="n">
         <v>4</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50259,26 +50259,26 @@
         <v>7000</v>
       </c>
       <c r="L693" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M693" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q693" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E694" t="n">
         <v>4</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,7 +50325,7 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K694" t="n">
         <v>5000</v>
@@ -50338,19 +50338,19 @@
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>292</v>
+        <v>525</v>
       </c>
       <c r="Q694" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E695" t="n">
         <v>4</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50400,13 +50400,13 @@
         <v>800</v>
       </c>
       <c r="K695" t="n">
-        <v>6800</v>
+        <v>8500</v>
       </c>
       <c r="L695" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M695" t="n">
-        <v>6900</v>
+        <v>8750</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E696" t="n">
         <v>4</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K696" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="L696" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M696" t="n">
-        <v>4900</v>
+        <v>6750</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E697" t="n">
         <v>4</v>
@@ -50532,25 +50532,25 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K697" t="n">
-        <v>16500</v>
+        <v>7000</v>
       </c>
       <c r="L697" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M697" t="n">
-        <v>16750</v>
+        <v>7500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>931</v>
+        <v>417</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E698" t="n">
         <v>4</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K698" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="L698" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M698" t="n">
-        <v>14750</v>
+        <v>5250</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>819</v>
+        <v>292</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E699" t="n">
         <v>4</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50688,13 +50688,13 @@
         <v>800</v>
       </c>
       <c r="K699" t="n">
-        <v>12500</v>
+        <v>6800</v>
       </c>
       <c r="L699" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M699" t="n">
-        <v>12750</v>
+        <v>6900</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>708</v>
+        <v>383</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E700" t="n">
         <v>4</v>
@@ -50748,41 +50748,41 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="K700" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="L700" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M700" t="n">
-        <v>6250</v>
+        <v>4900</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>625</v>
+        <v>272</v>
       </c>
       <c r="Q700" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K701" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="L701" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M701" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>597</v>
+        <v>931</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50897,36 +50897,36 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K702" t="n">
-        <v>5000</v>
+        <v>14500</v>
       </c>
       <c r="L702" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M702" t="n">
-        <v>5250</v>
+        <v>14750</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>525</v>
+        <v>819</v>
       </c>
       <c r="Q702" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E703" t="n">
         <v>4</v>
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K703" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L703" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M703" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K704" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L704" t="n">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="M704" t="n">
-        <v>5550</v>
+        <v>6250</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="Q704" t="n">
         <v>10</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E705" t="n">
         <v>4</v>
@@ -51120,13 +51120,13 @@
         <v>400</v>
       </c>
       <c r="K705" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L705" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M705" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E706" t="n">
         <v>4</v>
@@ -51185,24 +51185,24 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K706" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L706" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M706" t="n">
-        <v>14500</v>
+        <v>5250</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,10 +51211,10 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>806</v>
+        <v>525</v>
       </c>
       <c r="Q706" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E707" t="n">
         <v>4</v>
@@ -51261,32 +51261,32 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K707" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L707" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M707" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="Q707" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E708" t="n">
         <v>4</v>
@@ -51329,24 +51329,24 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K708" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L708" t="n">
-        <v>13000</v>
+        <v>5600</v>
       </c>
       <c r="M708" t="n">
-        <v>12500</v>
+        <v>5550</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
@@ -51355,10 +51355,10 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>694</v>
+        <v>555</v>
       </c>
       <c r="Q708" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E709" t="n">
         <v>4</v>
@@ -51405,32 +51405,32 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K709" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L709" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M709" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="Q709" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E710" t="n">
         <v>4</v>
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="K710" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L710" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M710" t="n">
-        <v>12250</v>
+        <v>14500</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>681</v>
+        <v>806</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E711" t="n">
         <v>4</v>
@@ -51552,13 +51552,13 @@
         <v>800</v>
       </c>
       <c r="K711" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L711" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M711" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q711" t="n">
         <v>10</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E712" t="n">
         <v>4</v>
@@ -51624,13 +51624,13 @@
         <v>400</v>
       </c>
       <c r="K712" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L712" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M712" t="n">
-        <v>10250</v>
+        <v>12500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>569</v>
+        <v>694</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E713" t="n">
         <v>4</v>
@@ -51696,13 +51696,13 @@
         <v>600</v>
       </c>
       <c r="K713" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L713" t="n">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="M713" t="n">
-        <v>4600</v>
+        <v>5750</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>460</v>
+        <v>575</v>
       </c>
       <c r="Q713" t="n">
         <v>10</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E714" t="n">
         <v>4</v>
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K714" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L714" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="M714" t="n">
-        <v>7750</v>
+        <v>12250</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>431</v>
+        <v>681</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E715" t="n">
         <v>4</v>
@@ -51828,7 +51828,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
@@ -51840,13 +51840,13 @@
         <v>800</v>
       </c>
       <c r="K715" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="L715" t="n">
         <v>6000</v>
       </c>
       <c r="M715" t="n">
-        <v>5900</v>
+        <v>5750</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="Q715" t="n">
         <v>10</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E716" t="n">
         <v>4</v>
@@ -51900,7 +51900,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -51909,16 +51909,16 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K716" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L716" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="M716" t="n">
-        <v>5750</v>
+        <v>10250</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>319</v>
+        <v>569</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E717" t="n">
         <v>4</v>
@@ -51977,24 +51977,24 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K717" t="n">
-        <v>13500</v>
+        <v>4500</v>
       </c>
       <c r="L717" t="n">
-        <v>14000</v>
+        <v>4700</v>
       </c>
       <c r="M717" t="n">
-        <v>13750</v>
+        <v>4600</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
@@ -52003,10 +52003,10 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>764</v>
+        <v>460</v>
       </c>
       <c r="Q717" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E718" t="n">
         <v>4</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52056,29 +52056,29 @@
         <v>800</v>
       </c>
       <c r="K718" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L718" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M718" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>675</v>
+        <v>431</v>
       </c>
       <c r="Q718" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E719" t="n">
         <v>4</v>
@@ -52116,41 +52116,41 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K719" t="n">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="L719" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M719" t="n">
-        <v>11750</v>
+        <v>5900</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="Q719" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E720" t="n">
         <v>4</v>
@@ -52188,7 +52188,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -52197,7 +52197,7 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K720" t="n">
         <v>5500</v>
@@ -52210,19 +52210,19 @@
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>575</v>
+        <v>319</v>
       </c>
       <c r="Q720" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E721" t="n">
         <v>4</v>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52272,13 +52272,13 @@
         <v>700</v>
       </c>
       <c r="K721" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="L721" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M721" t="n">
-        <v>7750</v>
+        <v>13750</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>431</v>
+        <v>764</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E722" t="n">
         <v>4</v>
@@ -52332,41 +52332,41 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K722" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L722" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M722" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>306</v>
+        <v>675</v>
       </c>
       <c r="Q722" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E723" t="n">
         <v>4</v>
@@ -52409,20 +52409,20 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K723" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="L723" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M723" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>764</v>
+        <v>653</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E724" t="n">
         <v>4</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K724" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L724" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M724" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q724" t="n">
         <v>10</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E725" t="n">
         <v>4</v>
@@ -52548,25 +52548,25 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K725" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L725" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M725" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E726" t="n">
         <v>4</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52632,29 +52632,29 @@
         <v>400</v>
       </c>
       <c r="K726" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L726" t="n">
         <v>6000</v>
       </c>
       <c r="M726" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>575</v>
+        <v>306</v>
       </c>
       <c r="Q726" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E727" t="n">
         <v>4</v>
@@ -52701,16 +52701,16 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K727" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L727" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M727" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E728" t="n">
         <v>4</v>
@@ -52769,36 +52769,36 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K728" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L728" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M728" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>431</v>
+        <v>675</v>
       </c>
       <c r="Q728" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R728" t="inlineStr">
         <is>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E729" t="n">
         <v>4</v>
@@ -52836,25 +52836,25 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K729" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L729" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M729" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q729" t="n">
         <v>18</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E730" t="n">
         <v>4</v>
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52917,32 +52917,32 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K730" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L730" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M730" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>292</v>
+        <v>575</v>
       </c>
       <c r="Q730" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R730" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E731" t="n">
         <v>4</v>
@@ -52980,7 +52980,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -52989,16 +52989,16 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K731" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L731" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M731" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E732" t="n">
         <v>4</v>
@@ -53052,7 +53052,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K732" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L732" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M732" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E733" t="n">
         <v>4</v>
@@ -53124,25 +53124,25 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="K733" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L733" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M733" t="n">
-        <v>15500</v>
+        <v>7750</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>861</v>
+        <v>431</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E734" t="n">
         <v>4</v>
@@ -53196,25 +53196,25 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J734" t="n">
         <v>600</v>
       </c>
       <c r="K734" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L734" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M734" t="n">
-        <v>13500</v>
+        <v>5250</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>750</v>
+        <v>292</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E735" t="n">
         <v>4</v>
@@ -53268,7 +53268,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -53277,16 +53277,16 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K735" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L735" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="M735" t="n">
-        <v>12250</v>
+        <v>7750</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>681</v>
+        <v>431</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E736" t="n">
         <v>4</v>
@@ -53340,16 +53340,16 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K736" t="n">
         <v>5500</v>
@@ -53362,19 +53362,19 @@
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>575</v>
+        <v>319</v>
       </c>
       <c r="Q736" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R736" t="inlineStr">
         <is>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="K737" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L737" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="M737" t="n">
-        <v>10250</v>
+        <v>15500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>569</v>
+        <v>861</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53489,36 +53489,36 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K738" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L738" t="n">
-        <v>4700</v>
+        <v>14000</v>
       </c>
       <c r="M738" t="n">
-        <v>4600</v>
+        <v>13500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>460</v>
+        <v>750</v>
       </c>
       <c r="Q738" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R738" t="inlineStr">
         <is>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E739" t="n">
         <v>4</v>
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K739" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L739" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M739" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E740" t="n">
         <v>4</v>
@@ -53633,36 +53633,36 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K740" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L740" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M740" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="Q740" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E741" t="n">
         <v>4</v>
@@ -53700,25 +53700,25 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K741" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L741" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M741" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E742" t="n">
         <v>4</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,32 +53781,32 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K742" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L742" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="M742" t="n">
-        <v>5750</v>
+        <v>4600</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>319</v>
+        <v>460</v>
       </c>
       <c r="Q742" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R742" t="inlineStr">
         <is>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E743" t="n">
         <v>4</v>
@@ -53853,7 +53853,7 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="K743" t="n">
         <v>9500</v>
@@ -53871,7 +53871,7 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P743" t="n">
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E744" t="n">
         <v>4</v>
@@ -53921,36 +53921,36 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K744" t="n">
-        <v>4300</v>
+        <v>7500</v>
       </c>
       <c r="L744" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M744" t="n">
-        <v>4400</v>
+        <v>7750</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="Q744" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E745" t="n">
         <v>4</v>
@@ -53988,16 +53988,16 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K745" t="n">
         <v>7500</v>
@@ -54015,7 +54015,7 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P745" t="n">
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E746" t="n">
         <v>4</v>
@@ -54060,7 +54060,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -54069,32 +54069,32 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K746" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L746" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M746" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q746" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E747" t="n">
         <v>4</v>
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K747" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="L747" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M747" t="n">
-        <v>14750</v>
+        <v>9750</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>819</v>
+        <v>542</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E748" t="n">
         <v>4</v>
@@ -54209,24 +54209,24 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K748" t="n">
-        <v>12500</v>
+        <v>4300</v>
       </c>
       <c r="L748" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M748" t="n">
-        <v>12750</v>
+        <v>4400</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
@@ -54235,10 +54235,10 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>708</v>
+        <v>440</v>
       </c>
       <c r="Q748" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44271</v>
+        <v>44432</v>
       </c>
       <c r="E749" t="n">
         <v>4</v>
@@ -54276,16 +54276,16 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K749" t="n">
         <v>7500</v>
@@ -54303,7 +54303,7 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P749" t="n">
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44271</v>
+        <v>44432</v>
       </c>
       <c r="E750" t="n">
         <v>4</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,32 +54357,32 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="K750" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L750" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M750" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="Q750" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E751" t="n">
         <v>4</v>
@@ -54429,16 +54429,16 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K751" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="L751" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M751" t="n">
-        <v>8250</v>
+        <v>14750</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>458</v>
+        <v>819</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E752" t="n">
         <v>4</v>
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K752" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="L752" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M752" t="n">
-        <v>6250</v>
+        <v>12750</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>347</v>
+        <v>708</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E753" t="n">
         <v>4</v>
@@ -54564,25 +54564,25 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K753" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L753" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M753" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E754" t="n">
         <v>4</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>900</v>
+        <v>460</v>
       </c>
       <c r="K754" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L754" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M754" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54708,25 +54708,25 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K755" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L755" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M755" t="n">
-        <v>4750</v>
+        <v>8250</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>264</v>
+        <v>458</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E756" t="n">
         <v>4</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K756" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="L756" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M756" t="n">
-        <v>11750</v>
+        <v>6250</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>653</v>
+        <v>347</v>
       </c>
       <c r="Q756" t="n">
         <v>18</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E757" t="n">
         <v>4</v>
@@ -54857,36 +54857,36 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K757" t="n">
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="L757" t="n">
-        <v>5700</v>
+        <v>4500</v>
       </c>
       <c r="M757" t="n">
-        <v>5650</v>
+        <v>4250</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>565</v>
+        <v>236</v>
       </c>
       <c r="Q757" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E758" t="n">
         <v>4</v>
@@ -54924,25 +54924,25 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K758" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L758" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M758" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E759" t="n">
         <v>4</v>
@@ -54996,7 +54996,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -55005,32 +55005,32 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="K759" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L759" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M759" t="n">
-        <v>4400</v>
+        <v>4750</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="Q759" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E760" t="n">
         <v>4</v>
@@ -55068,7 +55068,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -55077,16 +55077,16 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K760" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L760" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M760" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q760" t="n">
         <v>18</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E761" t="n">
         <v>4</v>
@@ -55140,41 +55140,41 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K761" t="n">
-        <v>4500</v>
+        <v>5600</v>
       </c>
       <c r="L761" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="M761" t="n">
-        <v>4750</v>
+        <v>5650</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>264</v>
+        <v>565</v>
       </c>
       <c r="Q761" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E762" t="n">
         <v>4</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K762" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L762" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M762" t="n">
-        <v>17500</v>
+        <v>9750</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>972</v>
+        <v>542</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E763" t="n">
         <v>4</v>
@@ -55289,36 +55289,36 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J763" t="n">
         <v>520</v>
       </c>
       <c r="K763" t="n">
-        <v>14500</v>
+        <v>4300</v>
       </c>
       <c r="L763" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M763" t="n">
-        <v>14750</v>
+        <v>4400</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>819</v>
+        <v>440</v>
       </c>
       <c r="Q763" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R763" t="inlineStr">
         <is>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E764" t="n">
         <v>4</v>
@@ -55356,7 +55356,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -55365,16 +55365,16 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K764" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L764" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="M764" t="n">
-        <v>14250</v>
+        <v>6750</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>792</v>
+        <v>375</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E765" t="n">
         <v>4</v>
@@ -55428,7 +55428,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -55437,16 +55437,16 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K765" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L765" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="M765" t="n">
-        <v>12250</v>
+        <v>4750</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>681</v>
+        <v>264</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E766" t="n">
         <v>4</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K766" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L766" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M766" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E767" t="n">
         <v>4</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="K767" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="L767" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M767" t="n">
-        <v>12250</v>
+        <v>14750</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,12 +55603,300 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>681</v>
+        <v>819</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
       </c>
       <c r="R767" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>8</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D768" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E768" t="n">
+        <v>4</v>
+      </c>
+      <c r="F768" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J768" t="n">
+        <v>720</v>
+      </c>
+      <c r="K768" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L768" t="n">
+        <v>14500</v>
+      </c>
+      <c r="M768" t="n">
+        <v>14250</v>
+      </c>
+      <c r="N768" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O768" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P768" t="n">
+        <v>792</v>
+      </c>
+      <c r="Q768" t="n">
+        <v>18</v>
+      </c>
+      <c r="R768" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>8</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D769" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E769" t="n">
+        <v>4</v>
+      </c>
+      <c r="F769" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J769" t="n">
+        <v>440</v>
+      </c>
+      <c r="K769" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L769" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M769" t="n">
+        <v>12250</v>
+      </c>
+      <c r="N769" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O769" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P769" t="n">
+        <v>681</v>
+      </c>
+      <c r="Q769" t="n">
+        <v>18</v>
+      </c>
+      <c r="R769" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>8</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D770" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E770" t="n">
+        <v>4</v>
+      </c>
+      <c r="F770" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J770" t="n">
+        <v>600</v>
+      </c>
+      <c r="K770" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L770" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M770" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N770" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O770" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P770" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q770" t="n">
+        <v>18</v>
+      </c>
+      <c r="R770" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>8</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D771" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E771" t="n">
+        <v>4</v>
+      </c>
+      <c r="F771" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J771" t="n">
+        <v>360</v>
+      </c>
+      <c r="K771" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L771" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M771" t="n">
+        <v>12250</v>
+      </c>
+      <c r="N771" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O771" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P771" t="n">
+        <v>681</v>
+      </c>
+      <c r="Q771" t="n">
+        <v>18</v>
+      </c>
+      <c r="R771" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R836"/>
+  <dimension ref="A1:R840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E665" t="n">
         <v>4</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J665" t="n">
         <v>600</v>
       </c>
       <c r="K665" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L665" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M665" t="n">
-        <v>10500</v>
+        <v>12750</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>583</v>
+        <v>708</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E666" t="n">
         <v>4</v>
@@ -48305,24 +48305,24 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="K666" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L666" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M666" t="n">
-        <v>11500</v>
+        <v>4750</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -48331,10 +48331,10 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>639</v>
+        <v>475</v>
       </c>
       <c r="Q666" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E667" t="n">
         <v>4</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K667" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L667" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M667" t="n">
-        <v>8500</v>
+        <v>10250</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>472</v>
+        <v>569</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E668" t="n">
         <v>4</v>
@@ -48449,24 +48449,24 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K668" t="n">
-        <v>9000</v>
+        <v>3300</v>
       </c>
       <c r="L668" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="M668" t="n">
-        <v>9500</v>
+        <v>3400</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>528</v>
+        <v>340</v>
       </c>
       <c r="Q668" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48521,36 +48521,36 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K669" t="n">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="L669" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M669" t="n">
-        <v>5900</v>
+        <v>10500</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="Q669" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48593,24 +48593,24 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K670" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L670" t="n">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="M670" t="n">
-        <v>4650</v>
+        <v>11500</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -48619,10 +48619,10 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>465</v>
+        <v>639</v>
       </c>
       <c r="Q670" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E671" t="n">
         <v>4</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
         <v>600</v>
       </c>
       <c r="K671" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L671" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M671" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>806</v>
+        <v>472</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E672" t="n">
         <v>4</v>
@@ -48744,13 +48744,13 @@
         <v>400</v>
       </c>
       <c r="K672" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L672" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M672" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E673" t="n">
         <v>4</v>
@@ -48813,20 +48813,20 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="K673" t="n">
-        <v>10000</v>
+        <v>5800</v>
       </c>
       <c r="L673" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="M673" t="n">
-        <v>10250</v>
+        <v>5900</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -48835,10 +48835,10 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="Q673" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E674" t="n">
         <v>4</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K674" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L674" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M674" t="n">
-        <v>4250</v>
+        <v>4650</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="Q674" t="n">
         <v>10</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K675" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L675" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M675" t="n">
-        <v>8250</v>
+        <v>14500</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>458</v>
+        <v>806</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49025,36 +49025,36 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J676" t="n">
         <v>400</v>
       </c>
       <c r="K676" t="n">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="L676" t="n">
-        <v>2500</v>
+        <v>13000</v>
       </c>
       <c r="M676" t="n">
-        <v>2250</v>
+        <v>12750</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>225</v>
+        <v>708</v>
       </c>
       <c r="Q676" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E677" t="n">
         <v>4</v>
@@ -49101,20 +49101,20 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>800</v>
+        <v>660</v>
       </c>
       <c r="K677" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L677" t="n">
-        <v>4800</v>
+        <v>10500</v>
       </c>
       <c r="M677" t="n">
-        <v>4650</v>
+        <v>10250</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -49123,10 +49123,10 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>465</v>
+        <v>569</v>
       </c>
       <c r="Q677" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E678" t="n">
         <v>4</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>540</v>
+        <v>760</v>
       </c>
       <c r="K678" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L678" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M678" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q678" t="n">
         <v>10</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44414</v>
+        <v>44519</v>
       </c>
       <c r="E679" t="n">
         <v>4</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K679" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L679" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M679" t="n">
-        <v>9250</v>
+        <v>8250</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44414</v>
+        <v>44519</v>
       </c>
       <c r="E680" t="n">
         <v>4</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K680" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="L680" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M680" t="n">
-        <v>4900</v>
+        <v>2250</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>490</v>
+        <v>225</v>
       </c>
       <c r="Q680" t="n">
         <v>10</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E681" t="n">
         <v>4</v>
@@ -49385,24 +49385,24 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K681" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L681" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="M681" t="n">
-        <v>7250</v>
+        <v>4650</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -49411,10 +49411,10 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="Q681" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E682" t="n">
         <v>4</v>
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="K682" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L682" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M682" t="n">
-        <v>3900</v>
+        <v>3250</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="Q682" t="n">
         <v>10</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E683" t="n">
         <v>4</v>
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K683" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L683" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M683" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E684" t="n">
         <v>4</v>
@@ -49601,36 +49601,36 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K684" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="L684" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M684" t="n">
-        <v>5750</v>
+        <v>4900</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>319</v>
+        <v>490</v>
       </c>
       <c r="Q684" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E685" t="n">
         <v>4</v>
@@ -49668,25 +49668,25 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K685" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L685" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M685" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,11 +49695,11 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E686" t="n">
         <v>4</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,32 +49749,32 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K686" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="L686" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M686" t="n">
-        <v>4750</v>
+        <v>3900</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="Q686" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E687" t="n">
         <v>4</v>
@@ -49824,29 +49824,29 @@
         <v>800</v>
       </c>
       <c r="K687" t="n">
-        <v>5700</v>
+        <v>7500</v>
       </c>
       <c r="L687" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M687" t="n">
-        <v>5850</v>
+        <v>7750</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>585</v>
+        <v>431</v>
       </c>
       <c r="Q687" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E688" t="n">
         <v>4</v>
@@ -49893,32 +49893,32 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K688" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L688" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M688" t="n">
-        <v>4100</v>
+        <v>5750</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="Q688" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44278</v>
+        <v>44321</v>
       </c>
       <c r="E689" t="n">
         <v>4</v>
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>760</v>
+        <v>900</v>
       </c>
       <c r="K689" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L689" t="n">
         <v>7000</v>
       </c>
-      <c r="L689" t="n">
-        <v>7500</v>
-      </c>
       <c r="M689" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44278</v>
+        <v>44321</v>
       </c>
       <c r="E690" t="n">
         <v>4</v>
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K690" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L690" t="n">
         <v>5000</v>
       </c>
-      <c r="L690" t="n">
-        <v>5500</v>
-      </c>
       <c r="M690" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E691" t="n">
         <v>4</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50112,29 +50112,29 @@
         <v>800</v>
       </c>
       <c r="K691" t="n">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="L691" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M691" t="n">
-        <v>6750</v>
+        <v>5850</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>375</v>
+        <v>585</v>
       </c>
       <c r="Q691" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E692" t="n">
         <v>4</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,32 +50181,32 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K692" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L692" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="M692" t="n">
-        <v>4750</v>
+        <v>4100</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>264</v>
+        <v>410</v>
       </c>
       <c r="Q692" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E693" t="n">
         <v>4</v>
@@ -50253,7 +50253,7 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K693" t="n">
         <v>7000</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E694" t="n">
         <v>4</v>
@@ -50325,7 +50325,7 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K694" t="n">
         <v>5000</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E695" t="n">
         <v>4</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K695" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L695" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M695" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E696" t="n">
         <v>4</v>
@@ -50460,41 +50460,41 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K696" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L696" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M696" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>625</v>
+        <v>264</v>
       </c>
       <c r="Q696" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E697" t="n">
         <v>4</v>
@@ -50532,25 +50532,25 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K697" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L697" t="n">
         <v>7500</v>
       </c>
-      <c r="L697" t="n">
-        <v>8000</v>
-      </c>
       <c r="M697" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E698" t="n">
         <v>4</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K698" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L698" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="M698" t="n">
-        <v>16500</v>
+        <v>5250</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>917</v>
+        <v>292</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E699" t="n">
         <v>4</v>
@@ -50685,32 +50685,32 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K699" t="n">
-        <v>7800</v>
+        <v>10000</v>
       </c>
       <c r="L699" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M699" t="n">
-        <v>7900</v>
+        <v>10500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>790</v>
+        <v>583</v>
       </c>
       <c r="Q699" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E700" t="n">
         <v>4</v>
@@ -50753,24 +50753,24 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K700" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L700" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M700" t="n">
-        <v>14500</v>
+        <v>6250</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -50779,10 +50779,10 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>806</v>
+        <v>625</v>
       </c>
       <c r="Q700" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E701" t="n">
         <v>4</v>
@@ -50829,32 +50829,32 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K701" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L701" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M701" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>675</v>
+        <v>431</v>
       </c>
       <c r="Q701" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E702" t="n">
         <v>4</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K702" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L702" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M702" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>1139</v>
+        <v>917</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E703" t="n">
         <v>4</v>
@@ -50973,20 +50973,20 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="K703" t="n">
-        <v>18500</v>
+        <v>7800</v>
       </c>
       <c r="L703" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M703" t="n">
-        <v>18750</v>
+        <v>7900</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
@@ -50995,10 +50995,10 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>1042</v>
+        <v>790</v>
       </c>
       <c r="Q703" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51041,24 +51041,24 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="K704" t="n">
-        <v>8800</v>
+        <v>14000</v>
       </c>
       <c r="L704" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M704" t="n">
-        <v>8900</v>
+        <v>14500</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
@@ -51067,10 +51067,10 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="Q704" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E705" t="n">
         <v>4</v>
@@ -51117,20 +51117,20 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K705" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="L705" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M705" t="n">
-        <v>16750</v>
+        <v>6750</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
@@ -51139,10 +51139,10 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>931</v>
+        <v>675</v>
       </c>
       <c r="Q705" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51185,24 +51185,24 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="K706" t="n">
-        <v>7800</v>
+        <v>20000</v>
       </c>
       <c r="L706" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M706" t="n">
-        <v>7900</v>
+        <v>20500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,10 +51211,10 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>790</v>
+        <v>1139</v>
       </c>
       <c r="Q706" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E707" t="n">
         <v>4</v>
@@ -51264,17 +51264,17 @@
         <v>500</v>
       </c>
       <c r="K707" t="n">
-        <v>6000</v>
+        <v>18500</v>
       </c>
       <c r="L707" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="M707" t="n">
-        <v>6250</v>
+        <v>18750</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
@@ -51283,10 +51283,10 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>625</v>
+        <v>1042</v>
       </c>
       <c r="Q707" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E708" t="n">
         <v>4</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>400</v>
+        <v>840</v>
       </c>
       <c r="K708" t="n">
-        <v>4500</v>
+        <v>8800</v>
       </c>
       <c r="L708" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M708" t="n">
-        <v>4750</v>
+        <v>8900</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>475</v>
+        <v>890</v>
       </c>
       <c r="Q708" t="n">
         <v>10</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E709" t="n">
         <v>4</v>
@@ -51396,25 +51396,25 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K709" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="L709" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="M709" t="n">
-        <v>8250</v>
+        <v>16750</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>458</v>
+        <v>931</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E710" t="n">
         <v>4</v>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51477,32 +51477,32 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K710" t="n">
-        <v>6000</v>
+        <v>7800</v>
       </c>
       <c r="L710" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M710" t="n">
-        <v>6250</v>
+        <v>7900</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>347</v>
+        <v>790</v>
       </c>
       <c r="Q710" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E711" t="n">
         <v>4</v>
@@ -51549,20 +51549,20 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K711" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L711" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M711" t="n">
-        <v>8750</v>
+        <v>6250</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
@@ -51571,10 +51571,10 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>486</v>
+        <v>625</v>
       </c>
       <c r="Q711" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E712" t="n">
         <v>4</v>
@@ -51617,11 +51617,11 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K712" t="n">
         <v>4500</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E713" t="n">
         <v>4</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K713" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L713" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M713" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E714" t="n">
         <v>4</v>
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -51768,29 +51768,29 @@
         <v>400</v>
       </c>
       <c r="K714" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L714" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M714" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="Q714" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E715" t="n">
         <v>4</v>
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K715" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L715" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M715" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E716" t="n">
         <v>4</v>
@@ -51912,13 +51912,13 @@
         <v>800</v>
       </c>
       <c r="K716" t="n">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="L716" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="M716" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q716" t="n">
         <v>10</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E717" t="n">
         <v>4</v>
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K717" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L717" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M717" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E718" t="n">
         <v>4</v>
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K718" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L718" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="M718" t="n">
-        <v>4100</v>
+        <v>3250</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>410</v>
+        <v>325</v>
       </c>
       <c r="Q718" t="n">
         <v>10</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E719" t="n">
         <v>4</v>
@@ -52125,20 +52125,20 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="K719" t="n">
-        <v>4800</v>
+        <v>10500</v>
       </c>
       <c r="L719" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M719" t="n">
-        <v>4900</v>
+        <v>10750</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
@@ -52147,10 +52147,10 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>490</v>
+        <v>597</v>
       </c>
       <c r="Q719" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E720" t="n">
         <v>4</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K720" t="n">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="L720" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="M720" t="n">
-        <v>3900</v>
+        <v>5250</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>390</v>
+        <v>525</v>
       </c>
       <c r="Q720" t="n">
         <v>10</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E721" t="n">
         <v>4</v>
@@ -52260,25 +52260,25 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K721" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L721" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M721" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E722" t="n">
         <v>4</v>
@@ -52332,25 +52332,25 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>800</v>
+        <v>460</v>
       </c>
       <c r="K722" t="n">
-        <v>5800</v>
+        <v>4000</v>
       </c>
       <c r="L722" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="M722" t="n">
-        <v>5900</v>
+        <v>4100</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>590</v>
+        <v>410</v>
       </c>
       <c r="Q722" t="n">
         <v>10</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E723" t="n">
         <v>4</v>
@@ -52404,41 +52404,41 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="K723" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="L723" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M723" t="n">
-        <v>5750</v>
+        <v>4900</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>319</v>
+        <v>490</v>
       </c>
       <c r="Q723" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E724" t="n">
         <v>4</v>
@@ -52476,41 +52476,41 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K724" t="n">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="L724" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M724" t="n">
-        <v>7250</v>
+        <v>3900</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="Q724" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E725" t="n">
         <v>4</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K725" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L725" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M725" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44411</v>
+        <v>44238</v>
       </c>
       <c r="E726" t="n">
         <v>4</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,32 +52629,32 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="K726" t="n">
-        <v>9500</v>
+        <v>5800</v>
       </c>
       <c r="L726" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M726" t="n">
-        <v>9750</v>
+        <v>5900</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="Q726" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44411</v>
+        <v>44238</v>
       </c>
       <c r="E727" t="n">
         <v>4</v>
@@ -52692,41 +52692,41 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>840</v>
+        <v>560</v>
       </c>
       <c r="K727" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L727" t="n">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="M727" t="n">
-        <v>5100</v>
+        <v>5750</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>510</v>
+        <v>319</v>
       </c>
       <c r="Q727" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E728" t="n">
         <v>4</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K728" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L728" t="n">
         <v>7500</v>
       </c>
-      <c r="L728" t="n">
-        <v>8000</v>
-      </c>
       <c r="M728" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E729" t="n">
         <v>4</v>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,32 +52845,32 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K729" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="L729" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M729" t="n">
-        <v>3900</v>
+        <v>5250</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="Q729" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E730" t="n">
         <v>4</v>
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="K730" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L730" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M730" t="n">
-        <v>11250</v>
+        <v>9750</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E731" t="n">
         <v>4</v>
@@ -52989,16 +52989,16 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="K731" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L731" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="M731" t="n">
-        <v>4750</v>
+        <v>5100</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="Q731" t="n">
         <v>10</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E732" t="n">
         <v>4</v>
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K732" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L732" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M732" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44196</v>
+        <v>44411</v>
       </c>
       <c r="E733" t="n">
         <v>4</v>
@@ -53129,36 +53129,36 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K733" t="n">
-        <v>14000</v>
+        <v>3800</v>
       </c>
       <c r="L733" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M733" t="n">
-        <v>14500</v>
+        <v>3900</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>806</v>
+        <v>390</v>
       </c>
       <c r="Q733" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R733" t="inlineStr">
         <is>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E734" t="n">
         <v>4</v>
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K734" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L734" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="M734" t="n">
-        <v>12250</v>
+        <v>11250</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>681</v>
+        <v>625</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E735" t="n">
         <v>4</v>
@@ -53280,29 +53280,29 @@
         <v>600</v>
       </c>
       <c r="K735" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L735" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M735" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>861</v>
+        <v>475</v>
       </c>
       <c r="Q735" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E736" t="n">
         <v>4</v>
@@ -53349,16 +53349,16 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K736" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L736" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M736" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44459</v>
+        <v>44196</v>
       </c>
       <c r="E737" t="n">
         <v>4</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K737" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L737" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M737" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44459</v>
+        <v>44196</v>
       </c>
       <c r="E738" t="n">
         <v>4</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K738" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L738" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="M738" t="n">
-        <v>17500</v>
+        <v>12250</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53511,11 +53511,11 @@
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>972</v>
+        <v>681</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E739" t="n">
         <v>4</v>
@@ -53568,29 +53568,29 @@
         <v>600</v>
       </c>
       <c r="K739" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L739" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M739" t="n">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>975</v>
+        <v>861</v>
       </c>
       <c r="Q739" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E740" t="n">
         <v>4</v>
@@ -53637,32 +53637,32 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K740" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L740" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M740" t="n">
-        <v>8750</v>
+        <v>12750</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>875</v>
+        <v>708</v>
       </c>
       <c r="Q740" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E741" t="n">
         <v>4</v>
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K741" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L741" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="M741" t="n">
-        <v>12250</v>
+        <v>19500</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>681</v>
+        <v>1083</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E742" t="n">
         <v>4</v>
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K742" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L742" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M742" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>542</v>
+        <v>972</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E743" t="n">
         <v>4</v>
@@ -53849,36 +53849,36 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J743" t="n">
         <v>600</v>
       </c>
       <c r="K743" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L743" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M743" t="n">
-        <v>7250</v>
+        <v>9750</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>403</v>
+        <v>975</v>
       </c>
       <c r="Q743" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E744" t="n">
         <v>4</v>
@@ -53916,41 +53916,41 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K744" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L744" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M744" t="n">
-        <v>7250</v>
+        <v>8750</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>403</v>
+        <v>875</v>
       </c>
       <c r="Q744" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53988,25 +53988,25 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="K745" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L745" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="M745" t="n">
-        <v>5250</v>
+        <v>12250</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>292</v>
+        <v>681</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E746" t="n">
         <v>4</v>
@@ -54069,7 +54069,7 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K746" t="n">
         <v>9500</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E747" t="n">
         <v>4</v>
@@ -54144,13 +54144,13 @@
         <v>600</v>
       </c>
       <c r="K747" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L747" t="n">
         <v>7500</v>
       </c>
-      <c r="L747" t="n">
-        <v>8000</v>
-      </c>
       <c r="M747" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E748" t="n">
         <v>4</v>
@@ -54213,16 +54213,16 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K748" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L748" t="n">
         <v>7500</v>
       </c>
-      <c r="L748" t="n">
-        <v>8000</v>
-      </c>
       <c r="M748" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E749" t="n">
         <v>4</v>
@@ -54285,16 +54285,16 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="K749" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L749" t="n">
         <v>5500</v>
       </c>
-      <c r="L749" t="n">
-        <v>6000</v>
-      </c>
       <c r="M749" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E750" t="n">
         <v>4</v>
@@ -54357,7 +54357,7 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K750" t="n">
         <v>9500</v>
@@ -54375,7 +54375,7 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P750" t="n">
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E751" t="n">
         <v>4</v>
@@ -54425,36 +54425,36 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K751" t="n">
-        <v>4300</v>
+        <v>7500</v>
       </c>
       <c r="L751" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M751" t="n">
-        <v>4400</v>
+        <v>7750</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="Q751" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E752" t="n">
         <v>4</v>
@@ -54492,16 +54492,16 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K752" t="n">
         <v>7500</v>
@@ -54519,7 +54519,7 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P752" t="n">
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E753" t="n">
         <v>4</v>
@@ -54564,7 +54564,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -54573,32 +54573,32 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K753" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L753" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M753" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q753" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E754" t="n">
         <v>4</v>
@@ -54648,13 +54648,13 @@
         <v>700</v>
       </c>
       <c r="K754" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L754" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M754" t="n">
-        <v>9250</v>
+        <v>9750</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E755" t="n">
         <v>4</v>
@@ -54717,7 +54717,7 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K755" t="n">
         <v>4300</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E756" t="n">
         <v>4</v>
@@ -54789,16 +54789,16 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K756" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L756" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M756" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="Q756" t="n">
         <v>18</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E757" t="n">
         <v>4</v>
@@ -54861,7 +54861,7 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K757" t="n">
         <v>3000</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E758" t="n">
         <v>4</v>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,16 +54933,16 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K758" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L758" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M758" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E759" t="n">
         <v>4</v>
@@ -54996,41 +54996,41 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K759" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="L759" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M759" t="n">
-        <v>5750</v>
+        <v>4400</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>319</v>
+        <v>440</v>
       </c>
       <c r="Q759" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E760" t="n">
         <v>4</v>
@@ -55068,25 +55068,25 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K760" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L760" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M760" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="Q760" t="n">
         <v>18</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E761" t="n">
         <v>4</v>
@@ -55140,7 +55140,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -55149,32 +55149,32 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K761" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L761" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M761" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="Q761" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E762" t="n">
         <v>4</v>
@@ -55212,7 +55212,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -55221,32 +55221,32 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K762" t="n">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="L762" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M762" t="n">
-        <v>6900</v>
+        <v>7750</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>690</v>
+        <v>431</v>
       </c>
       <c r="Q762" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E763" t="n">
         <v>4</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K763" t="n">
-        <v>7800</v>
+        <v>5500</v>
       </c>
       <c r="L763" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M763" t="n">
-        <v>7900</v>
+        <v>5750</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E764" t="n">
         <v>4</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K764" t="n">
-        <v>5800</v>
+        <v>8000</v>
       </c>
       <c r="L764" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M764" t="n">
-        <v>5900</v>
+        <v>8500</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55387,7 +55387,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>328</v>
+        <v>472</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44452</v>
+        <v>44224</v>
       </c>
       <c r="E765" t="n">
         <v>4</v>
@@ -55428,25 +55428,25 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K765" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L765" t="n">
-        <v>20500</v>
+        <v>6500</v>
       </c>
       <c r="M765" t="n">
-        <v>20250</v>
+        <v>6250</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>1125</v>
+        <v>347</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E766" t="n">
         <v>4</v>
@@ -55512,13 +55512,13 @@
         <v>800</v>
       </c>
       <c r="K766" t="n">
-        <v>10500</v>
+        <v>6800</v>
       </c>
       <c r="L766" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M766" t="n">
-        <v>10750</v>
+        <v>6900</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>1075</v>
+        <v>690</v>
       </c>
       <c r="Q766" t="n">
         <v>10</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E767" t="n">
         <v>4</v>
@@ -55572,25 +55572,25 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K767" t="n">
-        <v>18500</v>
+        <v>7800</v>
       </c>
       <c r="L767" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M767" t="n">
-        <v>18750</v>
+        <v>7900</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>1042</v>
+        <v>439</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E768" t="n">
         <v>4</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>720</v>
+        <v>520</v>
       </c>
       <c r="K768" t="n">
-        <v>7500</v>
+        <v>5800</v>
       </c>
       <c r="L768" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M768" t="n">
-        <v>7750</v>
+        <v>5900</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>431</v>
+        <v>328</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E769" t="n">
         <v>4</v>
@@ -55716,25 +55716,25 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K769" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L769" t="n">
-        <v>5500</v>
+        <v>20500</v>
       </c>
       <c r="M769" t="n">
-        <v>5250</v>
+        <v>20250</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>292</v>
+        <v>1125</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44195</v>
+        <v>44452</v>
       </c>
       <c r="E770" t="n">
         <v>4</v>
@@ -55797,32 +55797,32 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="K770" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="L770" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M770" t="n">
-        <v>14500</v>
+        <v>10750</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>806</v>
+        <v>1075</v>
       </c>
       <c r="Q770" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44195</v>
+        <v>44452</v>
       </c>
       <c r="E771" t="n">
         <v>4</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K771" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="L771" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="M771" t="n">
-        <v>12250</v>
+        <v>18750</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>681</v>
+        <v>1042</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E772" t="n">
         <v>4</v>
@@ -55932,7 +55932,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K772" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="L772" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M772" t="n">
-        <v>16500</v>
+        <v>7750</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>917</v>
+        <v>431</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E773" t="n">
         <v>4</v>
@@ -56004,41 +56004,41 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K773" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L773" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M773" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>775</v>
+        <v>292</v>
       </c>
       <c r="Q773" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E774" t="n">
         <v>4</v>
@@ -56081,11 +56081,11 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K774" t="n">
         <v>14000</v>
@@ -56103,7 +56103,7 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P774" t="n">
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E775" t="n">
         <v>4</v>
@@ -56157,32 +56157,32 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K775" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L775" t="n">
-        <v>6600</v>
+        <v>12500</v>
       </c>
       <c r="M775" t="n">
-        <v>6550</v>
+        <v>12250</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>655</v>
+        <v>681</v>
       </c>
       <c r="Q775" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E776" t="n">
         <v>4</v>
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K776" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L776" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M776" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>597</v>
+        <v>917</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E777" t="n">
         <v>4</v>
@@ -56301,20 +56301,20 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="K777" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L777" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M777" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
@@ -56323,10 +56323,10 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>653</v>
+        <v>775</v>
       </c>
       <c r="Q777" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E778" t="n">
         <v>4</v>
@@ -56369,24 +56369,24 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K778" t="n">
-        <v>5600</v>
+        <v>14000</v>
       </c>
       <c r="L778" t="n">
-        <v>5700</v>
+        <v>15000</v>
       </c>
       <c r="M778" t="n">
-        <v>5650</v>
+        <v>14500</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
@@ -56395,10 +56395,10 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>565</v>
+        <v>806</v>
       </c>
       <c r="Q778" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E779" t="n">
         <v>4</v>
@@ -56448,29 +56448,29 @@
         <v>400</v>
       </c>
       <c r="K779" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L779" t="n">
-        <v>8500</v>
+        <v>6600</v>
       </c>
       <c r="M779" t="n">
-        <v>8250</v>
+        <v>6550</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>458</v>
+        <v>655</v>
       </c>
       <c r="Q779" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K780" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L780" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M780" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56585,24 +56585,24 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K781" t="n">
-        <v>4300</v>
+        <v>11500</v>
       </c>
       <c r="L781" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M781" t="n">
-        <v>4400</v>
+        <v>11750</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
@@ -56611,10 +56611,10 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>440</v>
+        <v>653</v>
       </c>
       <c r="Q781" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56657,36 +56657,36 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K782" t="n">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="L782" t="n">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="M782" t="n">
-        <v>6250</v>
+        <v>5650</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>347</v>
+        <v>565</v>
       </c>
       <c r="Q782" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R782" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E783" t="n">
         <v>4</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K783" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L783" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="M783" t="n">
-        <v>14500</v>
+        <v>8250</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>806</v>
+        <v>458</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E784" t="n">
         <v>4</v>
@@ -56801,24 +56801,24 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K784" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L784" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M784" t="n">
-        <v>4250</v>
+        <v>9750</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
@@ -56827,10 +56827,10 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>425</v>
+        <v>542</v>
       </c>
       <c r="Q784" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E785" t="n">
         <v>4</v>
@@ -56880,17 +56880,17 @@
         <v>400</v>
       </c>
       <c r="K785" t="n">
-        <v>7500</v>
+        <v>4300</v>
       </c>
       <c r="L785" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M785" t="n">
-        <v>7750</v>
+        <v>4400</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
@@ -56899,10 +56899,10 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q785" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E786" t="n">
         <v>4</v>
@@ -56945,36 +56945,36 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K786" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L786" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M786" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="Q786" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R786" t="inlineStr">
         <is>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E787" t="n">
         <v>4</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K787" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L787" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M787" t="n">
-        <v>6750</v>
+        <v>14500</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>375</v>
+        <v>806</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E788" t="n">
         <v>4</v>
@@ -57089,36 +57089,36 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K788" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L788" t="n">
         <v>4500</v>
       </c>
-      <c r="L788" t="n">
-        <v>5000</v>
-      </c>
       <c r="M788" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>264</v>
+        <v>425</v>
       </c>
       <c r="Q788" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E789" t="n">
         <v>4</v>
@@ -57156,16 +57156,16 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K789" t="n">
         <v>7500</v>
@@ -57183,7 +57183,7 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P789" t="n">
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E790" t="n">
         <v>4</v>
@@ -57228,7 +57228,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -57237,32 +57237,32 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K790" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L790" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M790" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="Q790" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E791" t="n">
         <v>4</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K791" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L791" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M791" t="n">
-        <v>14500</v>
+        <v>6750</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>806</v>
+        <v>375</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E792" t="n">
         <v>4</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K792" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="L792" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M792" t="n">
-        <v>12750</v>
+        <v>4750</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>708</v>
+        <v>264</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E793" t="n">
         <v>4</v>
@@ -57444,7 +57444,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -57456,29 +57456,29 @@
         <v>800</v>
       </c>
       <c r="K793" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L793" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M793" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="Q793" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E794" t="n">
         <v>4</v>
@@ -57516,7 +57516,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K794" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L794" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M794" t="n">
-        <v>12500</v>
+        <v>5250</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>694</v>
+        <v>292</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K795" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="L795" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M795" t="n">
-        <v>10750</v>
+        <v>14500</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>597</v>
+        <v>806</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57665,24 +57665,24 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K796" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="L796" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M796" t="n">
-        <v>4750</v>
+        <v>12750</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
@@ -57691,10 +57691,10 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>475</v>
+        <v>708</v>
       </c>
       <c r="Q796" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E797" t="n">
         <v>4</v>
@@ -57744,29 +57744,29 @@
         <v>800</v>
       </c>
       <c r="K797" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="L797" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M797" t="n">
-        <v>10750</v>
+        <v>6250</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="Q797" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E798" t="n">
         <v>4</v>
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K798" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L798" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M798" t="n">
-        <v>8250</v>
+        <v>12500</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>458</v>
+        <v>694</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E799" t="n">
         <v>4</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J799" t="n">
         <v>400</v>
       </c>
       <c r="K799" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="L799" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M799" t="n">
-        <v>6250</v>
+        <v>10750</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>347</v>
+        <v>597</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E800" t="n">
         <v>4</v>
@@ -57948,41 +57948,41 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K800" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L800" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M800" t="n">
-        <v>7750</v>
+        <v>4750</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="Q800" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R800" t="inlineStr">
         <is>
@@ -58020,25 +58020,25 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K801" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L801" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M801" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E802" t="n">
         <v>4</v>
@@ -58092,25 +58092,25 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K802" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L802" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M802" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E803" t="n">
         <v>4</v>
@@ -58164,25 +58164,25 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K803" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L803" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M803" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44463</v>
+        <v>44239</v>
       </c>
       <c r="E804" t="n">
         <v>4</v>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K804" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L804" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M804" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44463</v>
+        <v>44239</v>
       </c>
       <c r="E805" t="n">
         <v>4</v>
@@ -58308,16 +58308,16 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K805" t="n">
         <v>5500</v>
@@ -58330,19 +58330,19 @@
       </c>
       <c r="N805" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>575</v>
+        <v>319</v>
       </c>
       <c r="Q805" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R805" t="inlineStr">
         <is>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44463</v>
+        <v>44344</v>
       </c>
       <c r="E806" t="n">
         <v>4</v>
@@ -58380,25 +58380,25 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K806" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L806" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M806" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44463</v>
+        <v>44344</v>
       </c>
       <c r="E807" t="n">
         <v>4</v>
@@ -58452,7 +58452,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -58464,29 +58464,29 @@
         <v>560</v>
       </c>
       <c r="K807" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L807" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M807" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>425</v>
+        <v>319</v>
       </c>
       <c r="Q807" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E808" t="n">
         <v>4</v>
@@ -58533,20 +58533,20 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="K808" t="n">
-        <v>5800</v>
+        <v>11500</v>
       </c>
       <c r="L808" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M808" t="n">
-        <v>5900</v>
+        <v>11750</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O808" t="inlineStr">
@@ -58555,10 +58555,10 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="Q808" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R808" t="inlineStr">
         <is>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E809" t="n">
         <v>4</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>460</v>
+        <v>880</v>
       </c>
       <c r="K809" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L809" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M809" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="Q809" t="n">
         <v>10</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44371</v>
+        <v>44463</v>
       </c>
       <c r="E810" t="n">
         <v>4</v>
@@ -58673,24 +58673,24 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K810" t="n">
-        <v>5400</v>
+        <v>9500</v>
       </c>
       <c r="L810" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M810" t="n">
-        <v>5450</v>
+        <v>9750</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O810" t="inlineStr">
@@ -58699,10 +58699,10 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Q810" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R810" t="inlineStr">
         <is>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44371</v>
+        <v>44463</v>
       </c>
       <c r="E811" t="n">
         <v>4</v>
@@ -58749,16 +58749,16 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="K811" t="n">
         <v>4000</v>
       </c>
       <c r="L811" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="M811" t="n">
-        <v>4100</v>
+        <v>4250</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="Q811" t="n">
         <v>10</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E812" t="n">
         <v>4</v>
@@ -58821,16 +58821,16 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K812" t="n">
+        <v>5800</v>
+      </c>
+      <c r="L812" t="n">
         <v>6000</v>
       </c>
-      <c r="L812" t="n">
-        <v>6500</v>
-      </c>
       <c r="M812" t="n">
-        <v>6250</v>
+        <v>5900</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="Q812" t="n">
         <v>10</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E813" t="n">
         <v>4</v>
@@ -58893,16 +58893,16 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="K813" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L813" t="n">
         <v>4500</v>
       </c>
       <c r="M813" t="n">
-        <v>4400</v>
+        <v>4250</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="Q813" t="n">
         <v>10</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E814" t="n">
         <v>4</v>
@@ -58965,20 +58965,20 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K814" t="n">
-        <v>10500</v>
+        <v>5400</v>
       </c>
       <c r="L814" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M814" t="n">
-        <v>10750</v>
+        <v>5450</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O814" t="inlineStr">
@@ -58987,10 +58987,10 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="Q814" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R814" t="inlineStr">
         <is>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E815" t="n">
         <v>4</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>900</v>
+        <v>540</v>
       </c>
       <c r="K815" t="n">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="L815" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="M815" t="n">
-        <v>5400</v>
+        <v>4100</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>540</v>
+        <v>410</v>
       </c>
       <c r="Q815" t="n">
         <v>10</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E816" t="n">
         <v>4</v>
@@ -59105,24 +59105,24 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K816" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L816" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M816" t="n">
-        <v>9250</v>
+        <v>6250</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O816" t="inlineStr">
@@ -59131,10 +59131,10 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="Q816" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R816" t="inlineStr">
         <is>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E817" t="n">
         <v>4</v>
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K817" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="L817" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="M817" t="n">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="Q817" t="n">
         <v>10</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E818" t="n">
         <v>4</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K818" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="L818" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M818" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>819</v>
+        <v>597</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E819" t="n">
         <v>4</v>
@@ -59321,24 +59321,24 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K819" t="n">
-        <v>12500</v>
+        <v>5300</v>
       </c>
       <c r="L819" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M819" t="n">
-        <v>12750</v>
+        <v>5400</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
@@ -59347,10 +59347,10 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>708</v>
+        <v>540</v>
       </c>
       <c r="Q819" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E820" t="n">
         <v>4</v>
@@ -59393,24 +59393,24 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J820" t="n">
         <v>500</v>
       </c>
       <c r="K820" t="n">
-        <v>5300</v>
+        <v>9000</v>
       </c>
       <c r="L820" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="M820" t="n">
-        <v>5400</v>
+        <v>9250</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O820" t="inlineStr">
@@ -59419,10 +59419,10 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="Q820" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R820" t="inlineStr">
         <is>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E821" t="n">
         <v>4</v>
@@ -59460,41 +59460,41 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K821" t="n">
-        <v>6300</v>
+        <v>4000</v>
       </c>
       <c r="L821" t="n">
-        <v>6500</v>
+        <v>4200</v>
       </c>
       <c r="M821" t="n">
-        <v>6400</v>
+        <v>4100</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="Q821" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R821" t="inlineStr">
         <is>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E822" t="n">
         <v>4</v>
@@ -59532,25 +59532,25 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>480</v>
+        <v>760</v>
       </c>
       <c r="K822" t="n">
-        <v>4300</v>
+        <v>14500</v>
       </c>
       <c r="L822" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="M822" t="n">
-        <v>4400</v>
+        <v>14750</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>244</v>
+        <v>819</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E823" t="n">
         <v>4</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K823" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L823" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M823" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>806</v>
+        <v>708</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E824" t="n">
         <v>4</v>
@@ -59685,32 +59685,32 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K824" t="n">
-        <v>12000</v>
+        <v>5300</v>
       </c>
       <c r="L824" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M824" t="n">
-        <v>12500</v>
+        <v>5400</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>694</v>
+        <v>540</v>
       </c>
       <c r="Q824" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R824" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E825" t="n">
         <v>4</v>
@@ -59748,7 +59748,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="K825" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="L825" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="M825" t="n">
-        <v>10250</v>
+        <v>6400</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>569</v>
+        <v>356</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E826" t="n">
         <v>4</v>
@@ -59820,41 +59820,41 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K826" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="L826" t="n">
         <v>4500</v>
       </c>
       <c r="M826" t="n">
-        <v>4250</v>
+        <v>4400</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>425</v>
+        <v>244</v>
       </c>
       <c r="Q826" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R826" t="inlineStr">
         <is>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K827" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L827" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M827" t="n">
-        <v>8250</v>
+        <v>14500</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>458</v>
+        <v>806</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59969,36 +59969,36 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K828" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="L828" t="n">
-        <v>2500</v>
+        <v>13000</v>
       </c>
       <c r="M828" t="n">
-        <v>2250</v>
+        <v>12500</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>225</v>
+        <v>694</v>
       </c>
       <c r="Q828" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R828" t="inlineStr">
         <is>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E829" t="n">
         <v>4</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="K829" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L829" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M829" t="n">
-        <v>14500</v>
+        <v>10250</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>806</v>
+        <v>569</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E830" t="n">
         <v>4</v>
@@ -60117,32 +60117,32 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K830" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L830" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M830" t="n">
-        <v>12500</v>
+        <v>4250</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>694</v>
+        <v>425</v>
       </c>
       <c r="Q830" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R830" t="inlineStr">
         <is>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E831" t="n">
         <v>4</v>
@@ -60185,24 +60185,24 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K831" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L831" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M831" t="n">
-        <v>4250</v>
+        <v>8250</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O831" t="inlineStr">
@@ -60211,10 +60211,10 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="Q831" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R831" t="inlineStr">
         <is>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E832" t="n">
         <v>4</v>
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K832" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L832" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M832" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="Q832" t="n">
         <v>10</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E833" t="n">
         <v>4</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J833" t="n">
         <v>600</v>
       </c>
       <c r="K833" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L833" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M833" t="n">
-        <v>5750</v>
+        <v>14500</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>319</v>
+        <v>806</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E834" t="n">
         <v>4</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
         <v>500</v>
       </c>
       <c r="K834" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L834" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M834" t="n">
-        <v>4250</v>
+        <v>12500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>236</v>
+        <v>694</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E835" t="n">
         <v>4</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60477,32 +60477,32 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K835" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L835" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M835" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="Q835" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60525,58 +60525,346 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E836" t="n">
+        <v>4</v>
+      </c>
+      <c r="F836" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J836" t="n">
+        <v>500</v>
+      </c>
+      <c r="K836" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L836" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M836" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N836" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O836" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P836" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q836" t="n">
+        <v>10</v>
+      </c>
+      <c r="R836" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>8</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D837" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E836" t="n">
-        <v>4</v>
-      </c>
-      <c r="F836" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H836" t="inlineStr">
+      <c r="E837" t="n">
+        <v>4</v>
+      </c>
+      <c r="F837" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G837" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J837" t="n">
+        <v>600</v>
+      </c>
+      <c r="K837" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L837" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M837" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N837" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O837" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P837" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q837" t="n">
+        <v>18</v>
+      </c>
+      <c r="R837" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>8</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D838" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E838" t="n">
+        <v>4</v>
+      </c>
+      <c r="F838" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G838" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J838" t="n">
+        <v>500</v>
+      </c>
+      <c r="K838" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L838" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M838" t="n">
+        <v>4250</v>
+      </c>
+      <c r="N838" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O838" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P838" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q838" t="n">
+        <v>18</v>
+      </c>
+      <c r="R838" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>8</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D839" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E839" t="n">
+        <v>4</v>
+      </c>
+      <c r="F839" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G839" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H839" t="inlineStr">
         <is>
           <t>Semiduro</t>
         </is>
       </c>
-      <c r="I836" t="inlineStr">
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J839" t="n">
+        <v>900</v>
+      </c>
+      <c r="K839" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L839" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M839" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N839" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O839" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P839" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q839" t="n">
+        <v>18</v>
+      </c>
+      <c r="R839" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>8</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D840" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E840" t="n">
+        <v>4</v>
+      </c>
+      <c r="F840" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I840" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J836" t="n">
+      <c r="J840" t="n">
         <v>520</v>
       </c>
-      <c r="K836" t="n">
+      <c r="K840" t="n">
         <v>5000</v>
       </c>
-      <c r="L836" t="n">
+      <c r="L840" t="n">
         <v>5500</v>
       </c>
-      <c r="M836" t="n">
+      <c r="M840" t="n">
         <v>5250</v>
       </c>
-      <c r="N836" t="inlineStr">
+      <c r="N840" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O836" t="inlineStr">
+      <c r="O840" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P836" t="n">
+      <c r="P840" t="n">
         <v>292</v>
       </c>
-      <c r="Q836" t="n">
+      <c r="Q840" t="n">
         <v>18</v>
       </c>
-      <c r="R836" t="inlineStr">
+      <c r="R840" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R902"/>
+  <dimension ref="A1:R904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E832" t="n">
         <v>4</v>
@@ -60264,13 +60264,13 @@
         <v>800</v>
       </c>
       <c r="K832" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="L832" t="n">
         <v>14000</v>
       </c>
       <c r="M832" t="n">
-        <v>13750</v>
+        <v>13500</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E833" t="n">
         <v>4</v>
@@ -60329,36 +60329,36 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K833" t="n">
-        <v>6300</v>
+        <v>11000</v>
       </c>
       <c r="L833" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M833" t="n">
-        <v>6400</v>
+        <v>11500</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q833" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R833" t="inlineStr">
         <is>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K834" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="L834" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M834" t="n">
-        <v>11750</v>
+        <v>13750</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>653</v>
+        <v>764</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K835" t="n">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="L835" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M835" t="n">
-        <v>5250</v>
+        <v>6400</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>525</v>
+        <v>640</v>
       </c>
       <c r="Q835" t="n">
         <v>10</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E836" t="n">
         <v>4</v>
@@ -60545,24 +60545,24 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K836" t="n">
-        <v>4300</v>
+        <v>11500</v>
       </c>
       <c r="L836" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M836" t="n">
-        <v>4400</v>
+        <v>11750</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
@@ -60571,10 +60571,10 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>440</v>
+        <v>653</v>
       </c>
       <c r="Q836" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E837" t="n">
         <v>4</v>
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K837" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L837" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M837" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="Q837" t="n">
         <v>10</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E838" t="n">
         <v>4</v>
@@ -60693,20 +60693,20 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K838" t="n">
-        <v>13000</v>
+        <v>4300</v>
       </c>
       <c r="L838" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M838" t="n">
-        <v>13500</v>
+        <v>4400</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
@@ -60715,10 +60715,10 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>750</v>
+        <v>440</v>
       </c>
       <c r="Q838" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E839" t="n">
         <v>4</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>880</v>
+        <v>500</v>
       </c>
       <c r="K839" t="n">
-        <v>6300</v>
+        <v>3000</v>
       </c>
       <c r="L839" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M839" t="n">
-        <v>6400</v>
+        <v>3250</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>640</v>
+        <v>325</v>
       </c>
       <c r="Q839" t="n">
         <v>10</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="K840" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L840" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M840" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>639</v>
+        <v>750</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>560</v>
+        <v>880</v>
       </c>
       <c r="K841" t="n">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="L841" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M841" t="n">
-        <v>5250</v>
+        <v>6400</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>525</v>
+        <v>640</v>
       </c>
       <c r="Q841" t="n">
         <v>10</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E842" t="n">
         <v>4</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K842" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L842" t="n">
         <v>12000</v>
       </c>
-      <c r="L842" t="n">
-        <v>12500</v>
-      </c>
       <c r="M842" t="n">
-        <v>12250</v>
+        <v>11500</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E843" t="n">
         <v>4</v>
@@ -61053,32 +61053,32 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K843" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L843" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M843" t="n">
-        <v>9750</v>
+        <v>5250</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="Q843" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K844" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="L844" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M844" t="n">
-        <v>10750</v>
+        <v>12250</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>597</v>
+        <v>681</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K845" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L845" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M845" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E846" t="n">
         <v>4</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K846" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L846" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M846" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E847" t="n">
         <v>4</v>
@@ -61344,13 +61344,13 @@
         <v>560</v>
       </c>
       <c r="K847" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L847" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M847" t="n">
-        <v>5250</v>
+        <v>8750</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>292</v>
+        <v>486</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E848" t="n">
         <v>4</v>
@@ -61404,7 +61404,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
@@ -61413,32 +61413,32 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K848" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L848" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M848" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>950</v>
+        <v>431</v>
       </c>
       <c r="Q848" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R848" t="inlineStr">
         <is>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E849" t="n">
         <v>4</v>
@@ -61476,41 +61476,41 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="K849" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L849" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M849" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>475</v>
+        <v>292</v>
       </c>
       <c r="Q849" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61548,25 +61548,25 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K850" t="n">
-        <v>3300</v>
+        <v>9000</v>
       </c>
       <c r="L850" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="M850" t="n">
-        <v>3400</v>
+        <v>9500</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>340</v>
+        <v>950</v>
       </c>
       <c r="Q850" t="n">
         <v>10</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E851" t="n">
         <v>4</v>
@@ -61620,7 +61620,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -61629,32 +61629,32 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K851" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L851" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M851" t="n">
-        <v>7750</v>
+        <v>4750</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="Q851" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E852" t="n">
         <v>4</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,32 +61701,32 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K852" t="n">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="L852" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M852" t="n">
-        <v>5250</v>
+        <v>3400</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="Q852" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E853" t="n">
         <v>4</v>
@@ -61764,7 +61764,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K853" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="L853" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M853" t="n">
-        <v>14750</v>
+        <v>7750</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>819</v>
+        <v>431</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E854" t="n">
         <v>4</v>
@@ -61836,41 +61836,41 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K854" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L854" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M854" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>725</v>
+        <v>292</v>
       </c>
       <c r="Q854" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K855" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="L855" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M855" t="n">
-        <v>12250</v>
+        <v>14750</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>681</v>
+        <v>819</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K856" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L856" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M856" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q856" t="n">
         <v>10</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E857" t="n">
         <v>4</v>
@@ -62057,24 +62057,24 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K857" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L857" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="M857" t="n">
-        <v>5750</v>
+        <v>12250</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
@@ -62083,10 +62083,10 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="Q857" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E858" t="n">
         <v>4</v>
@@ -62124,41 +62124,41 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K858" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L858" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M858" t="n">
-        <v>9750</v>
+        <v>5250</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="Q858" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R858" t="inlineStr">
         <is>
@@ -62196,41 +62196,41 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K859" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L859" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M859" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="Q859" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E860" t="n">
         <v>4</v>
@@ -62268,7 +62268,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
@@ -62277,32 +62277,32 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K860" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L860" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M860" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>675</v>
+        <v>542</v>
       </c>
       <c r="Q860" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E861" t="n">
         <v>4</v>
@@ -62340,7 +62340,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -62352,29 +62352,29 @@
         <v>400</v>
       </c>
       <c r="K861" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L861" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M861" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>575</v>
+        <v>431</v>
       </c>
       <c r="Q861" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E862" t="n">
         <v>4</v>
@@ -62421,32 +62421,32 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K862" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L862" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M862" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>542</v>
+        <v>675</v>
       </c>
       <c r="Q862" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E863" t="n">
         <v>4</v>
@@ -62484,41 +62484,41 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="K863" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L863" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M863" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>403</v>
+        <v>575</v>
       </c>
       <c r="Q863" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62556,25 +62556,25 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K864" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L864" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M864" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E865" t="n">
         <v>4</v>
@@ -62637,7 +62637,7 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="K865" t="n">
         <v>7000</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E866" t="n">
         <v>4</v>
@@ -62709,7 +62709,7 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K866" t="n">
         <v>5000</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E867" t="n">
         <v>4</v>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62784,13 +62784,13 @@
         <v>800</v>
       </c>
       <c r="K867" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L867" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M867" t="n">
-        <v>9750</v>
+        <v>7250</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>542</v>
+        <v>403</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E868" t="n">
         <v>4</v>
@@ -62844,41 +62844,41 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K868" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="L868" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M868" t="n">
-        <v>4900</v>
+        <v>5250</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>490</v>
+        <v>292</v>
       </c>
       <c r="Q868" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K869" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L869" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M869" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K870" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="L870" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="M870" t="n">
-        <v>3650</v>
+        <v>4900</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>365</v>
+        <v>490</v>
       </c>
       <c r="Q870" t="n">
         <v>10</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E871" t="n">
         <v>4</v>
@@ -63060,25 +63060,25 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K871" t="n">
-        <v>6800</v>
+        <v>8000</v>
       </c>
       <c r="L871" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M871" t="n">
-        <v>6900</v>
+        <v>8250</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E872" t="n">
         <v>4</v>
@@ -63132,7 +63132,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -63141,32 +63141,32 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="K872" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="L872" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="M872" t="n">
-        <v>4900</v>
+        <v>3650</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="Q872" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E873" t="n">
         <v>4</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63216,13 +63216,13 @@
         <v>800</v>
       </c>
       <c r="K873" t="n">
-        <v>16000</v>
+        <v>6800</v>
       </c>
       <c r="L873" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M873" t="n">
-        <v>16500</v>
+        <v>6900</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>917</v>
+        <v>383</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E874" t="n">
         <v>4</v>
@@ -63276,41 +63276,41 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>760</v>
+        <v>480</v>
       </c>
       <c r="K874" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="L874" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M874" t="n">
-        <v>7750</v>
+        <v>4900</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>775</v>
+        <v>272</v>
       </c>
       <c r="Q874" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K875" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L875" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M875" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>708</v>
+        <v>917</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="K876" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L876" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M876" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q876" t="n">
         <v>10</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E877" t="n">
         <v>4</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K877" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L877" t="n">
-        <v>12000</v>
+        <v>13000</v>
       <